--- a/7936.T.xlsx
+++ b/7936.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B070DA0C-F64F-4443-89F5-2B0C838B7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E532B5F-2D8D-4489-8DD6-7527415A9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
+    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Asics Group</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>Revenue YoY</t>
+  </si>
+  <si>
+    <t>Brands:</t>
+  </si>
+  <si>
+    <t>Asics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asics Tiger </t>
+  </si>
+  <si>
+    <t>Haglöfs</t>
   </si>
 </sst>
 </file>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403BCA5A-AD74-4A89-82B4-2A5ED42596B0}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,12 +733,35 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
         <v>2402944.8592619998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -741,11 +776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0781B03-897F-4FBF-8E19-27D8F6677ACE}">
   <dimension ref="A1:BJ318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,7 +3487,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="7" t="e">
-        <f t="shared" ref="N35:Q35" si="18">+N11/M11-1</f>
+        <f t="shared" ref="N35:P35" si="18">+N11/M11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="7">
@@ -3527,7 +3562,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="7" t="e">
-        <f t="shared" ref="L36:Q36" si="19">+L13/L11</f>
+        <f t="shared" ref="L36:P36" si="19">+L13/L11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="7" t="e">

--- a/7936.T.xlsx
+++ b/7936.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E532B5F-2D8D-4489-8DD6-7527415A9BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3DB03-4CC0-47E4-8305-F190FB0B3CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="780" windowWidth="38175" windowHeight="15240" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Asics Group</t>
   </si>
@@ -217,9 +217,6 @@
     <t>FY24</t>
   </si>
   <si>
-    <t>Revenue YoY</t>
-  </si>
-  <si>
     <t>Brands:</t>
   </si>
   <si>
@@ -231,13 +228,38 @@
   <si>
     <t>Haglöfs</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Gros Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -306,7 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,6 +340,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403BCA5A-AD74-4A89-82B4-2A5ED42596B0}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>3518</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -687,10 +711,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>722.61820899999998</v>
+        <v>734.48223599999994</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,7 +726,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2542170.8592619998</v>
+        <v>3117877.0918199997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,11 +737,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <f>127021+74705</f>
-        <v>201726</v>
+        <v>124662</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,28 +748,28 @@
         <v>5</v>
       </c>
       <c r="I6" s="3">
-        <f>2500+25000+35000</f>
-        <v>62500</v>
+        <f>0+25000+35000</f>
+        <v>60000</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2402944.8592619998</v>
+        <v>3053215.0918199997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -756,12 +779,12 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +797,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0781B03-897F-4FBF-8E19-27D8F6677ACE}">
-  <dimension ref="A1:BJ318"/>
+  <dimension ref="A1:BN318"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +812,12 @@
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -819,26 +842,38 @@
       <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="L2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -852,10 +887,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -888,15 +923,15 @@
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
       <c r="AY3" s="2"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
       <c r="BD3" s="3"/>
       <c r="BE3" s="3"/>
       <c r="BF3" s="3"/>
@@ -904,8 +939,12 @@
       <c r="BH3" s="3"/>
       <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -955,15 +994,15 @@
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
       <c r="BD4" s="3"/>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
@@ -971,8 +1010,12 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1017,15 +1060,15 @@
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
       <c r="BD5" s="3"/>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
@@ -1033,8 +1076,12 @@
       <c r="BH5" s="3"/>
       <c r="BI5" s="3"/>
       <c r="BJ5" s="3"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -1054,27 +1101,34 @@
         <v>87894</v>
       </c>
       <c r="H6" s="3">
-        <v>170903</v>
+        <f>170903-G6</f>
+        <v>83009</v>
       </c>
       <c r="I6" s="3">
-        <v>258277</v>
+        <f>258277-SUM(G6:H6)</f>
+        <v>87374</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="3">
+        <v>98003</v>
+      </c>
+      <c r="L6" s="3">
+        <f>184964-K6</f>
+        <v>86961</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>285929</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>326936</v>
-      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="T6" s="3">
+        <v>285929</v>
+      </c>
+      <c r="U6" s="3">
+        <v>326936</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1100,15 +1154,15 @@
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
       <c r="AY6" s="2"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
       <c r="BD6" s="3"/>
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
@@ -1116,8 +1170,12 @@
       <c r="BH6" s="3"/>
       <c r="BI6" s="3"/>
       <c r="BJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -1137,27 +1195,34 @@
         <v>24884</v>
       </c>
       <c r="H7" s="3">
-        <v>42086</v>
+        <f>42086-G7</f>
+        <v>17202</v>
       </c>
       <c r="I7" s="3">
-        <v>64884</v>
+        <f>64884-SUM(G7:H7)</f>
+        <v>22798</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3">
+        <v>25497</v>
+      </c>
+      <c r="L7" s="3">
+        <f>44118-K7</f>
+        <v>18621</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>72154</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>78620</v>
-      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="T7" s="3">
+        <v>72154</v>
+      </c>
+      <c r="U7" s="3">
+        <v>78620</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1183,15 +1248,15 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
       <c r="AY7" s="2"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
       <c r="BD7" s="3"/>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
@@ -1199,8 +1264,12 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -1220,27 +1289,34 @@
         <v>9325</v>
       </c>
       <c r="H8" s="3">
-        <v>18713</v>
+        <f>18713-G8</f>
+        <v>9388</v>
       </c>
       <c r="I8" s="3">
-        <v>29130</v>
+        <f>29130-SUM(G8:H8)</f>
+        <v>10417</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="3">
+        <v>10339</v>
+      </c>
+      <c r="L8" s="3">
+        <f>20003-K8</f>
+        <v>9664</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>36185</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>38065</v>
-      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="T8" s="3">
+        <v>36185</v>
+      </c>
+      <c r="U8" s="3">
+        <v>38065</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1266,15 +1342,15 @@
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
       <c r="AY8" s="2"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
       <c r="BD8" s="3"/>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
@@ -1282,8 +1358,12 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1303,27 +1383,34 @@
         <v>23493</v>
       </c>
       <c r="H9" s="3">
-        <v>45986</v>
+        <f>45986-G9</f>
+        <v>22493</v>
       </c>
       <c r="I9" s="3">
-        <v>75085</v>
+        <f>75085-SUM(G9:H9)</f>
+        <v>29099</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3">
+        <v>35144</v>
+      </c>
+      <c r="L9" s="3">
+        <f>67314-K9</f>
+        <v>32170</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>59257</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>98425</v>
-      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="T9" s="3">
+        <v>59257</v>
+      </c>
+      <c r="U9" s="3">
+        <v>98425</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1349,15 +1436,15 @@
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
       <c r="AY9" s="2"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
       <c r="BD9" s="3"/>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
@@ -1365,8 +1452,12 @@
       <c r="BH9" s="3"/>
       <c r="BI9" s="3"/>
       <c r="BJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -1386,27 +1477,34 @@
         <v>18024</v>
       </c>
       <c r="H10" s="3">
-        <v>43884</v>
+        <f>43884-G10</f>
+        <v>25860</v>
       </c>
       <c r="I10" s="3">
-        <v>68535</v>
+        <f>68535-SUM(G10:H10)</f>
+        <v>24651</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3">
+        <v>28325</v>
+      </c>
+      <c r="L10" s="3">
+        <f>65876-K10</f>
+        <v>37551</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>60304</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>95439</v>
-      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="T10" s="3">
+        <v>60304</v>
+      </c>
+      <c r="U10" s="3">
+        <v>95439</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1432,15 +1530,15 @@
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
       <c r="AY10" s="2"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
       <c r="BD10" s="3"/>
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
@@ -1448,8 +1546,12 @@
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
       <c r="BJ10" s="3"/>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1567,7 @@
         <v>158026</v>
       </c>
       <c r="F11" s="6">
-        <f>+P11-SUM(C11:E11)</f>
+        <f>+T11-SUM(C11:E11)</f>
         <v>122358</v>
       </c>
       <c r="G11" s="6">
@@ -1480,28 +1582,33 @@
         <v>183255</v>
       </c>
       <c r="J11" s="6">
-        <f>+Q11-SUM(G11:I11)</f>
+        <f>+U11-SUM(G11:I11)</f>
         <v>153072</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="6">
+      <c r="K11" s="6">
+        <v>208313</v>
+      </c>
+      <c r="L11" s="6">
+        <f>402798-K11</f>
+        <v>194485</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="6">
         <v>404083</v>
       </c>
-      <c r="O11" s="6">
+      <c r="S11" s="6">
         <v>484601</v>
       </c>
-      <c r="P11" s="6">
+      <c r="T11" s="6">
         <v>570463</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="U11" s="6">
         <v>678526</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -1527,15 +1634,15 @@
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
       <c r="BD11" s="3"/>
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
@@ -1543,8 +1650,12 @@
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
       <c r="BJ11" s="3"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1562,31 +1673,38 @@
         <v>79254</v>
       </c>
       <c r="H12" s="3">
-        <v>152108</v>
+        <f>152108-G12</f>
+        <v>72854</v>
       </c>
       <c r="I12" s="3">
-        <v>234533</v>
+        <f>234533-SUM(G12:H12)</f>
+        <v>82425</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3">
+        <v>91990</v>
+      </c>
+      <c r="L12" s="3">
+        <f>174356-K12</f>
+        <v>82366</v>
+      </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>204205</v>
       </c>
-      <c r="O12" s="3">
+      <c r="S12" s="3">
         <v>243894</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="3">
         <v>273566</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="U12" s="3">
         <v>299648</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1612,15 +1730,15 @@
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
@@ -1628,8 +1746,12 @@
       <c r="BH12" s="3"/>
       <c r="BI12" s="3"/>
       <c r="BJ12" s="3"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1655,39 +1777,45 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>15989</v>
+        <v>95243</v>
       </c>
       <c r="I13" s="3">
         <f>+I11-I12</f>
-        <v>-51278</v>
+        <v>100830</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13" si="1">+J11-J12</f>
+        <f t="shared" ref="J13:L13" si="1">+J11-J12</f>
         <v>153072</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>116323</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>112119</v>
+      </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3">
-        <f>+N11-N12</f>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <f>+R11-R12</f>
         <v>199878</v>
       </c>
-      <c r="O13" s="3">
-        <f>+O11-O12</f>
+      <c r="S13" s="3">
+        <f>+S11-S12</f>
         <v>240707</v>
       </c>
-      <c r="P13" s="3">
-        <f>+P11-P12</f>
+      <c r="T13" s="3">
+        <f>+T11-T12</f>
         <v>296897</v>
       </c>
-      <c r="Q13" s="3">
-        <f>+Q11-Q12</f>
+      <c r="U13" s="3">
+        <f>+U11-U12</f>
         <v>378878</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1713,15 +1841,15 @@
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
@@ -1729,8 +1857,12 @@
       <c r="BH13" s="3"/>
       <c r="BI13" s="3"/>
       <c r="BJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1748,31 +1880,38 @@
         <v>61034</v>
       </c>
       <c r="H14" s="3">
-        <v>131094</v>
+        <f>131094-G14</f>
+        <v>70060</v>
       </c>
       <c r="I14" s="3">
-        <v>199397</v>
+        <f>199397-SUM(G14:H14)</f>
+        <v>68303</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3">
+        <v>71810</v>
+      </c>
+      <c r="L14" s="3">
+        <f>147310-K14</f>
+        <v>75500</v>
+      </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
         <v>177932</v>
       </c>
-      <c r="O14" s="3">
+      <c r="S14" s="3">
         <v>206704</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>242680</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>278766</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -1798,15 +1937,15 @@
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
       <c r="AY14" s="2"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
@@ -1814,8 +1953,12 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
       <c r="BJ14" s="3"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1841,39 +1984,45 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>-115105</v>
+        <v>25183</v>
       </c>
       <c r="I15" s="3">
         <f>+I13-I14</f>
-        <v>-250675</v>
+        <v>32527</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15" si="3">+J13-J14</f>
+        <f t="shared" ref="J15:L15" si="3">+J13-J14</f>
         <v>153072</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>44513</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>36619</v>
+      </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <f t="shared" ref="N15:O15" si="4">+N13-N14</f>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <f t="shared" ref="R15:S15" si="4">+R13-R14</f>
         <v>21946</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <f t="shared" si="4"/>
         <v>34003</v>
       </c>
-      <c r="P15" s="3">
-        <f>+P13-P14</f>
+      <c r="T15" s="3">
+        <f>+T13-T14</f>
         <v>54217</v>
       </c>
-      <c r="Q15" s="3">
-        <f>+Q13-Q14</f>
+      <c r="U15" s="3">
+        <f>+U13-U14</f>
         <v>100112</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -1899,15 +2048,15 @@
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
       <c r="AY15" s="2"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
@@ -1915,8 +2064,12 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1934,27 +2087,34 @@
         <v>1636</v>
       </c>
       <c r="H16" s="3">
-        <v>3802</v>
+        <f>3802-G16</f>
+        <v>2166</v>
       </c>
       <c r="I16" s="3">
-        <v>5815</v>
+        <f>5815-SUM(G16:H16)</f>
+        <v>2013</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="3">
+        <v>1640</v>
+      </c>
+      <c r="L16" s="3">
+        <f>2551-K16</f>
+        <v>911</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
-        <v>5301</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>5745</v>
-      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="T16" s="3">
+        <v>5301</v>
+      </c>
+      <c r="U16" s="3">
+        <v>5745</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1980,15 +2140,15 @@
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
       <c r="AY16" s="2"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
@@ -1996,8 +2156,12 @@
       <c r="BH16" s="3"/>
       <c r="BI16" s="3"/>
       <c r="BJ16" s="3"/>
-    </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+    </row>
+    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -2015,27 +2179,34 @@
         <v>2372</v>
       </c>
       <c r="H17" s="3">
-        <v>4976</v>
+        <f>4976-G17</f>
+        <v>2604</v>
       </c>
       <c r="I17" s="3">
-        <v>9059</v>
+        <f>9059-SUM(G17:H17)</f>
+        <v>4083</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3">
+        <v>2775</v>
+      </c>
+      <c r="L17" s="3">
+        <f>5056-K17</f>
+        <v>2281</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>8845</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>13255</v>
-      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="T17" s="3">
+        <v>8845</v>
+      </c>
+      <c r="U17" s="3">
+        <v>13255</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2061,15 +2232,15 @@
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
       <c r="AY17" s="2"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
@@ -2077,8 +2248,12 @@
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="3"/>
-    </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+    </row>
+    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -2104,33 +2279,39 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="5"/>
-        <v>-116279</v>
+        <v>24745</v>
       </c>
       <c r="I18" s="3">
         <f>+I15-I17+I16</f>
-        <v>-253919</v>
+        <v>30457</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18" si="6">+J15-J17+J16</f>
+        <f t="shared" ref="J18:L18" si="6">+J15-J17+J16</f>
         <v>153072</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3">
+        <f t="shared" si="6"/>
+        <v>43378</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="6"/>
+        <v>35249</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <f>+P15+P16-P17</f>
-        <v>50673</v>
-      </c>
-      <c r="Q18" s="3">
-        <f>+Q15+Q16-Q17</f>
-        <v>92602</v>
-      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="T18" s="3">
+        <f>+T15+T16-T17</f>
+        <v>50673</v>
+      </c>
+      <c r="U18" s="3">
+        <f>+U15+U16-U17</f>
+        <v>92602</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2156,15 +2337,15 @@
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
       <c r="AY18" s="2"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
@@ -2172,8 +2353,12 @@
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
       <c r="BJ18" s="3"/>
-    </row>
-    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+    </row>
+    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -2191,27 +2376,34 @@
         <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>267</v>
+        <f>267-G19</f>
+        <v>266</v>
       </c>
       <c r="I19" s="3">
-        <v>5924</v>
+        <f>5924-SUM(G19:H19)</f>
+        <v>5657</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3">
+        <f>2305-K19</f>
+        <v>2293</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>8418</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>7174</v>
-      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="T19" s="3">
+        <v>8418</v>
+      </c>
+      <c r="U19" s="3">
+        <v>7174</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2237,15 +2429,15 @@
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
       <c r="AY19" s="2"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
@@ -2253,8 +2445,12 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3"/>
-    </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+    </row>
+    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -2272,27 +2468,34 @@
         <v>15</v>
       </c>
       <c r="H20" s="3">
-        <v>31</v>
+        <f>31-G20</f>
+        <v>16</v>
       </c>
       <c r="I20" s="3">
-        <v>2129</v>
+        <f>2129-SUM(G20:H20)</f>
+        <v>2098</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="3">
+        <v>6</v>
+      </c>
+      <c r="L20" s="3">
+        <f>200-K20</f>
+        <v>194</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>8516</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>6531</v>
-      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="T20" s="3">
+        <v>8516</v>
+      </c>
+      <c r="U20" s="3">
+        <v>6531</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2318,15 +2521,15 @@
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
       <c r="AY20" s="2"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
       <c r="BF20" s="3"/>
@@ -2334,8 +2537,12 @@
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
       <c r="BJ20" s="3"/>
-    </row>
-    <row r="21" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+    </row>
+    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -2361,33 +2568,39 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="7"/>
-        <v>-116043</v>
+        <v>24995</v>
       </c>
       <c r="I21" s="3">
         <f>+I18+I19-I20</f>
-        <v>-250124</v>
+        <v>34016</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21" si="8">+J18+J19-J20</f>
+        <f t="shared" ref="J21:L21" si="8">+J18+J19-J20</f>
         <v>153072</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="8"/>
+        <v>43384</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="8"/>
+        <v>37348</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3">
-        <f>+P18+P19-P20</f>
-        <v>50575</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>+Q18+Q19-Q20</f>
-        <v>93245</v>
-      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="T21" s="3">
+        <f>+T18+T19-T20</f>
+        <v>50575</v>
+      </c>
+      <c r="U21" s="3">
+        <f>+U18+U19-U20</f>
+        <v>93245</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2413,15 +2626,15 @@
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
       <c r="AY21" s="2"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
@@ -2429,8 +2642,12 @@
       <c r="BH21" s="3"/>
       <c r="BI21" s="3"/>
       <c r="BJ21" s="3"/>
-    </row>
-    <row r="22" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+    </row>
+    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -2448,27 +2665,34 @@
         <v>6239</v>
       </c>
       <c r="H22" s="3">
-        <v>15761</v>
+        <f>15761-G22</f>
+        <v>9522</v>
       </c>
       <c r="I22" s="3">
-        <v>27112</v>
+        <f>27112-SUM(G22:H22)</f>
+        <v>11351</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3">
+        <v>11654</v>
+      </c>
+      <c r="L22" s="3">
+        <f>27048-K22</f>
+        <v>15394</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3">
-        <v>15119</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>29299</v>
-      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="T22" s="3">
+        <v>15119</v>
+      </c>
+      <c r="U22" s="3">
+        <v>29299</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2494,15 +2718,15 @@
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
       <c r="AY22" s="2"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
       <c r="BF22" s="3"/>
@@ -2510,8 +2734,12 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
-    </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+    </row>
+    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -2537,33 +2765,39 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="9"/>
-        <v>-131804</v>
+        <v>15473</v>
       </c>
       <c r="I23" s="3">
         <f>+I21-I22</f>
-        <v>-277236</v>
+        <v>22665</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23" si="10">+J21-J22</f>
+        <f t="shared" ref="J23:L23" si="10">+J21-J22</f>
         <v>153072</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="3">
+        <f t="shared" si="10"/>
+        <v>31730</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="10"/>
+        <v>21954</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3">
-        <f>+P21-P22</f>
-        <v>35456</v>
-      </c>
-      <c r="Q23" s="3">
-        <f>+Q21-Q22</f>
-        <v>63946</v>
-      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="T23" s="3">
+        <f>+T21-T22</f>
+        <v>35456</v>
+      </c>
+      <c r="U23" s="3">
+        <f>+U21-U22</f>
+        <v>63946</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -2589,15 +2823,15 @@
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
       <c r="AY23" s="2"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
       <c r="BF23" s="3"/>
@@ -2605,8 +2839,12 @@
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="3"/>
-    </row>
-    <row r="24" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+    </row>
+    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -2616,35 +2854,42 @@
       <c r="D24" s="3">
         <v>129</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>81</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
         <v>85</v>
       </c>
-      <c r="H24" s="3">
-        <v>77</v>
-      </c>
-      <c r="I24" s="3">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="H24" s="10">
+        <f>77-G24</f>
+        <v>-8</v>
+      </c>
+      <c r="I24" s="10">
+        <f>20-SUM(G24:H24)</f>
+        <v>-57</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
+        <v>80</v>
+      </c>
+      <c r="L24" s="10">
+        <f>76-K24</f>
+        <v>-4</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>138</v>
-      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="T24" s="3">
+        <v>180</v>
+      </c>
+      <c r="U24" s="3">
+        <v>138</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -2670,15 +2915,15 @@
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
       <c r="AY24" s="2"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
@@ -2686,8 +2931,12 @@
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
       <c r="BJ24" s="3"/>
-    </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+    </row>
+    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -2713,33 +2962,39 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="11"/>
-        <v>-131881</v>
+        <v>15481</v>
       </c>
       <c r="I25" s="3">
         <f>+I23-I24</f>
-        <v>-277256</v>
+        <v>22722</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25" si="12">+J23-J24</f>
+        <f t="shared" ref="J25:L25" si="12">+J23-J24</f>
         <v>153072</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3">
+        <f t="shared" si="12"/>
+        <v>31650</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="12"/>
+        <v>21958</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <f>+P23-P24</f>
-        <v>35276</v>
-      </c>
-      <c r="Q25" s="3">
-        <f>+Q23-Q24</f>
-        <v>63808</v>
-      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="T25" s="3">
+        <f>+T23-T24</f>
+        <v>35276</v>
+      </c>
+      <c r="U25" s="3">
+        <f>+U23-U24</f>
+        <v>63808</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -2765,15 +3020,15 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
       <c r="AY25" s="2"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
@@ -2781,8 +3036,12 @@
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3"/>
-    </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+    </row>
+    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2827,15 +3086,15 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
       <c r="AY26" s="2"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
       <c r="BF26" s="3"/>
@@ -2843,8 +3102,12 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
       <c r="BJ26" s="3"/>
-    </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+    </row>
+    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -2870,20 +3133,26 @@
       </c>
       <c r="H27" s="8">
         <f t="shared" si="13"/>
-        <v>-181.44274047672397</v>
+        <v>21.298860831508435</v>
       </c>
       <c r="I27" s="8">
         <f>+I25/I28</f>
-        <v>-382.59034064070403</v>
+        <v>31.354480047458221</v>
       </c>
       <c r="J27" s="8" t="e">
-        <f t="shared" ref="J27" si="14">+J25/J28</f>
+        <f t="shared" ref="J27:L28" si="14">+J25/J28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="8">
+        <f t="shared" si="14"/>
+        <v>44.26723755635679</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="14"/>
+        <v>30.720007084264751</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2916,15 +3185,15 @@
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
       <c r="AY27" s="2"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
       <c r="BF27" s="3"/>
@@ -2932,8 +3201,12 @@
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3"/>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+    </row>
+    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
@@ -2959,10 +3232,14 @@
         <v>724.68112900000006</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="K28" s="2">
+        <v>714.97571900000003</v>
+      </c>
+      <c r="L28" s="2">
+        <v>714.77848100000006</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2995,15 +3272,15 @@
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
       <c r="AY28" s="2"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
@@ -3011,8 +3288,12 @@
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
       <c r="BJ28" s="3"/>
-    </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+    </row>
+    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3057,15 +3338,15 @@
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
       <c r="AY29" s="2"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
@@ -3073,8 +3354,12 @@
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3"/>
-    </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+    </row>
+    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -3088,20 +3373,26 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" ref="H30:H35" si="16">+H6/D6-1</f>
-        <v>1.4440551440093814</v>
+        <v>0.18709778909132502</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" ref="I30:J34" si="17">+I6/E6-1</f>
-        <v>2.2597973015612576</v>
+        <v>0.10277542880943069</v>
       </c>
       <c r="J30" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="7">
+        <f t="shared" ref="K30:K35" si="18">+K6/G6-1</f>
+        <v>0.11501353903565659</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" ref="L30:L35" si="19">+L6/H6-1</f>
+        <v>4.7609295377609717E-2</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3134,15 +3425,15 @@
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
       <c r="AY30" s="2"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
@@ -3150,8 +3441,12 @@
       <c r="BH30" s="3"/>
       <c r="BI30" s="3"/>
       <c r="BJ30" s="3"/>
-    </row>
-    <row r="31" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+    </row>
+    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -3165,20 +3460,26 @@
       </c>
       <c r="H31" s="7">
         <f t="shared" si="16"/>
-        <v>1.3792187235004807</v>
+        <v>-2.7531234100288349E-2</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="17"/>
-        <v>2.1469589678921333</v>
+        <v>0.10573285478707928</v>
       </c>
       <c r="J31" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="K31" s="7">
+        <f t="shared" si="18"/>
+        <v>2.463430316669335E-2</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="19"/>
+        <v>8.2490408092082301E-2</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3211,15 +3512,15 @@
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
       <c r="AY31" s="2"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
-      <c r="BB31" s="3"/>
-      <c r="BC31" s="3"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
@@ -3227,8 +3528,12 @@
       <c r="BH31" s="3"/>
       <c r="BI31" s="3"/>
       <c r="BJ31" s="3"/>
-    </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+    </row>
+    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>39</v>
       </c>
@@ -3242,20 +3547,26 @@
       </c>
       <c r="H32" s="7">
         <f t="shared" si="16"/>
-        <v>1.2093270365997637</v>
+        <v>0.10838252656434477</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="17"/>
-        <v>1.9296992859297997</v>
+        <v>4.7671728854470574E-2</v>
       </c>
       <c r="J32" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="7">
+        <f t="shared" si="18"/>
+        <v>0.10873994638069706</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="19"/>
+        <v>2.9399233063485353E-2</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3288,15 +3599,15 @@
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
-      <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+      <c r="AX32" s="3"/>
       <c r="AY32" s="2"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
-      <c r="BB32" s="3"/>
-      <c r="BC32" s="3"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
       <c r="BD32" s="3"/>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
@@ -3304,8 +3615,12 @@
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3"/>
-    </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK32" s="3"/>
+      <c r="BL32" s="3"/>
+      <c r="BM32" s="3"/>
+      <c r="BN32" s="3"/>
+    </row>
+    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
@@ -3319,20 +3634,26 @@
       </c>
       <c r="H33" s="7">
         <f t="shared" si="16"/>
-        <v>2.6525814138204926</v>
+        <v>0.7865766481334393</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="17"/>
-        <v>3.1991499356859237</v>
+        <v>0.62736983390190715</v>
       </c>
       <c r="J33" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="7">
+        <f t="shared" si="18"/>
+        <v>0.49593495934959342</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="19"/>
+        <v>0.43022273596229943</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3365,15 +3686,15 @@
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
       <c r="AY33" s="2"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
       <c r="BD33" s="3"/>
       <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
@@ -3381,8 +3702,12 @@
       <c r="BH33" s="3"/>
       <c r="BI33" s="3"/>
       <c r="BJ33" s="3"/>
-    </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK33" s="3"/>
+      <c r="BL33" s="3"/>
+      <c r="BM33" s="3"/>
+      <c r="BN33" s="3"/>
+    </row>
+    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
@@ -3396,20 +3721,26 @@
       </c>
       <c r="H34" s="7">
         <f t="shared" si="16"/>
-        <v>1.7134112409571509</v>
+        <v>0.59896123168243376</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="17"/>
-        <v>3.1343427640707002</v>
+        <v>0.48706038487060388</v>
       </c>
       <c r="J34" s="7" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="K34" s="7">
+        <f t="shared" si="18"/>
+        <v>0.57151575676875277</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="19"/>
+        <v>0.4520881670533643</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3442,15 +3773,15 @@
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
       <c r="AY34" s="2"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
       <c r="BD34" s="3"/>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
@@ -3458,54 +3789,64 @@
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3"/>
-    </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7">
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+    </row>
+    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="9">
         <f t="shared" si="15"/>
         <v>0.14317419253169783</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="9">
         <f t="shared" si="16"/>
         <v>0.22002148321261128</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9">
         <f>+I11/E11-1</f>
         <v>0.15965094351562392</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="9">
         <f>+J11/F11-1</f>
         <v>0.25101750600696326</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="7" t="e">
-        <f t="shared" ref="N35:P35" si="18">+N11/M11-1</f>
+      <c r="K35" s="9">
+        <f t="shared" si="18"/>
+        <v>0.19649975301834566</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="19"/>
+        <v>0.1569807908529004</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="7" t="e">
+        <f t="shared" ref="R35:T35" si="20">+R11/Q11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="7">
-        <f t="shared" si="18"/>
+      <c r="S35" s="7">
+        <f t="shared" si="20"/>
         <v>0.19926104290455182</v>
       </c>
-      <c r="P35" s="7">
-        <f t="shared" si="18"/>
+      <c r="T35" s="7">
+        <f t="shared" si="20"/>
         <v>0.17718081473211988</v>
       </c>
-      <c r="Q35" s="7">
-        <f>+Q11/P11-1</f>
+      <c r="U35" s="7">
+        <f>+U11/T11-1</f>
         <v>0.18943033991687463</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -3531,15 +3872,15 @@
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
       <c r="AT35" s="3"/>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="2"/>
-      <c r="AX35" s="2"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
       <c r="AY35" s="2"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
@@ -3547,48 +3888,82 @@
       <c r="BH35" s="3"/>
       <c r="BI35" s="3"/>
       <c r="BJ35" s="3"/>
-    </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK35" s="3"/>
+      <c r="BL35" s="3"/>
+      <c r="BM35" s="3"/>
+      <c r="BN35" s="3"/>
+    </row>
+    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="7" t="e">
-        <f t="shared" ref="L36:P36" si="19">+L13/L11</f>
+        <v>58</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:I36" si="21">+C13/C11</f>
+        <v>0.50180896537686237</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="21"/>
+        <v>-3.1215978865163811E-2</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="21"/>
+        <v>-0.38253831647956665</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="21"/>
+        <v>0.54478409208395073</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="21"/>
+        <v>0.56659547761114115</v>
+      </c>
+      <c r="I36" s="7">
+        <f>+I13/I11</f>
+        <v>0.55021691086191371</v>
+      </c>
+      <c r="J36" s="7">
+        <f>+J13/J11</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" ref="K36:L36" si="22">+K13/K11</f>
+        <v>0.55840490031827106</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="22"/>
+        <v>0.57649176028999671</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="7" t="e">
+        <f t="shared" ref="P36:T36" si="23">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="7" t="e">
-        <f t="shared" si="19"/>
+      <c r="Q36" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N36" s="7">
-        <f t="shared" si="19"/>
+      <c r="R36" s="7">
+        <f t="shared" si="23"/>
         <v>0.49464590195578634</v>
       </c>
-      <c r="O36" s="7">
-        <f t="shared" si="19"/>
+      <c r="S36" s="7">
+        <f t="shared" si="23"/>
         <v>0.49671172779255512</v>
       </c>
-      <c r="P36" s="7">
-        <f t="shared" si="19"/>
+      <c r="T36" s="7">
+        <f t="shared" si="23"/>
         <v>0.52044917900021559</v>
       </c>
-      <c r="Q36" s="7">
-        <f>+Q13/Q11</f>
+      <c r="U36" s="7">
+        <f>+U13/U11</f>
         <v>0.55838390864904219</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -3614,15 +3989,15 @@
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
       <c r="AT36" s="3"/>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
       <c r="AY36" s="2"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
@@ -3630,18 +4005,55 @@
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3"/>
-    </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="BK36" s="3"/>
+      <c r="BL36" s="3"/>
+      <c r="BM36" s="3"/>
+      <c r="BN36" s="3"/>
+    </row>
+    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:I37" si="24">+C15/C11</f>
+        <v>0.1452490856681353</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="24"/>
+        <v>-0.86140424728919596</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="24"/>
+        <v>-1.4824965512004353</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.19421948053439939</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="24"/>
+        <v>0.1498123107491508</v>
+      </c>
+      <c r="I37" s="7">
+        <f>+I15/I11</f>
+        <v>0.17749583913126518</v>
+      </c>
+      <c r="J37" s="7">
+        <f>+J15/J11</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" ref="K37:L37" si="25">+K15/K11</f>
+        <v>0.21368325548573541</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="25"/>
+        <v>0.18828701442270612</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3676,15 +4088,15 @@
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
-      <c r="AU37" s="2"/>
-      <c r="AV37" s="2"/>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
       <c r="AY37" s="2"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
-      <c r="BC37" s="3"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
@@ -3692,18 +4104,55 @@
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
       <c r="BJ37" s="3"/>
-    </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+    </row>
+    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" ref="C38:I38" si="26">+C22/C21</f>
+        <v>0.24017588521175653</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="26"/>
+        <v>-7.1262763040589414E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="26"/>
+        <v>-6.3295720672769853E-2</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="26"/>
+        <v>0.1886946527945802</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="26"/>
+        <v>0.38095619123824764</v>
+      </c>
+      <c r="I38" s="7">
+        <f>+I22/I21</f>
+        <v>0.33369590780809033</v>
+      </c>
+      <c r="J38" s="7">
+        <f>+J22/J21</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" ref="K38:L38" si="27">+K22/K21</f>
+        <v>0.26862437765074682</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="27"/>
+        <v>0.41217735889471996</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3738,15 +4187,15 @@
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
       <c r="AY38" s="2"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
-      <c r="BC38" s="3"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
       <c r="BD38" s="3"/>
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
@@ -3754,8 +4203,12 @@
       <c r="BH38" s="3"/>
       <c r="BI38" s="3"/>
       <c r="BJ38" s="3"/>
-    </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+    </row>
+    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3800,15 +4253,15 @@
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
       <c r="AY39" s="2"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
@@ -3816,8 +4269,12 @@
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
       <c r="BJ39" s="3"/>
-    </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK39" s="3"/>
+      <c r="BL39" s="3"/>
+      <c r="BM39" s="3"/>
+      <c r="BN39" s="3"/>
+    </row>
+    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3862,15 +4319,15 @@
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
       <c r="AT40" s="3"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
       <c r="AY40" s="2"/>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
@@ -3878,8 +4335,12 @@
       <c r="BH40" s="3"/>
       <c r="BI40" s="3"/>
       <c r="BJ40" s="3"/>
-    </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK40" s="3"/>
+      <c r="BL40" s="3"/>
+      <c r="BM40" s="3"/>
+      <c r="BN40" s="3"/>
+    </row>
+    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3924,15 +4385,15 @@
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
       <c r="AT41" s="3"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
       <c r="AY41" s="2"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
@@ -3940,8 +4401,12 @@
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3"/>
-    </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+    </row>
+    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3986,15 +4451,15 @@
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
       <c r="AY42" s="2"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
@@ -4002,8 +4467,12 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3"/>
-    </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+    </row>
+    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4048,15 +4517,15 @@
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
       <c r="AY43" s="2"/>
-      <c r="AZ43" s="3"/>
-      <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-      <c r="BC43" s="3"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
       <c r="BD43" s="3"/>
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
@@ -4064,8 +4533,12 @@
       <c r="BH43" s="3"/>
       <c r="BI43" s="3"/>
       <c r="BJ43" s="3"/>
-    </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK43" s="3"/>
+      <c r="BL43" s="3"/>
+      <c r="BM43" s="3"/>
+      <c r="BN43" s="3"/>
+    </row>
+    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4110,15 +4583,15 @@
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
       <c r="AT44" s="3"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
       <c r="AY44" s="2"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
-      <c r="BC44" s="3"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3"/>
       <c r="BF44" s="3"/>
@@ -4126,8 +4599,12 @@
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
       <c r="BJ44" s="3"/>
-    </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK44" s="3"/>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+    </row>
+    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4172,15 +4649,15 @@
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
-      <c r="AU45" s="2"/>
-      <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
       <c r="AY45" s="2"/>
-      <c r="AZ45" s="3"/>
-      <c r="BA45" s="3"/>
-      <c r="BB45" s="3"/>
-      <c r="BC45" s="3"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
       <c r="BF45" s="3"/>
@@ -4188,8 +4665,12 @@
       <c r="BH45" s="3"/>
       <c r="BI45" s="3"/>
       <c r="BJ45" s="3"/>
-    </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+    </row>
+    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4234,15 +4715,15 @@
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
       <c r="AY46" s="2"/>
-      <c r="AZ46" s="3"/>
-      <c r="BA46" s="3"/>
-      <c r="BB46" s="3"/>
-      <c r="BC46" s="3"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
@@ -4250,8 +4731,12 @@
       <c r="BH46" s="3"/>
       <c r="BI46" s="3"/>
       <c r="BJ46" s="3"/>
-    </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK46" s="3"/>
+      <c r="BL46" s="3"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+    </row>
+    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4296,15 +4781,15 @@
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
       <c r="AY47" s="2"/>
-      <c r="AZ47" s="3"/>
-      <c r="BA47" s="3"/>
-      <c r="BB47" s="3"/>
-      <c r="BC47" s="3"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
@@ -4312,8 +4797,12 @@
       <c r="BH47" s="3"/>
       <c r="BI47" s="3"/>
       <c r="BJ47" s="3"/>
-    </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+    </row>
+    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4358,15 +4847,15 @@
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
       <c r="AY48" s="2"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
       <c r="BF48" s="3"/>
@@ -4374,8 +4863,12 @@
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3"/>
-    </row>
-    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+    </row>
+    <row r="49" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4420,15 +4913,15 @@
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
       <c r="AY49" s="2"/>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
-      <c r="BC49" s="3"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
       <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
       <c r="BF49" s="3"/>
@@ -4436,8 +4929,12 @@
       <c r="BH49" s="3"/>
       <c r="BI49" s="3"/>
       <c r="BJ49" s="3"/>
-    </row>
-    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
+      <c r="BM49" s="3"/>
+      <c r="BN49" s="3"/>
+    </row>
+    <row r="50" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4482,15 +4979,15 @@
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
       <c r="AT50" s="3"/>
-      <c r="AU50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AW50" s="2"/>
-      <c r="AX50" s="2"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
       <c r="AY50" s="2"/>
-      <c r="AZ50" s="3"/>
-      <c r="BA50" s="3"/>
-      <c r="BB50" s="3"/>
-      <c r="BC50" s="3"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
       <c r="BD50" s="3"/>
       <c r="BE50" s="3"/>
       <c r="BF50" s="3"/>
@@ -4498,8 +4995,12 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3"/>
-    </row>
-    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+    </row>
+    <row r="51" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4544,15 +5045,15 @@
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
-      <c r="AU51" s="2"/>
-      <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
       <c r="AY51" s="2"/>
-      <c r="AZ51" s="3"/>
-      <c r="BA51" s="3"/>
-      <c r="BB51" s="3"/>
-      <c r="BC51" s="3"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
       <c r="BF51" s="3"/>
@@ -4560,8 +5061,12 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-    </row>
-    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3"/>
+    </row>
+    <row r="52" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4606,15 +5111,15 @@
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
       <c r="AT52" s="3"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
       <c r="AY52" s="2"/>
-      <c r="AZ52" s="3"/>
-      <c r="BA52" s="3"/>
-      <c r="BB52" s="3"/>
-      <c r="BC52" s="3"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
       <c r="BF52" s="3"/>
@@ -4622,8 +5127,12 @@
       <c r="BH52" s="3"/>
       <c r="BI52" s="3"/>
       <c r="BJ52" s="3"/>
-    </row>
-    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3"/>
+    </row>
+    <row r="53" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4668,15 +5177,15 @@
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
       <c r="AT53" s="3"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
       <c r="AY53" s="2"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
       <c r="BF53" s="3"/>
@@ -4684,8 +5193,12 @@
       <c r="BH53" s="3"/>
       <c r="BI53" s="3"/>
       <c r="BJ53" s="3"/>
-    </row>
-    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
+      <c r="BM53" s="3"/>
+      <c r="BN53" s="3"/>
+    </row>
+    <row r="54" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4730,15 +5243,15 @@
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
       <c r="AY54" s="2"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3"/>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
       <c r="BD54" s="3"/>
       <c r="BE54" s="3"/>
       <c r="BF54" s="3"/>
@@ -4746,8 +5259,12 @@
       <c r="BH54" s="3"/>
       <c r="BI54" s="3"/>
       <c r="BJ54" s="3"/>
-    </row>
-    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+    </row>
+    <row r="55" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4792,15 +5309,15 @@
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
       <c r="AT55" s="3"/>
-      <c r="AU55" s="2"/>
-      <c r="AV55" s="2"/>
-      <c r="AW55" s="2"/>
-      <c r="AX55" s="2"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
       <c r="AY55" s="2"/>
-      <c r="AZ55" s="3"/>
-      <c r="BA55" s="3"/>
-      <c r="BB55" s="3"/>
-      <c r="BC55" s="3"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
       <c r="BF55" s="3"/>
@@ -4808,8 +5325,12 @@
       <c r="BH55" s="3"/>
       <c r="BI55" s="3"/>
       <c r="BJ55" s="3"/>
-    </row>
-    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="3"/>
+      <c r="BM55" s="3"/>
+      <c r="BN55" s="3"/>
+    </row>
+    <row r="56" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4854,15 +5375,15 @@
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
-      <c r="AU56" s="2"/>
-      <c r="AV56" s="2"/>
-      <c r="AW56" s="2"/>
-      <c r="AX56" s="2"/>
+      <c r="AU56" s="3"/>
+      <c r="AV56" s="3"/>
+      <c r="AW56" s="3"/>
+      <c r="AX56" s="3"/>
       <c r="AY56" s="2"/>
-      <c r="AZ56" s="3"/>
-      <c r="BA56" s="3"/>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="3"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
       <c r="BF56" s="3"/>
@@ -4870,8 +5391,12 @@
       <c r="BH56" s="3"/>
       <c r="BI56" s="3"/>
       <c r="BJ56" s="3"/>
-    </row>
-    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="3"/>
+      <c r="BM56" s="3"/>
+      <c r="BN56" s="3"/>
+    </row>
+    <row r="57" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4916,15 +5441,15 @@
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
       <c r="AT57" s="3"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3"/>
       <c r="AY57" s="2"/>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
       <c r="BD57" s="3"/>
       <c r="BE57" s="3"/>
       <c r="BF57" s="3"/>
@@ -4932,8 +5457,12 @@
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
-    </row>
-    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3"/>
+    </row>
+    <row r="58" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4978,15 +5507,15 @@
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
-      <c r="AU58" s="2"/>
-      <c r="AV58" s="2"/>
-      <c r="AW58" s="2"/>
-      <c r="AX58" s="2"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
       <c r="AY58" s="2"/>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3"/>
-      <c r="BC58" s="3"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
       <c r="BD58" s="3"/>
       <c r="BE58" s="3"/>
       <c r="BF58" s="3"/>
@@ -4994,8 +5523,12 @@
       <c r="BH58" s="3"/>
       <c r="BI58" s="3"/>
       <c r="BJ58" s="3"/>
-    </row>
-    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="3"/>
+      <c r="BM58" s="3"/>
+      <c r="BN58" s="3"/>
+    </row>
+    <row r="59" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5040,15 +5573,15 @@
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
-      <c r="AU59" s="2"/>
-      <c r="AV59" s="2"/>
-      <c r="AW59" s="2"/>
-      <c r="AX59" s="2"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
       <c r="AY59" s="2"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
       <c r="BD59" s="3"/>
       <c r="BE59" s="3"/>
       <c r="BF59" s="3"/>
@@ -5056,8 +5589,12 @@
       <c r="BH59" s="3"/>
       <c r="BI59" s="3"/>
       <c r="BJ59" s="3"/>
-    </row>
-    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
+    </row>
+    <row r="60" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5102,15 +5639,15 @@
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
       <c r="AT60" s="3"/>
-      <c r="AU60" s="2"/>
-      <c r="AV60" s="2"/>
-      <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
+      <c r="AU60" s="3"/>
+      <c r="AV60" s="3"/>
+      <c r="AW60" s="3"/>
+      <c r="AX60" s="3"/>
       <c r="AY60" s="2"/>
-      <c r="AZ60" s="3"/>
-      <c r="BA60" s="3"/>
-      <c r="BB60" s="3"/>
-      <c r="BC60" s="3"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
       <c r="BF60" s="3"/>
@@ -5118,8 +5655,12 @@
       <c r="BH60" s="3"/>
       <c r="BI60" s="3"/>
       <c r="BJ60" s="3"/>
-    </row>
-    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK60" s="3"/>
+      <c r="BL60" s="3"/>
+      <c r="BM60" s="3"/>
+      <c r="BN60" s="3"/>
+    </row>
+    <row r="61" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5164,15 +5705,15 @@
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
       <c r="AT61" s="3"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="2"/>
-      <c r="AX61" s="2"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="3"/>
+      <c r="AX61" s="3"/>
       <c r="AY61" s="2"/>
-      <c r="AZ61" s="3"/>
-      <c r="BA61" s="3"/>
-      <c r="BB61" s="3"/>
-      <c r="BC61" s="3"/>
+      <c r="AZ61" s="2"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="2"/>
       <c r="BD61" s="3"/>
       <c r="BE61" s="3"/>
       <c r="BF61" s="3"/>
@@ -5180,8 +5721,12 @@
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
       <c r="BJ61" s="3"/>
-    </row>
-    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="3"/>
+      <c r="BM61" s="3"/>
+      <c r="BN61" s="3"/>
+    </row>
+    <row r="62" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5226,15 +5771,15 @@
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
-      <c r="AU62" s="2"/>
-      <c r="AV62" s="2"/>
-      <c r="AW62" s="2"/>
-      <c r="AX62" s="2"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="3"/>
+      <c r="AW62" s="3"/>
+      <c r="AX62" s="3"/>
       <c r="AY62" s="2"/>
-      <c r="AZ62" s="3"/>
-      <c r="BA62" s="3"/>
-      <c r="BB62" s="3"/>
-      <c r="BC62" s="3"/>
+      <c r="AZ62" s="2"/>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
       <c r="BD62" s="3"/>
       <c r="BE62" s="3"/>
       <c r="BF62" s="3"/>
@@ -5242,8 +5787,12 @@
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
       <c r="BJ62" s="3"/>
-    </row>
-    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK62" s="3"/>
+      <c r="BL62" s="3"/>
+      <c r="BM62" s="3"/>
+      <c r="BN62" s="3"/>
+    </row>
+    <row r="63" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5288,15 +5837,15 @@
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
-      <c r="AU63" s="2"/>
-      <c r="AV63" s="2"/>
-      <c r="AW63" s="2"/>
-      <c r="AX63" s="2"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
       <c r="AY63" s="2"/>
-      <c r="AZ63" s="3"/>
-      <c r="BA63" s="3"/>
-      <c r="BB63" s="3"/>
-      <c r="BC63" s="3"/>
+      <c r="AZ63" s="2"/>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="2"/>
       <c r="BD63" s="3"/>
       <c r="BE63" s="3"/>
       <c r="BF63" s="3"/>
@@ -5304,8 +5853,12 @@
       <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
-    </row>
-    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK63" s="3"/>
+      <c r="BL63" s="3"/>
+      <c r="BM63" s="3"/>
+      <c r="BN63" s="3"/>
+    </row>
+    <row r="64" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5350,15 +5903,15 @@
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
       <c r="AT64" s="3"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-      <c r="AW64" s="2"/>
-      <c r="AX64" s="2"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="3"/>
+      <c r="AX64" s="3"/>
       <c r="AY64" s="2"/>
-      <c r="AZ64" s="3"/>
-      <c r="BA64" s="3"/>
-      <c r="BB64" s="3"/>
-      <c r="BC64" s="3"/>
+      <c r="AZ64" s="2"/>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="2"/>
       <c r="BD64" s="3"/>
       <c r="BE64" s="3"/>
       <c r="BF64" s="3"/>
@@ -5366,8 +5919,12 @@
       <c r="BH64" s="3"/>
       <c r="BI64" s="3"/>
       <c r="BJ64" s="3"/>
-    </row>
-    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK64" s="3"/>
+      <c r="BL64" s="3"/>
+      <c r="BM64" s="3"/>
+      <c r="BN64" s="3"/>
+    </row>
+    <row r="65" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5412,15 +5969,15 @@
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
       <c r="AT65" s="3"/>
-      <c r="AU65" s="2"/>
-      <c r="AV65" s="2"/>
-      <c r="AW65" s="2"/>
-      <c r="AX65" s="2"/>
+      <c r="AU65" s="3"/>
+      <c r="AV65" s="3"/>
+      <c r="AW65" s="3"/>
+      <c r="AX65" s="3"/>
       <c r="AY65" s="2"/>
-      <c r="AZ65" s="3"/>
-      <c r="BA65" s="3"/>
-      <c r="BB65" s="3"/>
-      <c r="BC65" s="3"/>
+      <c r="AZ65" s="2"/>
+      <c r="BA65" s="2"/>
+      <c r="BB65" s="2"/>
+      <c r="BC65" s="2"/>
       <c r="BD65" s="3"/>
       <c r="BE65" s="3"/>
       <c r="BF65" s="3"/>
@@ -5428,8 +5985,12 @@
       <c r="BH65" s="3"/>
       <c r="BI65" s="3"/>
       <c r="BJ65" s="3"/>
-    </row>
-    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK65" s="3"/>
+      <c r="BL65" s="3"/>
+      <c r="BM65" s="3"/>
+      <c r="BN65" s="3"/>
+    </row>
+    <row r="66" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5474,15 +6035,15 @@
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
       <c r="AT66" s="3"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
+      <c r="AU66" s="3"/>
+      <c r="AV66" s="3"/>
+      <c r="AW66" s="3"/>
+      <c r="AX66" s="3"/>
       <c r="AY66" s="2"/>
-      <c r="AZ66" s="3"/>
-      <c r="BA66" s="3"/>
-      <c r="BB66" s="3"/>
-      <c r="BC66" s="3"/>
+      <c r="AZ66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3"/>
@@ -5490,8 +6051,12 @@
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
-    </row>
-    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK66" s="3"/>
+      <c r="BL66" s="3"/>
+      <c r="BM66" s="3"/>
+      <c r="BN66" s="3"/>
+    </row>
+    <row r="67" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5536,15 +6101,15 @@
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
       <c r="AT67" s="3"/>
-      <c r="AU67" s="2"/>
-      <c r="AV67" s="2"/>
-      <c r="AW67" s="2"/>
-      <c r="AX67" s="2"/>
+      <c r="AU67" s="3"/>
+      <c r="AV67" s="3"/>
+      <c r="AW67" s="3"/>
+      <c r="AX67" s="3"/>
       <c r="AY67" s="2"/>
-      <c r="AZ67" s="3"/>
-      <c r="BA67" s="3"/>
-      <c r="BB67" s="3"/>
-      <c r="BC67" s="3"/>
+      <c r="AZ67" s="2"/>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2"/>
+      <c r="BC67" s="2"/>
       <c r="BD67" s="3"/>
       <c r="BE67" s="3"/>
       <c r="BF67" s="3"/>
@@ -5552,8 +6117,12 @@
       <c r="BH67" s="3"/>
       <c r="BI67" s="3"/>
       <c r="BJ67" s="3"/>
-    </row>
-    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK67" s="3"/>
+      <c r="BL67" s="3"/>
+      <c r="BM67" s="3"/>
+      <c r="BN67" s="3"/>
+    </row>
+    <row r="68" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5598,15 +6167,15 @@
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
-      <c r="AU68" s="2"/>
-      <c r="AV68" s="2"/>
-      <c r="AW68" s="2"/>
-      <c r="AX68" s="2"/>
+      <c r="AU68" s="3"/>
+      <c r="AV68" s="3"/>
+      <c r="AW68" s="3"/>
+      <c r="AX68" s="3"/>
       <c r="AY68" s="2"/>
-      <c r="AZ68" s="3"/>
-      <c r="BA68" s="3"/>
-      <c r="BB68" s="3"/>
-      <c r="BC68" s="3"/>
+      <c r="AZ68" s="2"/>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2"/>
+      <c r="BC68" s="2"/>
       <c r="BD68" s="3"/>
       <c r="BE68" s="3"/>
       <c r="BF68" s="3"/>
@@ -5614,8 +6183,12 @@
       <c r="BH68" s="3"/>
       <c r="BI68" s="3"/>
       <c r="BJ68" s="3"/>
-    </row>
-    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK68" s="3"/>
+      <c r="BL68" s="3"/>
+      <c r="BM68" s="3"/>
+      <c r="BN68" s="3"/>
+    </row>
+    <row r="69" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5660,15 +6233,15 @@
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
       <c r="AT69" s="3"/>
-      <c r="AU69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AW69" s="2"/>
-      <c r="AX69" s="2"/>
+      <c r="AU69" s="3"/>
+      <c r="AV69" s="3"/>
+      <c r="AW69" s="3"/>
+      <c r="AX69" s="3"/>
       <c r="AY69" s="2"/>
-      <c r="AZ69" s="3"/>
-      <c r="BA69" s="3"/>
-      <c r="BB69" s="3"/>
-      <c r="BC69" s="3"/>
+      <c r="AZ69" s="2"/>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2"/>
+      <c r="BC69" s="2"/>
       <c r="BD69" s="3"/>
       <c r="BE69" s="3"/>
       <c r="BF69" s="3"/>
@@ -5676,8 +6249,12 @@
       <c r="BH69" s="3"/>
       <c r="BI69" s="3"/>
       <c r="BJ69" s="3"/>
-    </row>
-    <row r="70" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK69" s="3"/>
+      <c r="BL69" s="3"/>
+      <c r="BM69" s="3"/>
+      <c r="BN69" s="3"/>
+    </row>
+    <row r="70" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5722,15 +6299,15 @@
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
       <c r="AT70" s="3"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
       <c r="AY70" s="2"/>
-      <c r="AZ70" s="3"/>
-      <c r="BA70" s="3"/>
-      <c r="BB70" s="3"/>
-      <c r="BC70" s="3"/>
+      <c r="AZ70" s="2"/>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
       <c r="BD70" s="3"/>
       <c r="BE70" s="3"/>
       <c r="BF70" s="3"/>
@@ -5738,8 +6315,12 @@
       <c r="BH70" s="3"/>
       <c r="BI70" s="3"/>
       <c r="BJ70" s="3"/>
-    </row>
-    <row r="71" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK70" s="3"/>
+      <c r="BL70" s="3"/>
+      <c r="BM70" s="3"/>
+      <c r="BN70" s="3"/>
+    </row>
+    <row r="71" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5784,15 +6365,15 @@
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
       <c r="AT71" s="3"/>
-      <c r="AU71" s="2"/>
-      <c r="AV71" s="2"/>
-      <c r="AW71" s="2"/>
-      <c r="AX71" s="2"/>
+      <c r="AU71" s="3"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="3"/>
+      <c r="AX71" s="3"/>
       <c r="AY71" s="2"/>
-      <c r="AZ71" s="3"/>
-      <c r="BA71" s="3"/>
-      <c r="BB71" s="3"/>
-      <c r="BC71" s="3"/>
+      <c r="AZ71" s="2"/>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="2"/>
       <c r="BD71" s="3"/>
       <c r="BE71" s="3"/>
       <c r="BF71" s="3"/>
@@ -5800,8 +6381,12 @@
       <c r="BH71" s="3"/>
       <c r="BI71" s="3"/>
       <c r="BJ71" s="3"/>
-    </row>
-    <row r="72" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK71" s="3"/>
+      <c r="BL71" s="3"/>
+      <c r="BM71" s="3"/>
+      <c r="BN71" s="3"/>
+    </row>
+    <row r="72" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5846,15 +6431,15 @@
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
       <c r="AT72" s="3"/>
-      <c r="AU72" s="2"/>
-      <c r="AV72" s="2"/>
-      <c r="AW72" s="2"/>
-      <c r="AX72" s="2"/>
+      <c r="AU72" s="3"/>
+      <c r="AV72" s="3"/>
+      <c r="AW72" s="3"/>
+      <c r="AX72" s="3"/>
       <c r="AY72" s="2"/>
-      <c r="AZ72" s="3"/>
-      <c r="BA72" s="3"/>
-      <c r="BB72" s="3"/>
-      <c r="BC72" s="3"/>
+      <c r="AZ72" s="2"/>
+      <c r="BA72" s="2"/>
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="2"/>
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
       <c r="BF72" s="3"/>
@@ -5862,8 +6447,12 @@
       <c r="BH72" s="3"/>
       <c r="BI72" s="3"/>
       <c r="BJ72" s="3"/>
-    </row>
-    <row r="73" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK72" s="3"/>
+      <c r="BL72" s="3"/>
+      <c r="BM72" s="3"/>
+      <c r="BN72" s="3"/>
+    </row>
+    <row r="73" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5908,15 +6497,15 @@
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
       <c r="AT73" s="3"/>
-      <c r="AU73" s="2"/>
-      <c r="AV73" s="2"/>
-      <c r="AW73" s="2"/>
-      <c r="AX73" s="2"/>
+      <c r="AU73" s="3"/>
+      <c r="AV73" s="3"/>
+      <c r="AW73" s="3"/>
+      <c r="AX73" s="3"/>
       <c r="AY73" s="2"/>
-      <c r="AZ73" s="3"/>
-      <c r="BA73" s="3"/>
-      <c r="BB73" s="3"/>
-      <c r="BC73" s="3"/>
+      <c r="AZ73" s="2"/>
+      <c r="BA73" s="2"/>
+      <c r="BB73" s="2"/>
+      <c r="BC73" s="2"/>
       <c r="BD73" s="3"/>
       <c r="BE73" s="3"/>
       <c r="BF73" s="3"/>
@@ -5924,8 +6513,12 @@
       <c r="BH73" s="3"/>
       <c r="BI73" s="3"/>
       <c r="BJ73" s="3"/>
-    </row>
-    <row r="74" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK73" s="3"/>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="3"/>
+      <c r="BN73" s="3"/>
+    </row>
+    <row r="74" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5970,15 +6563,15 @@
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
       <c r="AT74" s="3"/>
-      <c r="AU74" s="2"/>
-      <c r="AV74" s="2"/>
-      <c r="AW74" s="2"/>
-      <c r="AX74" s="2"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3"/>
       <c r="AY74" s="2"/>
-      <c r="AZ74" s="3"/>
-      <c r="BA74" s="3"/>
-      <c r="BB74" s="3"/>
-      <c r="BC74" s="3"/>
+      <c r="AZ74" s="2"/>
+      <c r="BA74" s="2"/>
+      <c r="BB74" s="2"/>
+      <c r="BC74" s="2"/>
       <c r="BD74" s="3"/>
       <c r="BE74" s="3"/>
       <c r="BF74" s="3"/>
@@ -5986,8 +6579,12 @@
       <c r="BH74" s="3"/>
       <c r="BI74" s="3"/>
       <c r="BJ74" s="3"/>
-    </row>
-    <row r="75" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+    </row>
+    <row r="75" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6032,15 +6629,15 @@
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
       <c r="AT75" s="3"/>
-      <c r="AU75" s="2"/>
-      <c r="AV75" s="2"/>
-      <c r="AW75" s="2"/>
-      <c r="AX75" s="2"/>
+      <c r="AU75" s="3"/>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="3"/>
+      <c r="AX75" s="3"/>
       <c r="AY75" s="2"/>
-      <c r="AZ75" s="3"/>
-      <c r="BA75" s="3"/>
-      <c r="BB75" s="3"/>
-      <c r="BC75" s="3"/>
+      <c r="AZ75" s="2"/>
+      <c r="BA75" s="2"/>
+      <c r="BB75" s="2"/>
+      <c r="BC75" s="2"/>
       <c r="BD75" s="3"/>
       <c r="BE75" s="3"/>
       <c r="BF75" s="3"/>
@@ -6048,8 +6645,12 @@
       <c r="BH75" s="3"/>
       <c r="BI75" s="3"/>
       <c r="BJ75" s="3"/>
-    </row>
-    <row r="76" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+    </row>
+    <row r="76" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6094,15 +6695,15 @@
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
       <c r="AT76" s="3"/>
-      <c r="AU76" s="2"/>
-      <c r="AV76" s="2"/>
-      <c r="AW76" s="2"/>
-      <c r="AX76" s="2"/>
+      <c r="AU76" s="3"/>
+      <c r="AV76" s="3"/>
+      <c r="AW76" s="3"/>
+      <c r="AX76" s="3"/>
       <c r="AY76" s="2"/>
-      <c r="AZ76" s="3"/>
-      <c r="BA76" s="3"/>
-      <c r="BB76" s="3"/>
-      <c r="BC76" s="3"/>
+      <c r="AZ76" s="2"/>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
       <c r="BD76" s="3"/>
       <c r="BE76" s="3"/>
       <c r="BF76" s="3"/>
@@ -6110,8 +6711,12 @@
       <c r="BH76" s="3"/>
       <c r="BI76" s="3"/>
       <c r="BJ76" s="3"/>
-    </row>
-    <row r="77" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK76" s="3"/>
+      <c r="BL76" s="3"/>
+      <c r="BM76" s="3"/>
+      <c r="BN76" s="3"/>
+    </row>
+    <row r="77" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6156,15 +6761,15 @@
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
       <c r="AT77" s="3"/>
-      <c r="AU77" s="2"/>
-      <c r="AV77" s="2"/>
-      <c r="AW77" s="2"/>
-      <c r="AX77" s="2"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
+      <c r="AW77" s="3"/>
+      <c r="AX77" s="3"/>
       <c r="AY77" s="2"/>
-      <c r="AZ77" s="3"/>
-      <c r="BA77" s="3"/>
-      <c r="BB77" s="3"/>
-      <c r="BC77" s="3"/>
+      <c r="AZ77" s="2"/>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2"/>
+      <c r="BC77" s="2"/>
       <c r="BD77" s="3"/>
       <c r="BE77" s="3"/>
       <c r="BF77" s="3"/>
@@ -6172,8 +6777,12 @@
       <c r="BH77" s="3"/>
       <c r="BI77" s="3"/>
       <c r="BJ77" s="3"/>
-    </row>
-    <row r="78" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK77" s="3"/>
+      <c r="BL77" s="3"/>
+      <c r="BM77" s="3"/>
+      <c r="BN77" s="3"/>
+    </row>
+    <row r="78" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6218,15 +6827,15 @@
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
       <c r="AT78" s="3"/>
-      <c r="AU78" s="2"/>
-      <c r="AV78" s="2"/>
-      <c r="AW78" s="2"/>
-      <c r="AX78" s="2"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3"/>
       <c r="AY78" s="2"/>
-      <c r="AZ78" s="3"/>
-      <c r="BA78" s="3"/>
-      <c r="BB78" s="3"/>
-      <c r="BC78" s="3"/>
+      <c r="AZ78" s="2"/>
+      <c r="BA78" s="2"/>
+      <c r="BB78" s="2"/>
+      <c r="BC78" s="2"/>
       <c r="BD78" s="3"/>
       <c r="BE78" s="3"/>
       <c r="BF78" s="3"/>
@@ -6234,8 +6843,12 @@
       <c r="BH78" s="3"/>
       <c r="BI78" s="3"/>
       <c r="BJ78" s="3"/>
-    </row>
-    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
+    </row>
+    <row r="79" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6280,15 +6893,15 @@
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
       <c r="AT79" s="3"/>
-      <c r="AU79" s="2"/>
-      <c r="AV79" s="2"/>
-      <c r="AW79" s="2"/>
-      <c r="AX79" s="2"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="3"/>
+      <c r="AX79" s="3"/>
       <c r="AY79" s="2"/>
-      <c r="AZ79" s="3"/>
-      <c r="BA79" s="3"/>
-      <c r="BB79" s="3"/>
-      <c r="BC79" s="3"/>
+      <c r="AZ79" s="2"/>
+      <c r="BA79" s="2"/>
+      <c r="BB79" s="2"/>
+      <c r="BC79" s="2"/>
       <c r="BD79" s="3"/>
       <c r="BE79" s="3"/>
       <c r="BF79" s="3"/>
@@ -6296,8 +6909,12 @@
       <c r="BH79" s="3"/>
       <c r="BI79" s="3"/>
       <c r="BJ79" s="3"/>
-    </row>
-    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK79" s="3"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
+    </row>
+    <row r="80" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6342,15 +6959,15 @@
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
       <c r="AT80" s="3"/>
-      <c r="AU80" s="2"/>
-      <c r="AV80" s="2"/>
-      <c r="AW80" s="2"/>
-      <c r="AX80" s="2"/>
+      <c r="AU80" s="3"/>
+      <c r="AV80" s="3"/>
+      <c r="AW80" s="3"/>
+      <c r="AX80" s="3"/>
       <c r="AY80" s="2"/>
-      <c r="AZ80" s="3"/>
-      <c r="BA80" s="3"/>
-      <c r="BB80" s="3"/>
-      <c r="BC80" s="3"/>
+      <c r="AZ80" s="2"/>
+      <c r="BA80" s="2"/>
+      <c r="BB80" s="2"/>
+      <c r="BC80" s="2"/>
       <c r="BD80" s="3"/>
       <c r="BE80" s="3"/>
       <c r="BF80" s="3"/>
@@ -6358,8 +6975,12 @@
       <c r="BH80" s="3"/>
       <c r="BI80" s="3"/>
       <c r="BJ80" s="3"/>
-    </row>
-    <row r="81" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK80" s="3"/>
+      <c r="BL80" s="3"/>
+      <c r="BM80" s="3"/>
+      <c r="BN80" s="3"/>
+    </row>
+    <row r="81" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6404,15 +7025,15 @@
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
       <c r="AT81" s="3"/>
-      <c r="AU81" s="2"/>
-      <c r="AV81" s="2"/>
-      <c r="AW81" s="2"/>
-      <c r="AX81" s="2"/>
+      <c r="AU81" s="3"/>
+      <c r="AV81" s="3"/>
+      <c r="AW81" s="3"/>
+      <c r="AX81" s="3"/>
       <c r="AY81" s="2"/>
-      <c r="AZ81" s="3"/>
-      <c r="BA81" s="3"/>
-      <c r="BB81" s="3"/>
-      <c r="BC81" s="3"/>
+      <c r="AZ81" s="2"/>
+      <c r="BA81" s="2"/>
+      <c r="BB81" s="2"/>
+      <c r="BC81" s="2"/>
       <c r="BD81" s="3"/>
       <c r="BE81" s="3"/>
       <c r="BF81" s="3"/>
@@ -6420,8 +7041,12 @@
       <c r="BH81" s="3"/>
       <c r="BI81" s="3"/>
       <c r="BJ81" s="3"/>
-    </row>
-    <row r="82" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK81" s="3"/>
+      <c r="BL81" s="3"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
+    </row>
+    <row r="82" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6466,15 +7091,15 @@
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
       <c r="AT82" s="3"/>
-      <c r="AU82" s="2"/>
-      <c r="AV82" s="2"/>
-      <c r="AW82" s="2"/>
-      <c r="AX82" s="2"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
       <c r="AY82" s="2"/>
-      <c r="AZ82" s="3"/>
-      <c r="BA82" s="3"/>
-      <c r="BB82" s="3"/>
-      <c r="BC82" s="3"/>
+      <c r="AZ82" s="2"/>
+      <c r="BA82" s="2"/>
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="2"/>
       <c r="BD82" s="3"/>
       <c r="BE82" s="3"/>
       <c r="BF82" s="3"/>
@@ -6482,8 +7107,12 @@
       <c r="BH82" s="3"/>
       <c r="BI82" s="3"/>
       <c r="BJ82" s="3"/>
-    </row>
-    <row r="83" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK82" s="3"/>
+      <c r="BL82" s="3"/>
+      <c r="BM82" s="3"/>
+      <c r="BN82" s="3"/>
+    </row>
+    <row r="83" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6528,15 +7157,15 @@
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
       <c r="AT83" s="3"/>
-      <c r="AU83" s="2"/>
-      <c r="AV83" s="2"/>
-      <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
       <c r="AY83" s="2"/>
-      <c r="AZ83" s="3"/>
-      <c r="BA83" s="3"/>
-      <c r="BB83" s="3"/>
-      <c r="BC83" s="3"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
       <c r="BD83" s="3"/>
       <c r="BE83" s="3"/>
       <c r="BF83" s="3"/>
@@ -6544,8 +7173,12 @@
       <c r="BH83" s="3"/>
       <c r="BI83" s="3"/>
       <c r="BJ83" s="3"/>
-    </row>
-    <row r="84" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK83" s="3"/>
+      <c r="BL83" s="3"/>
+      <c r="BM83" s="3"/>
+      <c r="BN83" s="3"/>
+    </row>
+    <row r="84" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6590,15 +7223,15 @@
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
       <c r="AT84" s="3"/>
-      <c r="AU84" s="2"/>
-      <c r="AV84" s="2"/>
-      <c r="AW84" s="2"/>
-      <c r="AX84" s="2"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="3"/>
+      <c r="AX84" s="3"/>
       <c r="AY84" s="2"/>
-      <c r="AZ84" s="3"/>
-      <c r="BA84" s="3"/>
-      <c r="BB84" s="3"/>
-      <c r="BC84" s="3"/>
+      <c r="AZ84" s="2"/>
+      <c r="BA84" s="2"/>
+      <c r="BB84" s="2"/>
+      <c r="BC84" s="2"/>
       <c r="BD84" s="3"/>
       <c r="BE84" s="3"/>
       <c r="BF84" s="3"/>
@@ -6606,8 +7239,12 @@
       <c r="BH84" s="3"/>
       <c r="BI84" s="3"/>
       <c r="BJ84" s="3"/>
-    </row>
-    <row r="85" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK84" s="3"/>
+      <c r="BL84" s="3"/>
+      <c r="BM84" s="3"/>
+      <c r="BN84" s="3"/>
+    </row>
+    <row r="85" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6652,15 +7289,15 @@
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
       <c r="AT85" s="3"/>
-      <c r="AU85" s="2"/>
-      <c r="AV85" s="2"/>
-      <c r="AW85" s="2"/>
-      <c r="AX85" s="2"/>
+      <c r="AU85" s="3"/>
+      <c r="AV85" s="3"/>
+      <c r="AW85" s="3"/>
+      <c r="AX85" s="3"/>
       <c r="AY85" s="2"/>
-      <c r="AZ85" s="3"/>
-      <c r="BA85" s="3"/>
-      <c r="BB85" s="3"/>
-      <c r="BC85" s="3"/>
+      <c r="AZ85" s="2"/>
+      <c r="BA85" s="2"/>
+      <c r="BB85" s="2"/>
+      <c r="BC85" s="2"/>
       <c r="BD85" s="3"/>
       <c r="BE85" s="3"/>
       <c r="BF85" s="3"/>
@@ -6668,8 +7305,12 @@
       <c r="BH85" s="3"/>
       <c r="BI85" s="3"/>
       <c r="BJ85" s="3"/>
-    </row>
-    <row r="86" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK85" s="3"/>
+      <c r="BL85" s="3"/>
+      <c r="BM85" s="3"/>
+      <c r="BN85" s="3"/>
+    </row>
+    <row r="86" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6714,15 +7355,15 @@
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
       <c r="AT86" s="3"/>
-      <c r="AU86" s="2"/>
-      <c r="AV86" s="2"/>
-      <c r="AW86" s="2"/>
-      <c r="AX86" s="2"/>
+      <c r="AU86" s="3"/>
+      <c r="AV86" s="3"/>
+      <c r="AW86" s="3"/>
+      <c r="AX86" s="3"/>
       <c r="AY86" s="2"/>
-      <c r="AZ86" s="3"/>
-      <c r="BA86" s="3"/>
-      <c r="BB86" s="3"/>
-      <c r="BC86" s="3"/>
+      <c r="AZ86" s="2"/>
+      <c r="BA86" s="2"/>
+      <c r="BB86" s="2"/>
+      <c r="BC86" s="2"/>
       <c r="BD86" s="3"/>
       <c r="BE86" s="3"/>
       <c r="BF86" s="3"/>
@@ -6730,8 +7371,12 @@
       <c r="BH86" s="3"/>
       <c r="BI86" s="3"/>
       <c r="BJ86" s="3"/>
-    </row>
-    <row r="87" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK86" s="3"/>
+      <c r="BL86" s="3"/>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
+    </row>
+    <row r="87" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6776,15 +7421,15 @@
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
       <c r="AT87" s="3"/>
-      <c r="AU87" s="2"/>
-      <c r="AV87" s="2"/>
-      <c r="AW87" s="2"/>
-      <c r="AX87" s="2"/>
+      <c r="AU87" s="3"/>
+      <c r="AV87" s="3"/>
+      <c r="AW87" s="3"/>
+      <c r="AX87" s="3"/>
       <c r="AY87" s="2"/>
-      <c r="AZ87" s="3"/>
-      <c r="BA87" s="3"/>
-      <c r="BB87" s="3"/>
-      <c r="BC87" s="3"/>
+      <c r="AZ87" s="2"/>
+      <c r="BA87" s="2"/>
+      <c r="BB87" s="2"/>
+      <c r="BC87" s="2"/>
       <c r="BD87" s="3"/>
       <c r="BE87" s="3"/>
       <c r="BF87" s="3"/>
@@ -6792,8 +7437,12 @@
       <c r="BH87" s="3"/>
       <c r="BI87" s="3"/>
       <c r="BJ87" s="3"/>
-    </row>
-    <row r="88" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK87" s="3"/>
+      <c r="BL87" s="3"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
+    </row>
+    <row r="88" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6838,15 +7487,15 @@
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
       <c r="AT88" s="3"/>
-      <c r="AU88" s="2"/>
-      <c r="AV88" s="2"/>
-      <c r="AW88" s="2"/>
-      <c r="AX88" s="2"/>
+      <c r="AU88" s="3"/>
+      <c r="AV88" s="3"/>
+      <c r="AW88" s="3"/>
+      <c r="AX88" s="3"/>
       <c r="AY88" s="2"/>
-      <c r="AZ88" s="3"/>
-      <c r="BA88" s="3"/>
-      <c r="BB88" s="3"/>
-      <c r="BC88" s="3"/>
+      <c r="AZ88" s="2"/>
+      <c r="BA88" s="2"/>
+      <c r="BB88" s="2"/>
+      <c r="BC88" s="2"/>
       <c r="BD88" s="3"/>
       <c r="BE88" s="3"/>
       <c r="BF88" s="3"/>
@@ -6854,8 +7503,12 @@
       <c r="BH88" s="3"/>
       <c r="BI88" s="3"/>
       <c r="BJ88" s="3"/>
-    </row>
-    <row r="89" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK88" s="3"/>
+      <c r="BL88" s="3"/>
+      <c r="BM88" s="3"/>
+      <c r="BN88" s="3"/>
+    </row>
+    <row r="89" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6900,15 +7553,15 @@
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
       <c r="AT89" s="3"/>
-      <c r="AU89" s="2"/>
-      <c r="AV89" s="2"/>
-      <c r="AW89" s="2"/>
-      <c r="AX89" s="2"/>
+      <c r="AU89" s="3"/>
+      <c r="AV89" s="3"/>
+      <c r="AW89" s="3"/>
+      <c r="AX89" s="3"/>
       <c r="AY89" s="2"/>
-      <c r="AZ89" s="3"/>
-      <c r="BA89" s="3"/>
-      <c r="BB89" s="3"/>
-      <c r="BC89" s="3"/>
+      <c r="AZ89" s="2"/>
+      <c r="BA89" s="2"/>
+      <c r="BB89" s="2"/>
+      <c r="BC89" s="2"/>
       <c r="BD89" s="3"/>
       <c r="BE89" s="3"/>
       <c r="BF89" s="3"/>
@@ -6916,8 +7569,12 @@
       <c r="BH89" s="3"/>
       <c r="BI89" s="3"/>
       <c r="BJ89" s="3"/>
-    </row>
-    <row r="90" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+    </row>
+    <row r="90" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6962,15 +7619,15 @@
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
       <c r="AT90" s="3"/>
-      <c r="AU90" s="2"/>
-      <c r="AV90" s="2"/>
-      <c r="AW90" s="2"/>
-      <c r="AX90" s="2"/>
+      <c r="AU90" s="3"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="3"/>
+      <c r="AX90" s="3"/>
       <c r="AY90" s="2"/>
-      <c r="AZ90" s="3"/>
-      <c r="BA90" s="3"/>
-      <c r="BB90" s="3"/>
-      <c r="BC90" s="3"/>
+      <c r="AZ90" s="2"/>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2"/>
+      <c r="BC90" s="2"/>
       <c r="BD90" s="3"/>
       <c r="BE90" s="3"/>
       <c r="BF90" s="3"/>
@@ -6978,8 +7635,12 @@
       <c r="BH90" s="3"/>
       <c r="BI90" s="3"/>
       <c r="BJ90" s="3"/>
-    </row>
-    <row r="91" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
+    </row>
+    <row r="91" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7024,15 +7685,15 @@
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
       <c r="AT91" s="3"/>
-      <c r="AU91" s="2"/>
-      <c r="AV91" s="2"/>
-      <c r="AW91" s="2"/>
-      <c r="AX91" s="2"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3"/>
+      <c r="AX91" s="3"/>
       <c r="AY91" s="2"/>
-      <c r="AZ91" s="3"/>
-      <c r="BA91" s="3"/>
-      <c r="BB91" s="3"/>
-      <c r="BC91" s="3"/>
+      <c r="AZ91" s="2"/>
+      <c r="BA91" s="2"/>
+      <c r="BB91" s="2"/>
+      <c r="BC91" s="2"/>
       <c r="BD91" s="3"/>
       <c r="BE91" s="3"/>
       <c r="BF91" s="3"/>
@@ -7040,8 +7701,12 @@
       <c r="BH91" s="3"/>
       <c r="BI91" s="3"/>
       <c r="BJ91" s="3"/>
-    </row>
-    <row r="92" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
+    </row>
+    <row r="92" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7086,15 +7751,15 @@
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
       <c r="AT92" s="3"/>
-      <c r="AU92" s="2"/>
-      <c r="AV92" s="2"/>
-      <c r="AW92" s="2"/>
-      <c r="AX92" s="2"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3"/>
       <c r="AY92" s="2"/>
-      <c r="AZ92" s="3"/>
-      <c r="BA92" s="3"/>
-      <c r="BB92" s="3"/>
-      <c r="BC92" s="3"/>
+      <c r="AZ92" s="2"/>
+      <c r="BA92" s="2"/>
+      <c r="BB92" s="2"/>
+      <c r="BC92" s="2"/>
       <c r="BD92" s="3"/>
       <c r="BE92" s="3"/>
       <c r="BF92" s="3"/>
@@ -7102,8 +7767,12 @@
       <c r="BH92" s="3"/>
       <c r="BI92" s="3"/>
       <c r="BJ92" s="3"/>
-    </row>
-    <row r="93" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+    </row>
+    <row r="93" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7148,15 +7817,15 @@
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
       <c r="AT93" s="3"/>
-      <c r="AU93" s="2"/>
-      <c r="AV93" s="2"/>
-      <c r="AW93" s="2"/>
-      <c r="AX93" s="2"/>
+      <c r="AU93" s="3"/>
+      <c r="AV93" s="3"/>
+      <c r="AW93" s="3"/>
+      <c r="AX93" s="3"/>
       <c r="AY93" s="2"/>
-      <c r="AZ93" s="3"/>
-      <c r="BA93" s="3"/>
-      <c r="BB93" s="3"/>
-      <c r="BC93" s="3"/>
+      <c r="AZ93" s="2"/>
+      <c r="BA93" s="2"/>
+      <c r="BB93" s="2"/>
+      <c r="BC93" s="2"/>
       <c r="BD93" s="3"/>
       <c r="BE93" s="3"/>
       <c r="BF93" s="3"/>
@@ -7164,8 +7833,12 @@
       <c r="BH93" s="3"/>
       <c r="BI93" s="3"/>
       <c r="BJ93" s="3"/>
-    </row>
-    <row r="94" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK93" s="3"/>
+      <c r="BL93" s="3"/>
+      <c r="BM93" s="3"/>
+      <c r="BN93" s="3"/>
+    </row>
+    <row r="94" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7210,15 +7883,15 @@
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
       <c r="AT94" s="3"/>
-      <c r="AU94" s="2"/>
-      <c r="AV94" s="2"/>
-      <c r="AW94" s="2"/>
-      <c r="AX94" s="2"/>
+      <c r="AU94" s="3"/>
+      <c r="AV94" s="3"/>
+      <c r="AW94" s="3"/>
+      <c r="AX94" s="3"/>
       <c r="AY94" s="2"/>
-      <c r="AZ94" s="3"/>
-      <c r="BA94" s="3"/>
-      <c r="BB94" s="3"/>
-      <c r="BC94" s="3"/>
+      <c r="AZ94" s="2"/>
+      <c r="BA94" s="2"/>
+      <c r="BB94" s="2"/>
+      <c r="BC94" s="2"/>
       <c r="BD94" s="3"/>
       <c r="BE94" s="3"/>
       <c r="BF94" s="3"/>
@@ -7226,8 +7899,12 @@
       <c r="BH94" s="3"/>
       <c r="BI94" s="3"/>
       <c r="BJ94" s="3"/>
-    </row>
-    <row r="95" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK94" s="3"/>
+      <c r="BL94" s="3"/>
+      <c r="BM94" s="3"/>
+      <c r="BN94" s="3"/>
+    </row>
+    <row r="95" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7272,15 +7949,15 @@
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
       <c r="AT95" s="3"/>
-      <c r="AU95" s="2"/>
-      <c r="AV95" s="2"/>
-      <c r="AW95" s="2"/>
-      <c r="AX95" s="2"/>
+      <c r="AU95" s="3"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="3"/>
+      <c r="AX95" s="3"/>
       <c r="AY95" s="2"/>
-      <c r="AZ95" s="3"/>
-      <c r="BA95" s="3"/>
-      <c r="BB95" s="3"/>
-      <c r="BC95" s="3"/>
+      <c r="AZ95" s="2"/>
+      <c r="BA95" s="2"/>
+      <c r="BB95" s="2"/>
+      <c r="BC95" s="2"/>
       <c r="BD95" s="3"/>
       <c r="BE95" s="3"/>
       <c r="BF95" s="3"/>
@@ -7288,8 +7965,12 @@
       <c r="BH95" s="3"/>
       <c r="BI95" s="3"/>
       <c r="BJ95" s="3"/>
-    </row>
-    <row r="96" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK95" s="3"/>
+      <c r="BL95" s="3"/>
+      <c r="BM95" s="3"/>
+      <c r="BN95" s="3"/>
+    </row>
+    <row r="96" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7334,15 +8015,15 @@
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
       <c r="AT96" s="3"/>
-      <c r="AU96" s="2"/>
-      <c r="AV96" s="2"/>
-      <c r="AW96" s="2"/>
-      <c r="AX96" s="2"/>
+      <c r="AU96" s="3"/>
+      <c r="AV96" s="3"/>
+      <c r="AW96" s="3"/>
+      <c r="AX96" s="3"/>
       <c r="AY96" s="2"/>
-      <c r="AZ96" s="3"/>
-      <c r="BA96" s="3"/>
-      <c r="BB96" s="3"/>
-      <c r="BC96" s="3"/>
+      <c r="AZ96" s="2"/>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="2"/>
+      <c r="BC96" s="2"/>
       <c r="BD96" s="3"/>
       <c r="BE96" s="3"/>
       <c r="BF96" s="3"/>
@@ -7350,8 +8031,12 @@
       <c r="BH96" s="3"/>
       <c r="BI96" s="3"/>
       <c r="BJ96" s="3"/>
-    </row>
-    <row r="97" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK96" s="3"/>
+      <c r="BL96" s="3"/>
+      <c r="BM96" s="3"/>
+      <c r="BN96" s="3"/>
+    </row>
+    <row r="97" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7396,15 +8081,15 @@
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
       <c r="AT97" s="3"/>
-      <c r="AU97" s="2"/>
-      <c r="AV97" s="2"/>
-      <c r="AW97" s="2"/>
-      <c r="AX97" s="2"/>
+      <c r="AU97" s="3"/>
+      <c r="AV97" s="3"/>
+      <c r="AW97" s="3"/>
+      <c r="AX97" s="3"/>
       <c r="AY97" s="2"/>
-      <c r="AZ97" s="3"/>
-      <c r="BA97" s="3"/>
-      <c r="BB97" s="3"/>
-      <c r="BC97" s="3"/>
+      <c r="AZ97" s="2"/>
+      <c r="BA97" s="2"/>
+      <c r="BB97" s="2"/>
+      <c r="BC97" s="2"/>
       <c r="BD97" s="3"/>
       <c r="BE97" s="3"/>
       <c r="BF97" s="3"/>
@@ -7412,8 +8097,12 @@
       <c r="BH97" s="3"/>
       <c r="BI97" s="3"/>
       <c r="BJ97" s="3"/>
-    </row>
-    <row r="98" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK97" s="3"/>
+      <c r="BL97" s="3"/>
+      <c r="BM97" s="3"/>
+      <c r="BN97" s="3"/>
+    </row>
+    <row r="98" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7458,15 +8147,15 @@
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
       <c r="AT98" s="3"/>
-      <c r="AU98" s="2"/>
-      <c r="AV98" s="2"/>
-      <c r="AW98" s="2"/>
-      <c r="AX98" s="2"/>
+      <c r="AU98" s="3"/>
+      <c r="AV98" s="3"/>
+      <c r="AW98" s="3"/>
+      <c r="AX98" s="3"/>
       <c r="AY98" s="2"/>
-      <c r="AZ98" s="3"/>
-      <c r="BA98" s="3"/>
-      <c r="BB98" s="3"/>
-      <c r="BC98" s="3"/>
+      <c r="AZ98" s="2"/>
+      <c r="BA98" s="2"/>
+      <c r="BB98" s="2"/>
+      <c r="BC98" s="2"/>
       <c r="BD98" s="3"/>
       <c r="BE98" s="3"/>
       <c r="BF98" s="3"/>
@@ -7474,8 +8163,12 @@
       <c r="BH98" s="3"/>
       <c r="BI98" s="3"/>
       <c r="BJ98" s="3"/>
-    </row>
-    <row r="99" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK98" s="3"/>
+      <c r="BL98" s="3"/>
+      <c r="BM98" s="3"/>
+      <c r="BN98" s="3"/>
+    </row>
+    <row r="99" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7520,15 +8213,15 @@
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
       <c r="AT99" s="3"/>
-      <c r="AU99" s="2"/>
-      <c r="AV99" s="2"/>
-      <c r="AW99" s="2"/>
-      <c r="AX99" s="2"/>
+      <c r="AU99" s="3"/>
+      <c r="AV99" s="3"/>
+      <c r="AW99" s="3"/>
+      <c r="AX99" s="3"/>
       <c r="AY99" s="2"/>
-      <c r="AZ99" s="3"/>
-      <c r="BA99" s="3"/>
-      <c r="BB99" s="3"/>
-      <c r="BC99" s="3"/>
+      <c r="AZ99" s="2"/>
+      <c r="BA99" s="2"/>
+      <c r="BB99" s="2"/>
+      <c r="BC99" s="2"/>
       <c r="BD99" s="3"/>
       <c r="BE99" s="3"/>
       <c r="BF99" s="3"/>
@@ -7536,8 +8229,12 @@
       <c r="BH99" s="3"/>
       <c r="BI99" s="3"/>
       <c r="BJ99" s="3"/>
-    </row>
-    <row r="100" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK99" s="3"/>
+      <c r="BL99" s="3"/>
+      <c r="BM99" s="3"/>
+      <c r="BN99" s="3"/>
+    </row>
+    <row r="100" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7582,15 +8279,15 @@
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
       <c r="AT100" s="3"/>
-      <c r="AU100" s="2"/>
-      <c r="AV100" s="2"/>
-      <c r="AW100" s="2"/>
-      <c r="AX100" s="2"/>
+      <c r="AU100" s="3"/>
+      <c r="AV100" s="3"/>
+      <c r="AW100" s="3"/>
+      <c r="AX100" s="3"/>
       <c r="AY100" s="2"/>
-      <c r="AZ100" s="3"/>
-      <c r="BA100" s="3"/>
-      <c r="BB100" s="3"/>
-      <c r="BC100" s="3"/>
+      <c r="AZ100" s="2"/>
+      <c r="BA100" s="2"/>
+      <c r="BB100" s="2"/>
+      <c r="BC100" s="2"/>
       <c r="BD100" s="3"/>
       <c r="BE100" s="3"/>
       <c r="BF100" s="3"/>
@@ -7598,8 +8295,12 @@
       <c r="BH100" s="3"/>
       <c r="BI100" s="3"/>
       <c r="BJ100" s="3"/>
-    </row>
-    <row r="101" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK100" s="3"/>
+      <c r="BL100" s="3"/>
+      <c r="BM100" s="3"/>
+      <c r="BN100" s="3"/>
+    </row>
+    <row r="101" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7644,15 +8345,15 @@
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
       <c r="AT101" s="3"/>
-      <c r="AU101" s="2"/>
-      <c r="AV101" s="2"/>
-      <c r="AW101" s="2"/>
-      <c r="AX101" s="2"/>
+      <c r="AU101" s="3"/>
+      <c r="AV101" s="3"/>
+      <c r="AW101" s="3"/>
+      <c r="AX101" s="3"/>
       <c r="AY101" s="2"/>
-      <c r="AZ101" s="3"/>
-      <c r="BA101" s="3"/>
-      <c r="BB101" s="3"/>
-      <c r="BC101" s="3"/>
+      <c r="AZ101" s="2"/>
+      <c r="BA101" s="2"/>
+      <c r="BB101" s="2"/>
+      <c r="BC101" s="2"/>
       <c r="BD101" s="3"/>
       <c r="BE101" s="3"/>
       <c r="BF101" s="3"/>
@@ -7660,8 +8361,12 @@
       <c r="BH101" s="3"/>
       <c r="BI101" s="3"/>
       <c r="BJ101" s="3"/>
-    </row>
-    <row r="102" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK101" s="3"/>
+      <c r="BL101" s="3"/>
+      <c r="BM101" s="3"/>
+      <c r="BN101" s="3"/>
+    </row>
+    <row r="102" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7706,15 +8411,15 @@
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
       <c r="AT102" s="3"/>
-      <c r="AU102" s="2"/>
-      <c r="AV102" s="2"/>
-      <c r="AW102" s="2"/>
-      <c r="AX102" s="2"/>
+      <c r="AU102" s="3"/>
+      <c r="AV102" s="3"/>
+      <c r="AW102" s="3"/>
+      <c r="AX102" s="3"/>
       <c r="AY102" s="2"/>
-      <c r="AZ102" s="3"/>
-      <c r="BA102" s="3"/>
-      <c r="BB102" s="3"/>
-      <c r="BC102" s="3"/>
+      <c r="AZ102" s="2"/>
+      <c r="BA102" s="2"/>
+      <c r="BB102" s="2"/>
+      <c r="BC102" s="2"/>
       <c r="BD102" s="3"/>
       <c r="BE102" s="3"/>
       <c r="BF102" s="3"/>
@@ -7722,8 +8427,12 @@
       <c r="BH102" s="3"/>
       <c r="BI102" s="3"/>
       <c r="BJ102" s="3"/>
-    </row>
-    <row r="103" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK102" s="3"/>
+      <c r="BL102" s="3"/>
+      <c r="BM102" s="3"/>
+      <c r="BN102" s="3"/>
+    </row>
+    <row r="103" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7768,15 +8477,15 @@
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
       <c r="AT103" s="3"/>
-      <c r="AU103" s="2"/>
-      <c r="AV103" s="2"/>
-      <c r="AW103" s="2"/>
-      <c r="AX103" s="2"/>
+      <c r="AU103" s="3"/>
+      <c r="AV103" s="3"/>
+      <c r="AW103" s="3"/>
+      <c r="AX103" s="3"/>
       <c r="AY103" s="2"/>
-      <c r="AZ103" s="3"/>
-      <c r="BA103" s="3"/>
-      <c r="BB103" s="3"/>
-      <c r="BC103" s="3"/>
+      <c r="AZ103" s="2"/>
+      <c r="BA103" s="2"/>
+      <c r="BB103" s="2"/>
+      <c r="BC103" s="2"/>
       <c r="BD103" s="3"/>
       <c r="BE103" s="3"/>
       <c r="BF103" s="3"/>
@@ -7784,8 +8493,12 @@
       <c r="BH103" s="3"/>
       <c r="BI103" s="3"/>
       <c r="BJ103" s="3"/>
-    </row>
-    <row r="104" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK103" s="3"/>
+      <c r="BL103" s="3"/>
+      <c r="BM103" s="3"/>
+      <c r="BN103" s="3"/>
+    </row>
+    <row r="104" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7830,15 +8543,15 @@
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
       <c r="AT104" s="3"/>
-      <c r="AU104" s="2"/>
-      <c r="AV104" s="2"/>
-      <c r="AW104" s="2"/>
-      <c r="AX104" s="2"/>
+      <c r="AU104" s="3"/>
+      <c r="AV104" s="3"/>
+      <c r="AW104" s="3"/>
+      <c r="AX104" s="3"/>
       <c r="AY104" s="2"/>
-      <c r="AZ104" s="3"/>
-      <c r="BA104" s="3"/>
-      <c r="BB104" s="3"/>
-      <c r="BC104" s="3"/>
+      <c r="AZ104" s="2"/>
+      <c r="BA104" s="2"/>
+      <c r="BB104" s="2"/>
+      <c r="BC104" s="2"/>
       <c r="BD104" s="3"/>
       <c r="BE104" s="3"/>
       <c r="BF104" s="3"/>
@@ -7846,8 +8559,12 @@
       <c r="BH104" s="3"/>
       <c r="BI104" s="3"/>
       <c r="BJ104" s="3"/>
-    </row>
-    <row r="105" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK104" s="3"/>
+      <c r="BL104" s="3"/>
+      <c r="BM104" s="3"/>
+      <c r="BN104" s="3"/>
+    </row>
+    <row r="105" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7892,15 +8609,15 @@
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
       <c r="AT105" s="3"/>
-      <c r="AU105" s="2"/>
-      <c r="AV105" s="2"/>
-      <c r="AW105" s="2"/>
-      <c r="AX105" s="2"/>
+      <c r="AU105" s="3"/>
+      <c r="AV105" s="3"/>
+      <c r="AW105" s="3"/>
+      <c r="AX105" s="3"/>
       <c r="AY105" s="2"/>
-      <c r="AZ105" s="3"/>
-      <c r="BA105" s="3"/>
-      <c r="BB105" s="3"/>
-      <c r="BC105" s="3"/>
+      <c r="AZ105" s="2"/>
+      <c r="BA105" s="2"/>
+      <c r="BB105" s="2"/>
+      <c r="BC105" s="2"/>
       <c r="BD105" s="3"/>
       <c r="BE105" s="3"/>
       <c r="BF105" s="3"/>
@@ -7908,8 +8625,12 @@
       <c r="BH105" s="3"/>
       <c r="BI105" s="3"/>
       <c r="BJ105" s="3"/>
-    </row>
-    <row r="106" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK105" s="3"/>
+      <c r="BL105" s="3"/>
+      <c r="BM105" s="3"/>
+      <c r="BN105" s="3"/>
+    </row>
+    <row r="106" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7954,15 +8675,15 @@
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
       <c r="AT106" s="3"/>
-      <c r="AU106" s="2"/>
-      <c r="AV106" s="2"/>
-      <c r="AW106" s="2"/>
-      <c r="AX106" s="2"/>
+      <c r="AU106" s="3"/>
+      <c r="AV106" s="3"/>
+      <c r="AW106" s="3"/>
+      <c r="AX106" s="3"/>
       <c r="AY106" s="2"/>
-      <c r="AZ106" s="3"/>
-      <c r="BA106" s="3"/>
-      <c r="BB106" s="3"/>
-      <c r="BC106" s="3"/>
+      <c r="AZ106" s="2"/>
+      <c r="BA106" s="2"/>
+      <c r="BB106" s="2"/>
+      <c r="BC106" s="2"/>
       <c r="BD106" s="3"/>
       <c r="BE106" s="3"/>
       <c r="BF106" s="3"/>
@@ -7970,8 +8691,12 @@
       <c r="BH106" s="3"/>
       <c r="BI106" s="3"/>
       <c r="BJ106" s="3"/>
-    </row>
-    <row r="107" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK106" s="3"/>
+      <c r="BL106" s="3"/>
+      <c r="BM106" s="3"/>
+      <c r="BN106" s="3"/>
+    </row>
+    <row r="107" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8016,15 +8741,15 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
-      <c r="AU107" s="2"/>
-      <c r="AV107" s="2"/>
-      <c r="AW107" s="2"/>
-      <c r="AX107" s="2"/>
+      <c r="AU107" s="3"/>
+      <c r="AV107" s="3"/>
+      <c r="AW107" s="3"/>
+      <c r="AX107" s="3"/>
       <c r="AY107" s="2"/>
-      <c r="AZ107" s="3"/>
-      <c r="BA107" s="3"/>
-      <c r="BB107" s="3"/>
-      <c r="BC107" s="3"/>
+      <c r="AZ107" s="2"/>
+      <c r="BA107" s="2"/>
+      <c r="BB107" s="2"/>
+      <c r="BC107" s="2"/>
       <c r="BD107" s="3"/>
       <c r="BE107" s="3"/>
       <c r="BF107" s="3"/>
@@ -8032,8 +8757,12 @@
       <c r="BH107" s="3"/>
       <c r="BI107" s="3"/>
       <c r="BJ107" s="3"/>
-    </row>
-    <row r="108" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK107" s="3"/>
+      <c r="BL107" s="3"/>
+      <c r="BM107" s="3"/>
+      <c r="BN107" s="3"/>
+    </row>
+    <row r="108" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8078,15 +8807,15 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
       <c r="AT108" s="3"/>
-      <c r="AU108" s="2"/>
-      <c r="AV108" s="2"/>
-      <c r="AW108" s="2"/>
-      <c r="AX108" s="2"/>
+      <c r="AU108" s="3"/>
+      <c r="AV108" s="3"/>
+      <c r="AW108" s="3"/>
+      <c r="AX108" s="3"/>
       <c r="AY108" s="2"/>
-      <c r="AZ108" s="3"/>
-      <c r="BA108" s="3"/>
-      <c r="BB108" s="3"/>
-      <c r="BC108" s="3"/>
+      <c r="AZ108" s="2"/>
+      <c r="BA108" s="2"/>
+      <c r="BB108" s="2"/>
+      <c r="BC108" s="2"/>
       <c r="BD108" s="3"/>
       <c r="BE108" s="3"/>
       <c r="BF108" s="3"/>
@@ -8094,8 +8823,12 @@
       <c r="BH108" s="3"/>
       <c r="BI108" s="3"/>
       <c r="BJ108" s="3"/>
-    </row>
-    <row r="109" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK108" s="3"/>
+      <c r="BL108" s="3"/>
+      <c r="BM108" s="3"/>
+      <c r="BN108" s="3"/>
+    </row>
+    <row r="109" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8140,15 +8873,15 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
       <c r="AT109" s="3"/>
-      <c r="AU109" s="2"/>
-      <c r="AV109" s="2"/>
-      <c r="AW109" s="2"/>
-      <c r="AX109" s="2"/>
+      <c r="AU109" s="3"/>
+      <c r="AV109" s="3"/>
+      <c r="AW109" s="3"/>
+      <c r="AX109" s="3"/>
       <c r="AY109" s="2"/>
-      <c r="AZ109" s="3"/>
-      <c r="BA109" s="3"/>
-      <c r="BB109" s="3"/>
-      <c r="BC109" s="3"/>
+      <c r="AZ109" s="2"/>
+      <c r="BA109" s="2"/>
+      <c r="BB109" s="2"/>
+      <c r="BC109" s="2"/>
       <c r="BD109" s="3"/>
       <c r="BE109" s="3"/>
       <c r="BF109" s="3"/>
@@ -8156,8 +8889,12 @@
       <c r="BH109" s="3"/>
       <c r="BI109" s="3"/>
       <c r="BJ109" s="3"/>
-    </row>
-    <row r="110" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK109" s="3"/>
+      <c r="BL109" s="3"/>
+      <c r="BM109" s="3"/>
+      <c r="BN109" s="3"/>
+    </row>
+    <row r="110" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8202,15 +8939,15 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
       <c r="AT110" s="3"/>
-      <c r="AU110" s="2"/>
-      <c r="AV110" s="2"/>
-      <c r="AW110" s="2"/>
-      <c r="AX110" s="2"/>
+      <c r="AU110" s="3"/>
+      <c r="AV110" s="3"/>
+      <c r="AW110" s="3"/>
+      <c r="AX110" s="3"/>
       <c r="AY110" s="2"/>
-      <c r="AZ110" s="3"/>
-      <c r="BA110" s="3"/>
-      <c r="BB110" s="3"/>
-      <c r="BC110" s="3"/>
+      <c r="AZ110" s="2"/>
+      <c r="BA110" s="2"/>
+      <c r="BB110" s="2"/>
+      <c r="BC110" s="2"/>
       <c r="BD110" s="3"/>
       <c r="BE110" s="3"/>
       <c r="BF110" s="3"/>
@@ -8218,8 +8955,12 @@
       <c r="BH110" s="3"/>
       <c r="BI110" s="3"/>
       <c r="BJ110" s="3"/>
-    </row>
-    <row r="111" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK110" s="3"/>
+      <c r="BL110" s="3"/>
+      <c r="BM110" s="3"/>
+      <c r="BN110" s="3"/>
+    </row>
+    <row r="111" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -8264,15 +9005,15 @@
       <c r="AR111" s="3"/>
       <c r="AS111" s="3"/>
       <c r="AT111" s="3"/>
-      <c r="AU111" s="2"/>
-      <c r="AV111" s="2"/>
-      <c r="AW111" s="2"/>
-      <c r="AX111" s="2"/>
+      <c r="AU111" s="3"/>
+      <c r="AV111" s="3"/>
+      <c r="AW111" s="3"/>
+      <c r="AX111" s="3"/>
       <c r="AY111" s="2"/>
-      <c r="AZ111" s="3"/>
-      <c r="BA111" s="3"/>
-      <c r="BB111" s="3"/>
-      <c r="BC111" s="3"/>
+      <c r="AZ111" s="2"/>
+      <c r="BA111" s="2"/>
+      <c r="BB111" s="2"/>
+      <c r="BC111" s="2"/>
       <c r="BD111" s="3"/>
       <c r="BE111" s="3"/>
       <c r="BF111" s="3"/>
@@ -8280,8 +9021,12 @@
       <c r="BH111" s="3"/>
       <c r="BI111" s="3"/>
       <c r="BJ111" s="3"/>
-    </row>
-    <row r="112" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK111" s="3"/>
+      <c r="BL111" s="3"/>
+      <c r="BM111" s="3"/>
+      <c r="BN111" s="3"/>
+    </row>
+    <row r="112" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8326,15 +9071,15 @@
       <c r="AR112" s="3"/>
       <c r="AS112" s="3"/>
       <c r="AT112" s="3"/>
-      <c r="AU112" s="2"/>
-      <c r="AV112" s="2"/>
-      <c r="AW112" s="2"/>
-      <c r="AX112" s="2"/>
+      <c r="AU112" s="3"/>
+      <c r="AV112" s="3"/>
+      <c r="AW112" s="3"/>
+      <c r="AX112" s="3"/>
       <c r="AY112" s="2"/>
-      <c r="AZ112" s="3"/>
-      <c r="BA112" s="3"/>
-      <c r="BB112" s="3"/>
-      <c r="BC112" s="3"/>
+      <c r="AZ112" s="2"/>
+      <c r="BA112" s="2"/>
+      <c r="BB112" s="2"/>
+      <c r="BC112" s="2"/>
       <c r="BD112" s="3"/>
       <c r="BE112" s="3"/>
       <c r="BF112" s="3"/>
@@ -8342,8 +9087,12 @@
       <c r="BH112" s="3"/>
       <c r="BI112" s="3"/>
       <c r="BJ112" s="3"/>
-    </row>
-    <row r="113" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK112" s="3"/>
+      <c r="BL112" s="3"/>
+      <c r="BM112" s="3"/>
+      <c r="BN112" s="3"/>
+    </row>
+    <row r="113" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8388,15 +9137,15 @@
       <c r="AR113" s="3"/>
       <c r="AS113" s="3"/>
       <c r="AT113" s="3"/>
-      <c r="AU113" s="2"/>
-      <c r="AV113" s="2"/>
-      <c r="AW113" s="2"/>
-      <c r="AX113" s="2"/>
+      <c r="AU113" s="3"/>
+      <c r="AV113" s="3"/>
+      <c r="AW113" s="3"/>
+      <c r="AX113" s="3"/>
       <c r="AY113" s="2"/>
-      <c r="AZ113" s="3"/>
-      <c r="BA113" s="3"/>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
+      <c r="AZ113" s="2"/>
+      <c r="BA113" s="2"/>
+      <c r="BB113" s="2"/>
+      <c r="BC113" s="2"/>
       <c r="BD113" s="3"/>
       <c r="BE113" s="3"/>
       <c r="BF113" s="3"/>
@@ -8404,8 +9153,12 @@
       <c r="BH113" s="3"/>
       <c r="BI113" s="3"/>
       <c r="BJ113" s="3"/>
-    </row>
-    <row r="114" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK113" s="3"/>
+      <c r="BL113" s="3"/>
+      <c r="BM113" s="3"/>
+      <c r="BN113" s="3"/>
+    </row>
+    <row r="114" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8450,15 +9203,15 @@
       <c r="AR114" s="3"/>
       <c r="AS114" s="3"/>
       <c r="AT114" s="3"/>
-      <c r="AU114" s="2"/>
-      <c r="AV114" s="2"/>
-      <c r="AW114" s="2"/>
-      <c r="AX114" s="2"/>
+      <c r="AU114" s="3"/>
+      <c r="AV114" s="3"/>
+      <c r="AW114" s="3"/>
+      <c r="AX114" s="3"/>
       <c r="AY114" s="2"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
+      <c r="AZ114" s="2"/>
+      <c r="BA114" s="2"/>
+      <c r="BB114" s="2"/>
+      <c r="BC114" s="2"/>
       <c r="BD114" s="3"/>
       <c r="BE114" s="3"/>
       <c r="BF114" s="3"/>
@@ -8466,8 +9219,12 @@
       <c r="BH114" s="3"/>
       <c r="BI114" s="3"/>
       <c r="BJ114" s="3"/>
-    </row>
-    <row r="115" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK114" s="3"/>
+      <c r="BL114" s="3"/>
+      <c r="BM114" s="3"/>
+      <c r="BN114" s="3"/>
+    </row>
+    <row r="115" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8512,15 +9269,15 @@
       <c r="AR115" s="3"/>
       <c r="AS115" s="3"/>
       <c r="AT115" s="3"/>
-      <c r="AU115" s="2"/>
-      <c r="AV115" s="2"/>
-      <c r="AW115" s="2"/>
-      <c r="AX115" s="2"/>
+      <c r="AU115" s="3"/>
+      <c r="AV115" s="3"/>
+      <c r="AW115" s="3"/>
+      <c r="AX115" s="3"/>
       <c r="AY115" s="2"/>
-      <c r="AZ115" s="3"/>
-      <c r="BA115" s="3"/>
-      <c r="BB115" s="3"/>
-      <c r="BC115" s="3"/>
+      <c r="AZ115" s="2"/>
+      <c r="BA115" s="2"/>
+      <c r="BB115" s="2"/>
+      <c r="BC115" s="2"/>
       <c r="BD115" s="3"/>
       <c r="BE115" s="3"/>
       <c r="BF115" s="3"/>
@@ -8528,8 +9285,12 @@
       <c r="BH115" s="3"/>
       <c r="BI115" s="3"/>
       <c r="BJ115" s="3"/>
-    </row>
-    <row r="116" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK115" s="3"/>
+      <c r="BL115" s="3"/>
+      <c r="BM115" s="3"/>
+      <c r="BN115" s="3"/>
+    </row>
+    <row r="116" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8574,15 +9335,15 @@
       <c r="AR116" s="3"/>
       <c r="AS116" s="3"/>
       <c r="AT116" s="3"/>
-      <c r="AU116" s="2"/>
-      <c r="AV116" s="2"/>
-      <c r="AW116" s="2"/>
-      <c r="AX116" s="2"/>
+      <c r="AU116" s="3"/>
+      <c r="AV116" s="3"/>
+      <c r="AW116" s="3"/>
+      <c r="AX116" s="3"/>
       <c r="AY116" s="2"/>
-      <c r="AZ116" s="3"/>
-      <c r="BA116" s="3"/>
-      <c r="BB116" s="3"/>
-      <c r="BC116" s="3"/>
+      <c r="AZ116" s="2"/>
+      <c r="BA116" s="2"/>
+      <c r="BB116" s="2"/>
+      <c r="BC116" s="2"/>
       <c r="BD116" s="3"/>
       <c r="BE116" s="3"/>
       <c r="BF116" s="3"/>
@@ -8590,8 +9351,12 @@
       <c r="BH116" s="3"/>
       <c r="BI116" s="3"/>
       <c r="BJ116" s="3"/>
-    </row>
-    <row r="117" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK116" s="3"/>
+      <c r="BL116" s="3"/>
+      <c r="BM116" s="3"/>
+      <c r="BN116" s="3"/>
+    </row>
+    <row r="117" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8636,15 +9401,15 @@
       <c r="AR117" s="3"/>
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
-      <c r="AU117" s="2"/>
-      <c r="AV117" s="2"/>
-      <c r="AW117" s="2"/>
-      <c r="AX117" s="2"/>
+      <c r="AU117" s="3"/>
+      <c r="AV117" s="3"/>
+      <c r="AW117" s="3"/>
+      <c r="AX117" s="3"/>
       <c r="AY117" s="2"/>
-      <c r="AZ117" s="3"/>
-      <c r="BA117" s="3"/>
-      <c r="BB117" s="3"/>
-      <c r="BC117" s="3"/>
+      <c r="AZ117" s="2"/>
+      <c r="BA117" s="2"/>
+      <c r="BB117" s="2"/>
+      <c r="BC117" s="2"/>
       <c r="BD117" s="3"/>
       <c r="BE117" s="3"/>
       <c r="BF117" s="3"/>
@@ -8652,8 +9417,12 @@
       <c r="BH117" s="3"/>
       <c r="BI117" s="3"/>
       <c r="BJ117" s="3"/>
-    </row>
-    <row r="118" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+    </row>
+    <row r="118" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8698,15 +9467,15 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
       <c r="AT118" s="3"/>
-      <c r="AU118" s="2"/>
-      <c r="AV118" s="2"/>
-      <c r="AW118" s="2"/>
-      <c r="AX118" s="2"/>
+      <c r="AU118" s="3"/>
+      <c r="AV118" s="3"/>
+      <c r="AW118" s="3"/>
+      <c r="AX118" s="3"/>
       <c r="AY118" s="2"/>
-      <c r="AZ118" s="3"/>
-      <c r="BA118" s="3"/>
-      <c r="BB118" s="3"/>
-      <c r="BC118" s="3"/>
+      <c r="AZ118" s="2"/>
+      <c r="BA118" s="2"/>
+      <c r="BB118" s="2"/>
+      <c r="BC118" s="2"/>
       <c r="BD118" s="3"/>
       <c r="BE118" s="3"/>
       <c r="BF118" s="3"/>
@@ -8714,8 +9483,12 @@
       <c r="BH118" s="3"/>
       <c r="BI118" s="3"/>
       <c r="BJ118" s="3"/>
-    </row>
-    <row r="119" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK118" s="3"/>
+      <c r="BL118" s="3"/>
+      <c r="BM118" s="3"/>
+      <c r="BN118" s="3"/>
+    </row>
+    <row r="119" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8760,15 +9533,15 @@
       <c r="AR119" s="3"/>
       <c r="AS119" s="3"/>
       <c r="AT119" s="3"/>
-      <c r="AU119" s="2"/>
-      <c r="AV119" s="2"/>
-      <c r="AW119" s="2"/>
-      <c r="AX119" s="2"/>
+      <c r="AU119" s="3"/>
+      <c r="AV119" s="3"/>
+      <c r="AW119" s="3"/>
+      <c r="AX119" s="3"/>
       <c r="AY119" s="2"/>
-      <c r="AZ119" s="3"/>
-      <c r="BA119" s="3"/>
-      <c r="BB119" s="3"/>
-      <c r="BC119" s="3"/>
+      <c r="AZ119" s="2"/>
+      <c r="BA119" s="2"/>
+      <c r="BB119" s="2"/>
+      <c r="BC119" s="2"/>
       <c r="BD119" s="3"/>
       <c r="BE119" s="3"/>
       <c r="BF119" s="3"/>
@@ -8776,8 +9549,12 @@
       <c r="BH119" s="3"/>
       <c r="BI119" s="3"/>
       <c r="BJ119" s="3"/>
-    </row>
-    <row r="120" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK119" s="3"/>
+      <c r="BL119" s="3"/>
+      <c r="BM119" s="3"/>
+      <c r="BN119" s="3"/>
+    </row>
+    <row r="120" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8822,15 +9599,15 @@
       <c r="AR120" s="3"/>
       <c r="AS120" s="3"/>
       <c r="AT120" s="3"/>
-      <c r="AU120" s="2"/>
-      <c r="AV120" s="2"/>
-      <c r="AW120" s="2"/>
-      <c r="AX120" s="2"/>
+      <c r="AU120" s="3"/>
+      <c r="AV120" s="3"/>
+      <c r="AW120" s="3"/>
+      <c r="AX120" s="3"/>
       <c r="AY120" s="2"/>
-      <c r="AZ120" s="3"/>
-      <c r="BA120" s="3"/>
-      <c r="BB120" s="3"/>
-      <c r="BC120" s="3"/>
+      <c r="AZ120" s="2"/>
+      <c r="BA120" s="2"/>
+      <c r="BB120" s="2"/>
+      <c r="BC120" s="2"/>
       <c r="BD120" s="3"/>
       <c r="BE120" s="3"/>
       <c r="BF120" s="3"/>
@@ -8838,8 +9615,12 @@
       <c r="BH120" s="3"/>
       <c r="BI120" s="3"/>
       <c r="BJ120" s="3"/>
-    </row>
-    <row r="121" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK120" s="3"/>
+      <c r="BL120" s="3"/>
+      <c r="BM120" s="3"/>
+      <c r="BN120" s="3"/>
+    </row>
+    <row r="121" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8884,15 +9665,15 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
       <c r="AT121" s="3"/>
-      <c r="AU121" s="2"/>
-      <c r="AV121" s="2"/>
-      <c r="AW121" s="2"/>
-      <c r="AX121" s="2"/>
+      <c r="AU121" s="3"/>
+      <c r="AV121" s="3"/>
+      <c r="AW121" s="3"/>
+      <c r="AX121" s="3"/>
       <c r="AY121" s="2"/>
-      <c r="AZ121" s="3"/>
-      <c r="BA121" s="3"/>
-      <c r="BB121" s="3"/>
-      <c r="BC121" s="3"/>
+      <c r="AZ121" s="2"/>
+      <c r="BA121" s="2"/>
+      <c r="BB121" s="2"/>
+      <c r="BC121" s="2"/>
       <c r="BD121" s="3"/>
       <c r="BE121" s="3"/>
       <c r="BF121" s="3"/>
@@ -8900,8 +9681,12 @@
       <c r="BH121" s="3"/>
       <c r="BI121" s="3"/>
       <c r="BJ121" s="3"/>
-    </row>
-    <row r="122" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK121" s="3"/>
+      <c r="BL121" s="3"/>
+      <c r="BM121" s="3"/>
+      <c r="BN121" s="3"/>
+    </row>
+    <row r="122" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8946,15 +9731,15 @@
       <c r="AR122" s="3"/>
       <c r="AS122" s="3"/>
       <c r="AT122" s="3"/>
-      <c r="AU122" s="2"/>
-      <c r="AV122" s="2"/>
-      <c r="AW122" s="2"/>
-      <c r="AX122" s="2"/>
+      <c r="AU122" s="3"/>
+      <c r="AV122" s="3"/>
+      <c r="AW122" s="3"/>
+      <c r="AX122" s="3"/>
       <c r="AY122" s="2"/>
-      <c r="AZ122" s="3"/>
-      <c r="BA122" s="3"/>
-      <c r="BB122" s="3"/>
-      <c r="BC122" s="3"/>
+      <c r="AZ122" s="2"/>
+      <c r="BA122" s="2"/>
+      <c r="BB122" s="2"/>
+      <c r="BC122" s="2"/>
       <c r="BD122" s="3"/>
       <c r="BE122" s="3"/>
       <c r="BF122" s="3"/>
@@ -8962,8 +9747,12 @@
       <c r="BH122" s="3"/>
       <c r="BI122" s="3"/>
       <c r="BJ122" s="3"/>
-    </row>
-    <row r="123" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK122" s="3"/>
+      <c r="BL122" s="3"/>
+      <c r="BM122" s="3"/>
+      <c r="BN122" s="3"/>
+    </row>
+    <row r="123" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9008,15 +9797,15 @@
       <c r="AR123" s="3"/>
       <c r="AS123" s="3"/>
       <c r="AT123" s="3"/>
-      <c r="AU123" s="2"/>
-      <c r="AV123" s="2"/>
-      <c r="AW123" s="2"/>
-      <c r="AX123" s="2"/>
+      <c r="AU123" s="3"/>
+      <c r="AV123" s="3"/>
+      <c r="AW123" s="3"/>
+      <c r="AX123" s="3"/>
       <c r="AY123" s="2"/>
-      <c r="AZ123" s="3"/>
-      <c r="BA123" s="3"/>
-      <c r="BB123" s="3"/>
-      <c r="BC123" s="3"/>
+      <c r="AZ123" s="2"/>
+      <c r="BA123" s="2"/>
+      <c r="BB123" s="2"/>
+      <c r="BC123" s="2"/>
       <c r="BD123" s="3"/>
       <c r="BE123" s="3"/>
       <c r="BF123" s="3"/>
@@ -9024,8 +9813,12 @@
       <c r="BH123" s="3"/>
       <c r="BI123" s="3"/>
       <c r="BJ123" s="3"/>
-    </row>
-    <row r="124" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK123" s="3"/>
+      <c r="BL123" s="3"/>
+      <c r="BM123" s="3"/>
+      <c r="BN123" s="3"/>
+    </row>
+    <row r="124" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9070,15 +9863,15 @@
       <c r="AR124" s="3"/>
       <c r="AS124" s="3"/>
       <c r="AT124" s="3"/>
-      <c r="AU124" s="2"/>
-      <c r="AV124" s="2"/>
-      <c r="AW124" s="2"/>
-      <c r="AX124" s="2"/>
+      <c r="AU124" s="3"/>
+      <c r="AV124" s="3"/>
+      <c r="AW124" s="3"/>
+      <c r="AX124" s="3"/>
       <c r="AY124" s="2"/>
-      <c r="AZ124" s="3"/>
-      <c r="BA124" s="3"/>
-      <c r="BB124" s="3"/>
-      <c r="BC124" s="3"/>
+      <c r="AZ124" s="2"/>
+      <c r="BA124" s="2"/>
+      <c r="BB124" s="2"/>
+      <c r="BC124" s="2"/>
       <c r="BD124" s="3"/>
       <c r="BE124" s="3"/>
       <c r="BF124" s="3"/>
@@ -9086,8 +9879,12 @@
       <c r="BH124" s="3"/>
       <c r="BI124" s="3"/>
       <c r="BJ124" s="3"/>
-    </row>
-    <row r="125" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK124" s="3"/>
+      <c r="BL124" s="3"/>
+      <c r="BM124" s="3"/>
+      <c r="BN124" s="3"/>
+    </row>
+    <row r="125" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9132,15 +9929,15 @@
       <c r="AR125" s="3"/>
       <c r="AS125" s="3"/>
       <c r="AT125" s="3"/>
-      <c r="AU125" s="2"/>
-      <c r="AV125" s="2"/>
-      <c r="AW125" s="2"/>
-      <c r="AX125" s="2"/>
+      <c r="AU125" s="3"/>
+      <c r="AV125" s="3"/>
+      <c r="AW125" s="3"/>
+      <c r="AX125" s="3"/>
       <c r="AY125" s="2"/>
-      <c r="AZ125" s="3"/>
-      <c r="BA125" s="3"/>
-      <c r="BB125" s="3"/>
-      <c r="BC125" s="3"/>
+      <c r="AZ125" s="2"/>
+      <c r="BA125" s="2"/>
+      <c r="BB125" s="2"/>
+      <c r="BC125" s="2"/>
       <c r="BD125" s="3"/>
       <c r="BE125" s="3"/>
       <c r="BF125" s="3"/>
@@ -9148,8 +9945,12 @@
       <c r="BH125" s="3"/>
       <c r="BI125" s="3"/>
       <c r="BJ125" s="3"/>
-    </row>
-    <row r="126" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK125" s="3"/>
+      <c r="BL125" s="3"/>
+      <c r="BM125" s="3"/>
+      <c r="BN125" s="3"/>
+    </row>
+    <row r="126" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9194,15 +9995,15 @@
       <c r="AR126" s="3"/>
       <c r="AS126" s="3"/>
       <c r="AT126" s="3"/>
-      <c r="AU126" s="2"/>
-      <c r="AV126" s="2"/>
-      <c r="AW126" s="2"/>
-      <c r="AX126" s="2"/>
+      <c r="AU126" s="3"/>
+      <c r="AV126" s="3"/>
+      <c r="AW126" s="3"/>
+      <c r="AX126" s="3"/>
       <c r="AY126" s="2"/>
-      <c r="AZ126" s="3"/>
-      <c r="BA126" s="3"/>
-      <c r="BB126" s="3"/>
-      <c r="BC126" s="3"/>
+      <c r="AZ126" s="2"/>
+      <c r="BA126" s="2"/>
+      <c r="BB126" s="2"/>
+      <c r="BC126" s="2"/>
       <c r="BD126" s="3"/>
       <c r="BE126" s="3"/>
       <c r="BF126" s="3"/>
@@ -9210,8 +10011,12 @@
       <c r="BH126" s="3"/>
       <c r="BI126" s="3"/>
       <c r="BJ126" s="3"/>
-    </row>
-    <row r="127" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK126" s="3"/>
+      <c r="BL126" s="3"/>
+      <c r="BM126" s="3"/>
+      <c r="BN126" s="3"/>
+    </row>
+    <row r="127" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9256,15 +10061,15 @@
       <c r="AR127" s="3"/>
       <c r="AS127" s="3"/>
       <c r="AT127" s="3"/>
-      <c r="AU127" s="2"/>
-      <c r="AV127" s="2"/>
-      <c r="AW127" s="2"/>
-      <c r="AX127" s="2"/>
+      <c r="AU127" s="3"/>
+      <c r="AV127" s="3"/>
+      <c r="AW127" s="3"/>
+      <c r="AX127" s="3"/>
       <c r="AY127" s="2"/>
-      <c r="AZ127" s="3"/>
-      <c r="BA127" s="3"/>
-      <c r="BB127" s="3"/>
-      <c r="BC127" s="3"/>
+      <c r="AZ127" s="2"/>
+      <c r="BA127" s="2"/>
+      <c r="BB127" s="2"/>
+      <c r="BC127" s="2"/>
       <c r="BD127" s="3"/>
       <c r="BE127" s="3"/>
       <c r="BF127" s="3"/>
@@ -9272,8 +10077,12 @@
       <c r="BH127" s="3"/>
       <c r="BI127" s="3"/>
       <c r="BJ127" s="3"/>
-    </row>
-    <row r="128" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK127" s="3"/>
+      <c r="BL127" s="3"/>
+      <c r="BM127" s="3"/>
+      <c r="BN127" s="3"/>
+    </row>
+    <row r="128" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9318,15 +10127,15 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
       <c r="AT128" s="3"/>
-      <c r="AU128" s="2"/>
-      <c r="AV128" s="2"/>
-      <c r="AW128" s="2"/>
-      <c r="AX128" s="2"/>
+      <c r="AU128" s="3"/>
+      <c r="AV128" s="3"/>
+      <c r="AW128" s="3"/>
+      <c r="AX128" s="3"/>
       <c r="AY128" s="2"/>
-      <c r="AZ128" s="3"/>
-      <c r="BA128" s="3"/>
-      <c r="BB128" s="3"/>
-      <c r="BC128" s="3"/>
+      <c r="AZ128" s="2"/>
+      <c r="BA128" s="2"/>
+      <c r="BB128" s="2"/>
+      <c r="BC128" s="2"/>
       <c r="BD128" s="3"/>
       <c r="BE128" s="3"/>
       <c r="BF128" s="3"/>
@@ -9334,8 +10143,12 @@
       <c r="BH128" s="3"/>
       <c r="BI128" s="3"/>
       <c r="BJ128" s="3"/>
-    </row>
-    <row r="129" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK128" s="3"/>
+      <c r="BL128" s="3"/>
+      <c r="BM128" s="3"/>
+      <c r="BN128" s="3"/>
+    </row>
+    <row r="129" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9380,15 +10193,15 @@
       <c r="AR129" s="3"/>
       <c r="AS129" s="3"/>
       <c r="AT129" s="3"/>
-      <c r="AU129" s="2"/>
-      <c r="AV129" s="2"/>
-      <c r="AW129" s="2"/>
-      <c r="AX129" s="2"/>
+      <c r="AU129" s="3"/>
+      <c r="AV129" s="3"/>
+      <c r="AW129" s="3"/>
+      <c r="AX129" s="3"/>
       <c r="AY129" s="2"/>
-      <c r="AZ129" s="3"/>
-      <c r="BA129" s="3"/>
-      <c r="BB129" s="3"/>
-      <c r="BC129" s="3"/>
+      <c r="AZ129" s="2"/>
+      <c r="BA129" s="2"/>
+      <c r="BB129" s="2"/>
+      <c r="BC129" s="2"/>
       <c r="BD129" s="3"/>
       <c r="BE129" s="3"/>
       <c r="BF129" s="3"/>
@@ -9396,8 +10209,12 @@
       <c r="BH129" s="3"/>
       <c r="BI129" s="3"/>
       <c r="BJ129" s="3"/>
-    </row>
-    <row r="130" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK129" s="3"/>
+      <c r="BL129" s="3"/>
+      <c r="BM129" s="3"/>
+      <c r="BN129" s="3"/>
+    </row>
+    <row r="130" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9442,15 +10259,15 @@
       <c r="AR130" s="3"/>
       <c r="AS130" s="3"/>
       <c r="AT130" s="3"/>
-      <c r="AU130" s="2"/>
-      <c r="AV130" s="2"/>
-      <c r="AW130" s="2"/>
-      <c r="AX130" s="2"/>
+      <c r="AU130" s="3"/>
+      <c r="AV130" s="3"/>
+      <c r="AW130" s="3"/>
+      <c r="AX130" s="3"/>
       <c r="AY130" s="2"/>
-      <c r="AZ130" s="3"/>
-      <c r="BA130" s="3"/>
-      <c r="BB130" s="3"/>
-      <c r="BC130" s="3"/>
+      <c r="AZ130" s="2"/>
+      <c r="BA130" s="2"/>
+      <c r="BB130" s="2"/>
+      <c r="BC130" s="2"/>
       <c r="BD130" s="3"/>
       <c r="BE130" s="3"/>
       <c r="BF130" s="3"/>
@@ -9458,8 +10275,12 @@
       <c r="BH130" s="3"/>
       <c r="BI130" s="3"/>
       <c r="BJ130" s="3"/>
-    </row>
-    <row r="131" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK130" s="3"/>
+      <c r="BL130" s="3"/>
+      <c r="BM130" s="3"/>
+      <c r="BN130" s="3"/>
+    </row>
+    <row r="131" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9504,15 +10325,15 @@
       <c r="AR131" s="3"/>
       <c r="AS131" s="3"/>
       <c r="AT131" s="3"/>
-      <c r="AU131" s="2"/>
-      <c r="AV131" s="2"/>
-      <c r="AW131" s="2"/>
-      <c r="AX131" s="2"/>
+      <c r="AU131" s="3"/>
+      <c r="AV131" s="3"/>
+      <c r="AW131" s="3"/>
+      <c r="AX131" s="3"/>
       <c r="AY131" s="2"/>
-      <c r="AZ131" s="3"/>
-      <c r="BA131" s="3"/>
-      <c r="BB131" s="3"/>
-      <c r="BC131" s="3"/>
+      <c r="AZ131" s="2"/>
+      <c r="BA131" s="2"/>
+      <c r="BB131" s="2"/>
+      <c r="BC131" s="2"/>
       <c r="BD131" s="3"/>
       <c r="BE131" s="3"/>
       <c r="BF131" s="3"/>
@@ -9520,8 +10341,12 @@
       <c r="BH131" s="3"/>
       <c r="BI131" s="3"/>
       <c r="BJ131" s="3"/>
-    </row>
-    <row r="132" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK131" s="3"/>
+      <c r="BL131" s="3"/>
+      <c r="BM131" s="3"/>
+      <c r="BN131" s="3"/>
+    </row>
+    <row r="132" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9566,15 +10391,15 @@
       <c r="AR132" s="3"/>
       <c r="AS132" s="3"/>
       <c r="AT132" s="3"/>
-      <c r="AU132" s="2"/>
-      <c r="AV132" s="2"/>
-      <c r="AW132" s="2"/>
-      <c r="AX132" s="2"/>
+      <c r="AU132" s="3"/>
+      <c r="AV132" s="3"/>
+      <c r="AW132" s="3"/>
+      <c r="AX132" s="3"/>
       <c r="AY132" s="2"/>
-      <c r="AZ132" s="3"/>
-      <c r="BA132" s="3"/>
-      <c r="BB132" s="3"/>
-      <c r="BC132" s="3"/>
+      <c r="AZ132" s="2"/>
+      <c r="BA132" s="2"/>
+      <c r="BB132" s="2"/>
+      <c r="BC132" s="2"/>
       <c r="BD132" s="3"/>
       <c r="BE132" s="3"/>
       <c r="BF132" s="3"/>
@@ -9582,8 +10407,12 @@
       <c r="BH132" s="3"/>
       <c r="BI132" s="3"/>
       <c r="BJ132" s="3"/>
-    </row>
-    <row r="133" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK132" s="3"/>
+      <c r="BL132" s="3"/>
+      <c r="BM132" s="3"/>
+      <c r="BN132" s="3"/>
+    </row>
+    <row r="133" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9628,15 +10457,15 @@
       <c r="AR133" s="3"/>
       <c r="AS133" s="3"/>
       <c r="AT133" s="3"/>
-      <c r="AU133" s="2"/>
-      <c r="AV133" s="2"/>
-      <c r="AW133" s="2"/>
-      <c r="AX133" s="2"/>
+      <c r="AU133" s="3"/>
+      <c r="AV133" s="3"/>
+      <c r="AW133" s="3"/>
+      <c r="AX133" s="3"/>
       <c r="AY133" s="2"/>
-      <c r="AZ133" s="3"/>
-      <c r="BA133" s="3"/>
-      <c r="BB133" s="3"/>
-      <c r="BC133" s="3"/>
+      <c r="AZ133" s="2"/>
+      <c r="BA133" s="2"/>
+      <c r="BB133" s="2"/>
+      <c r="BC133" s="2"/>
       <c r="BD133" s="3"/>
       <c r="BE133" s="3"/>
       <c r="BF133" s="3"/>
@@ -9644,8 +10473,12 @@
       <c r="BH133" s="3"/>
       <c r="BI133" s="3"/>
       <c r="BJ133" s="3"/>
-    </row>
-    <row r="134" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK133" s="3"/>
+      <c r="BL133" s="3"/>
+      <c r="BM133" s="3"/>
+      <c r="BN133" s="3"/>
+    </row>
+    <row r="134" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9690,15 +10523,15 @@
       <c r="AR134" s="3"/>
       <c r="AS134" s="3"/>
       <c r="AT134" s="3"/>
-      <c r="AU134" s="2"/>
-      <c r="AV134" s="2"/>
-      <c r="AW134" s="2"/>
-      <c r="AX134" s="2"/>
+      <c r="AU134" s="3"/>
+      <c r="AV134" s="3"/>
+      <c r="AW134" s="3"/>
+      <c r="AX134" s="3"/>
       <c r="AY134" s="2"/>
-      <c r="AZ134" s="3"/>
-      <c r="BA134" s="3"/>
-      <c r="BB134" s="3"/>
-      <c r="BC134" s="3"/>
+      <c r="AZ134" s="2"/>
+      <c r="BA134" s="2"/>
+      <c r="BB134" s="2"/>
+      <c r="BC134" s="2"/>
       <c r="BD134" s="3"/>
       <c r="BE134" s="3"/>
       <c r="BF134" s="3"/>
@@ -9706,8 +10539,12 @@
       <c r="BH134" s="3"/>
       <c r="BI134" s="3"/>
       <c r="BJ134" s="3"/>
-    </row>
-    <row r="135" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK134" s="3"/>
+      <c r="BL134" s="3"/>
+      <c r="BM134" s="3"/>
+      <c r="BN134" s="3"/>
+    </row>
+    <row r="135" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9752,15 +10589,15 @@
       <c r="AR135" s="3"/>
       <c r="AS135" s="3"/>
       <c r="AT135" s="3"/>
-      <c r="AU135" s="2"/>
-      <c r="AV135" s="2"/>
-      <c r="AW135" s="2"/>
-      <c r="AX135" s="2"/>
+      <c r="AU135" s="3"/>
+      <c r="AV135" s="3"/>
+      <c r="AW135" s="3"/>
+      <c r="AX135" s="3"/>
       <c r="AY135" s="2"/>
-      <c r="AZ135" s="3"/>
-      <c r="BA135" s="3"/>
-      <c r="BB135" s="3"/>
-      <c r="BC135" s="3"/>
+      <c r="AZ135" s="2"/>
+      <c r="BA135" s="2"/>
+      <c r="BB135" s="2"/>
+      <c r="BC135" s="2"/>
       <c r="BD135" s="3"/>
       <c r="BE135" s="3"/>
       <c r="BF135" s="3"/>
@@ -9768,8 +10605,12 @@
       <c r="BH135" s="3"/>
       <c r="BI135" s="3"/>
       <c r="BJ135" s="3"/>
-    </row>
-    <row r="136" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK135" s="3"/>
+      <c r="BL135" s="3"/>
+      <c r="BM135" s="3"/>
+      <c r="BN135" s="3"/>
+    </row>
+    <row r="136" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9814,15 +10655,15 @@
       <c r="AR136" s="3"/>
       <c r="AS136" s="3"/>
       <c r="AT136" s="3"/>
-      <c r="AU136" s="2"/>
-      <c r="AV136" s="2"/>
-      <c r="AW136" s="2"/>
-      <c r="AX136" s="2"/>
+      <c r="AU136" s="3"/>
+      <c r="AV136" s="3"/>
+      <c r="AW136" s="3"/>
+      <c r="AX136" s="3"/>
       <c r="AY136" s="2"/>
-      <c r="AZ136" s="3"/>
-      <c r="BA136" s="3"/>
-      <c r="BB136" s="3"/>
-      <c r="BC136" s="3"/>
+      <c r="AZ136" s="2"/>
+      <c r="BA136" s="2"/>
+      <c r="BB136" s="2"/>
+      <c r="BC136" s="2"/>
       <c r="BD136" s="3"/>
       <c r="BE136" s="3"/>
       <c r="BF136" s="3"/>
@@ -9830,8 +10671,12 @@
       <c r="BH136" s="3"/>
       <c r="BI136" s="3"/>
       <c r="BJ136" s="3"/>
-    </row>
-    <row r="137" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK136" s="3"/>
+      <c r="BL136" s="3"/>
+      <c r="BM136" s="3"/>
+      <c r="BN136" s="3"/>
+    </row>
+    <row r="137" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9876,15 +10721,15 @@
       <c r="AR137" s="3"/>
       <c r="AS137" s="3"/>
       <c r="AT137" s="3"/>
-      <c r="AU137" s="2"/>
-      <c r="AV137" s="2"/>
-      <c r="AW137" s="2"/>
-      <c r="AX137" s="2"/>
+      <c r="AU137" s="3"/>
+      <c r="AV137" s="3"/>
+      <c r="AW137" s="3"/>
+      <c r="AX137" s="3"/>
       <c r="AY137" s="2"/>
-      <c r="AZ137" s="3"/>
-      <c r="BA137" s="3"/>
-      <c r="BB137" s="3"/>
-      <c r="BC137" s="3"/>
+      <c r="AZ137" s="2"/>
+      <c r="BA137" s="2"/>
+      <c r="BB137" s="2"/>
+      <c r="BC137" s="2"/>
       <c r="BD137" s="3"/>
       <c r="BE137" s="3"/>
       <c r="BF137" s="3"/>
@@ -9892,8 +10737,12 @@
       <c r="BH137" s="3"/>
       <c r="BI137" s="3"/>
       <c r="BJ137" s="3"/>
-    </row>
-    <row r="138" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK137" s="3"/>
+      <c r="BL137" s="3"/>
+      <c r="BM137" s="3"/>
+      <c r="BN137" s="3"/>
+    </row>
+    <row r="138" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9938,15 +10787,15 @@
       <c r="AR138" s="3"/>
       <c r="AS138" s="3"/>
       <c r="AT138" s="3"/>
-      <c r="AU138" s="2"/>
-      <c r="AV138" s="2"/>
-      <c r="AW138" s="2"/>
-      <c r="AX138" s="2"/>
+      <c r="AU138" s="3"/>
+      <c r="AV138" s="3"/>
+      <c r="AW138" s="3"/>
+      <c r="AX138" s="3"/>
       <c r="AY138" s="2"/>
-      <c r="AZ138" s="3"/>
-      <c r="BA138" s="3"/>
-      <c r="BB138" s="3"/>
-      <c r="BC138" s="3"/>
+      <c r="AZ138" s="2"/>
+      <c r="BA138" s="2"/>
+      <c r="BB138" s="2"/>
+      <c r="BC138" s="2"/>
       <c r="BD138" s="3"/>
       <c r="BE138" s="3"/>
       <c r="BF138" s="3"/>
@@ -9954,8 +10803,12 @@
       <c r="BH138" s="3"/>
       <c r="BI138" s="3"/>
       <c r="BJ138" s="3"/>
-    </row>
-    <row r="139" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK138" s="3"/>
+      <c r="BL138" s="3"/>
+      <c r="BM138" s="3"/>
+      <c r="BN138" s="3"/>
+    </row>
+    <row r="139" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10000,15 +10853,15 @@
       <c r="AR139" s="3"/>
       <c r="AS139" s="3"/>
       <c r="AT139" s="3"/>
-      <c r="AU139" s="2"/>
-      <c r="AV139" s="2"/>
-      <c r="AW139" s="2"/>
-      <c r="AX139" s="2"/>
+      <c r="AU139" s="3"/>
+      <c r="AV139" s="3"/>
+      <c r="AW139" s="3"/>
+      <c r="AX139" s="3"/>
       <c r="AY139" s="2"/>
-      <c r="AZ139" s="3"/>
-      <c r="BA139" s="3"/>
-      <c r="BB139" s="3"/>
-      <c r="BC139" s="3"/>
+      <c r="AZ139" s="2"/>
+      <c r="BA139" s="2"/>
+      <c r="BB139" s="2"/>
+      <c r="BC139" s="2"/>
       <c r="BD139" s="3"/>
       <c r="BE139" s="3"/>
       <c r="BF139" s="3"/>
@@ -10016,8 +10869,12 @@
       <c r="BH139" s="3"/>
       <c r="BI139" s="3"/>
       <c r="BJ139" s="3"/>
-    </row>
-    <row r="140" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK139" s="3"/>
+      <c r="BL139" s="3"/>
+      <c r="BM139" s="3"/>
+      <c r="BN139" s="3"/>
+    </row>
+    <row r="140" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10062,15 +10919,15 @@
       <c r="AR140" s="3"/>
       <c r="AS140" s="3"/>
       <c r="AT140" s="3"/>
-      <c r="AU140" s="2"/>
-      <c r="AV140" s="2"/>
-      <c r="AW140" s="2"/>
-      <c r="AX140" s="2"/>
+      <c r="AU140" s="3"/>
+      <c r="AV140" s="3"/>
+      <c r="AW140" s="3"/>
+      <c r="AX140" s="3"/>
       <c r="AY140" s="2"/>
-      <c r="AZ140" s="3"/>
-      <c r="BA140" s="3"/>
-      <c r="BB140" s="3"/>
-      <c r="BC140" s="3"/>
+      <c r="AZ140" s="2"/>
+      <c r="BA140" s="2"/>
+      <c r="BB140" s="2"/>
+      <c r="BC140" s="2"/>
       <c r="BD140" s="3"/>
       <c r="BE140" s="3"/>
       <c r="BF140" s="3"/>
@@ -10078,8 +10935,12 @@
       <c r="BH140" s="3"/>
       <c r="BI140" s="3"/>
       <c r="BJ140" s="3"/>
-    </row>
-    <row r="141" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK140" s="3"/>
+      <c r="BL140" s="3"/>
+      <c r="BM140" s="3"/>
+      <c r="BN140" s="3"/>
+    </row>
+    <row r="141" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10124,15 +10985,15 @@
       <c r="AR141" s="3"/>
       <c r="AS141" s="3"/>
       <c r="AT141" s="3"/>
-      <c r="AU141" s="2"/>
-      <c r="AV141" s="2"/>
-      <c r="AW141" s="2"/>
-      <c r="AX141" s="2"/>
+      <c r="AU141" s="3"/>
+      <c r="AV141" s="3"/>
+      <c r="AW141" s="3"/>
+      <c r="AX141" s="3"/>
       <c r="AY141" s="2"/>
-      <c r="AZ141" s="3"/>
-      <c r="BA141" s="3"/>
-      <c r="BB141" s="3"/>
-      <c r="BC141" s="3"/>
+      <c r="AZ141" s="2"/>
+      <c r="BA141" s="2"/>
+      <c r="BB141" s="2"/>
+      <c r="BC141" s="2"/>
       <c r="BD141" s="3"/>
       <c r="BE141" s="3"/>
       <c r="BF141" s="3"/>
@@ -10140,8 +11001,12 @@
       <c r="BH141" s="3"/>
       <c r="BI141" s="3"/>
       <c r="BJ141" s="3"/>
-    </row>
-    <row r="142" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK141" s="3"/>
+      <c r="BL141" s="3"/>
+      <c r="BM141" s="3"/>
+      <c r="BN141" s="3"/>
+    </row>
+    <row r="142" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -10202,8 +11067,12 @@
       <c r="BH142" s="3"/>
       <c r="BI142" s="3"/>
       <c r="BJ142" s="3"/>
-    </row>
-    <row r="143" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK142" s="3"/>
+      <c r="BL142" s="3"/>
+      <c r="BM142" s="3"/>
+      <c r="BN142" s="3"/>
+    </row>
+    <row r="143" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10264,8 +11133,12 @@
       <c r="BH143" s="3"/>
       <c r="BI143" s="3"/>
       <c r="BJ143" s="3"/>
-    </row>
-    <row r="144" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK143" s="3"/>
+      <c r="BL143" s="3"/>
+      <c r="BM143" s="3"/>
+      <c r="BN143" s="3"/>
+    </row>
+    <row r="144" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10326,8 +11199,12 @@
       <c r="BH144" s="3"/>
       <c r="BI144" s="3"/>
       <c r="BJ144" s="3"/>
-    </row>
-    <row r="145" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK144" s="3"/>
+      <c r="BL144" s="3"/>
+      <c r="BM144" s="3"/>
+      <c r="BN144" s="3"/>
+    </row>
+    <row r="145" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10388,8 +11265,12 @@
       <c r="BH145" s="3"/>
       <c r="BI145" s="3"/>
       <c r="BJ145" s="3"/>
-    </row>
-    <row r="146" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK145" s="3"/>
+      <c r="BL145" s="3"/>
+      <c r="BM145" s="3"/>
+      <c r="BN145" s="3"/>
+    </row>
+    <row r="146" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10450,8 +11331,12 @@
       <c r="BH146" s="3"/>
       <c r="BI146" s="3"/>
       <c r="BJ146" s="3"/>
-    </row>
-    <row r="147" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK146" s="3"/>
+      <c r="BL146" s="3"/>
+      <c r="BM146" s="3"/>
+      <c r="BN146" s="3"/>
+    </row>
+    <row r="147" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10512,8 +11397,12 @@
       <c r="BH147" s="3"/>
       <c r="BI147" s="3"/>
       <c r="BJ147" s="3"/>
-    </row>
-    <row r="148" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK147" s="3"/>
+      <c r="BL147" s="3"/>
+      <c r="BM147" s="3"/>
+      <c r="BN147" s="3"/>
+    </row>
+    <row r="148" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10574,8 +11463,12 @@
       <c r="BH148" s="3"/>
       <c r="BI148" s="3"/>
       <c r="BJ148" s="3"/>
-    </row>
-    <row r="149" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK148" s="3"/>
+      <c r="BL148" s="3"/>
+      <c r="BM148" s="3"/>
+      <c r="BN148" s="3"/>
+    </row>
+    <row r="149" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10636,8 +11529,12 @@
       <c r="BH149" s="3"/>
       <c r="BI149" s="3"/>
       <c r="BJ149" s="3"/>
-    </row>
-    <row r="150" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK149" s="3"/>
+      <c r="BL149" s="3"/>
+      <c r="BM149" s="3"/>
+      <c r="BN149" s="3"/>
+    </row>
+    <row r="150" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10698,8 +11595,12 @@
       <c r="BH150" s="3"/>
       <c r="BI150" s="3"/>
       <c r="BJ150" s="3"/>
-    </row>
-    <row r="151" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK150" s="3"/>
+      <c r="BL150" s="3"/>
+      <c r="BM150" s="3"/>
+      <c r="BN150" s="3"/>
+    </row>
+    <row r="151" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10760,8 +11661,12 @@
       <c r="BH151" s="3"/>
       <c r="BI151" s="3"/>
       <c r="BJ151" s="3"/>
-    </row>
-    <row r="152" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK151" s="3"/>
+      <c r="BL151" s="3"/>
+      <c r="BM151" s="3"/>
+      <c r="BN151" s="3"/>
+    </row>
+    <row r="152" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10822,8 +11727,12 @@
       <c r="BH152" s="3"/>
       <c r="BI152" s="3"/>
       <c r="BJ152" s="3"/>
-    </row>
-    <row r="153" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK152" s="3"/>
+      <c r="BL152" s="3"/>
+      <c r="BM152" s="3"/>
+      <c r="BN152" s="3"/>
+    </row>
+    <row r="153" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10884,8 +11793,12 @@
       <c r="BH153" s="3"/>
       <c r="BI153" s="3"/>
       <c r="BJ153" s="3"/>
-    </row>
-    <row r="154" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK153" s="3"/>
+      <c r="BL153" s="3"/>
+      <c r="BM153" s="3"/>
+      <c r="BN153" s="3"/>
+    </row>
+    <row r="154" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10946,8 +11859,12 @@
       <c r="BH154" s="3"/>
       <c r="BI154" s="3"/>
       <c r="BJ154" s="3"/>
-    </row>
-    <row r="155" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK154" s="3"/>
+      <c r="BL154" s="3"/>
+      <c r="BM154" s="3"/>
+      <c r="BN154" s="3"/>
+    </row>
+    <row r="155" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11008,8 +11925,12 @@
       <c r="BH155" s="3"/>
       <c r="BI155" s="3"/>
       <c r="BJ155" s="3"/>
-    </row>
-    <row r="156" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK155" s="3"/>
+      <c r="BL155" s="3"/>
+      <c r="BM155" s="3"/>
+      <c r="BN155" s="3"/>
+    </row>
+    <row r="156" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11070,8 +11991,12 @@
       <c r="BH156" s="3"/>
       <c r="BI156" s="3"/>
       <c r="BJ156" s="3"/>
-    </row>
-    <row r="157" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK156" s="3"/>
+      <c r="BL156" s="3"/>
+      <c r="BM156" s="3"/>
+      <c r="BN156" s="3"/>
+    </row>
+    <row r="157" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -11132,8 +12057,12 @@
       <c r="BH157" s="3"/>
       <c r="BI157" s="3"/>
       <c r="BJ157" s="3"/>
-    </row>
-    <row r="158" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK157" s="3"/>
+      <c r="BL157" s="3"/>
+      <c r="BM157" s="3"/>
+      <c r="BN157" s="3"/>
+    </row>
+    <row r="158" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -11194,8 +12123,12 @@
       <c r="BH158" s="3"/>
       <c r="BI158" s="3"/>
       <c r="BJ158" s="3"/>
-    </row>
-    <row r="159" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK158" s="3"/>
+      <c r="BL158" s="3"/>
+      <c r="BM158" s="3"/>
+      <c r="BN158" s="3"/>
+    </row>
+    <row r="159" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11256,8 +12189,12 @@
       <c r="BH159" s="3"/>
       <c r="BI159" s="3"/>
       <c r="BJ159" s="3"/>
-    </row>
-    <row r="160" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK159" s="3"/>
+      <c r="BL159" s="3"/>
+      <c r="BM159" s="3"/>
+      <c r="BN159" s="3"/>
+    </row>
+    <row r="160" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11318,8 +12255,12 @@
       <c r="BH160" s="3"/>
       <c r="BI160" s="3"/>
       <c r="BJ160" s="3"/>
-    </row>
-    <row r="161" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK160" s="3"/>
+      <c r="BL160" s="3"/>
+      <c r="BM160" s="3"/>
+      <c r="BN160" s="3"/>
+    </row>
+    <row r="161" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11380,8 +12321,12 @@
       <c r="BH161" s="3"/>
       <c r="BI161" s="3"/>
       <c r="BJ161" s="3"/>
-    </row>
-    <row r="162" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK161" s="3"/>
+      <c r="BL161" s="3"/>
+      <c r="BM161" s="3"/>
+      <c r="BN161" s="3"/>
+    </row>
+    <row r="162" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11442,8 +12387,12 @@
       <c r="BH162" s="3"/>
       <c r="BI162" s="3"/>
       <c r="BJ162" s="3"/>
-    </row>
-    <row r="163" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK162" s="3"/>
+      <c r="BL162" s="3"/>
+      <c r="BM162" s="3"/>
+      <c r="BN162" s="3"/>
+    </row>
+    <row r="163" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11504,8 +12453,12 @@
       <c r="BH163" s="3"/>
       <c r="BI163" s="3"/>
       <c r="BJ163" s="3"/>
-    </row>
-    <row r="164" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK163" s="3"/>
+      <c r="BL163" s="3"/>
+      <c r="BM163" s="3"/>
+      <c r="BN163" s="3"/>
+    </row>
+    <row r="164" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11566,8 +12519,12 @@
       <c r="BH164" s="3"/>
       <c r="BI164" s="3"/>
       <c r="BJ164" s="3"/>
-    </row>
-    <row r="165" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK164" s="3"/>
+      <c r="BL164" s="3"/>
+      <c r="BM164" s="3"/>
+      <c r="BN164" s="3"/>
+    </row>
+    <row r="165" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11628,8 +12585,12 @@
       <c r="BH165" s="3"/>
       <c r="BI165" s="3"/>
       <c r="BJ165" s="3"/>
-    </row>
-    <row r="166" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK165" s="3"/>
+      <c r="BL165" s="3"/>
+      <c r="BM165" s="3"/>
+      <c r="BN165" s="3"/>
+    </row>
+    <row r="166" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11690,8 +12651,12 @@
       <c r="BH166" s="3"/>
       <c r="BI166" s="3"/>
       <c r="BJ166" s="3"/>
-    </row>
-    <row r="167" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK166" s="3"/>
+      <c r="BL166" s="3"/>
+      <c r="BM166" s="3"/>
+      <c r="BN166" s="3"/>
+    </row>
+    <row r="167" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -11752,8 +12717,12 @@
       <c r="BH167" s="3"/>
       <c r="BI167" s="3"/>
       <c r="BJ167" s="3"/>
-    </row>
-    <row r="168" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK167" s="3"/>
+      <c r="BL167" s="3"/>
+      <c r="BM167" s="3"/>
+      <c r="BN167" s="3"/>
+    </row>
+    <row r="168" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -11814,8 +12783,12 @@
       <c r="BH168" s="3"/>
       <c r="BI168" s="3"/>
       <c r="BJ168" s="3"/>
-    </row>
-    <row r="169" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK168" s="3"/>
+      <c r="BL168" s="3"/>
+      <c r="BM168" s="3"/>
+      <c r="BN168" s="3"/>
+    </row>
+    <row r="169" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -11876,8 +12849,12 @@
       <c r="BH169" s="3"/>
       <c r="BI169" s="3"/>
       <c r="BJ169" s="3"/>
-    </row>
-    <row r="170" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK169" s="3"/>
+      <c r="BL169" s="3"/>
+      <c r="BM169" s="3"/>
+      <c r="BN169" s="3"/>
+    </row>
+    <row r="170" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -11938,8 +12915,12 @@
       <c r="BH170" s="3"/>
       <c r="BI170" s="3"/>
       <c r="BJ170" s="3"/>
-    </row>
-    <row r="171" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK170" s="3"/>
+      <c r="BL170" s="3"/>
+      <c r="BM170" s="3"/>
+      <c r="BN170" s="3"/>
+    </row>
+    <row r="171" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12000,8 +12981,12 @@
       <c r="BH171" s="3"/>
       <c r="BI171" s="3"/>
       <c r="BJ171" s="3"/>
-    </row>
-    <row r="172" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK171" s="3"/>
+      <c r="BL171" s="3"/>
+      <c r="BM171" s="3"/>
+      <c r="BN171" s="3"/>
+    </row>
+    <row r="172" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -12062,8 +13047,12 @@
       <c r="BH172" s="3"/>
       <c r="BI172" s="3"/>
       <c r="BJ172" s="3"/>
-    </row>
-    <row r="173" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK172" s="3"/>
+      <c r="BL172" s="3"/>
+      <c r="BM172" s="3"/>
+      <c r="BN172" s="3"/>
+    </row>
+    <row r="173" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -12124,8 +13113,12 @@
       <c r="BH173" s="3"/>
       <c r="BI173" s="3"/>
       <c r="BJ173" s="3"/>
-    </row>
-    <row r="174" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK173" s="3"/>
+      <c r="BL173" s="3"/>
+      <c r="BM173" s="3"/>
+      <c r="BN173" s="3"/>
+    </row>
+    <row r="174" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -12186,8 +13179,12 @@
       <c r="BH174" s="3"/>
       <c r="BI174" s="3"/>
       <c r="BJ174" s="3"/>
-    </row>
-    <row r="175" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK174" s="3"/>
+      <c r="BL174" s="3"/>
+      <c r="BM174" s="3"/>
+      <c r="BN174" s="3"/>
+    </row>
+    <row r="175" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12248,8 +13245,12 @@
       <c r="BH175" s="3"/>
       <c r="BI175" s="3"/>
       <c r="BJ175" s="3"/>
-    </row>
-    <row r="176" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK175" s="3"/>
+      <c r="BL175" s="3"/>
+      <c r="BM175" s="3"/>
+      <c r="BN175" s="3"/>
+    </row>
+    <row r="176" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -12310,8 +13311,12 @@
       <c r="BH176" s="3"/>
       <c r="BI176" s="3"/>
       <c r="BJ176" s="3"/>
-    </row>
-    <row r="177" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK176" s="3"/>
+      <c r="BL176" s="3"/>
+      <c r="BM176" s="3"/>
+      <c r="BN176" s="3"/>
+    </row>
+    <row r="177" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -12372,8 +13377,12 @@
       <c r="BH177" s="3"/>
       <c r="BI177" s="3"/>
       <c r="BJ177" s="3"/>
-    </row>
-    <row r="178" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK177" s="3"/>
+      <c r="BL177" s="3"/>
+      <c r="BM177" s="3"/>
+      <c r="BN177" s="3"/>
+    </row>
+    <row r="178" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12434,8 +13443,12 @@
       <c r="BH178" s="3"/>
       <c r="BI178" s="3"/>
       <c r="BJ178" s="3"/>
-    </row>
-    <row r="179" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK178" s="3"/>
+      <c r="BL178" s="3"/>
+      <c r="BM178" s="3"/>
+      <c r="BN178" s="3"/>
+    </row>
+    <row r="179" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -12496,8 +13509,12 @@
       <c r="BH179" s="3"/>
       <c r="BI179" s="3"/>
       <c r="BJ179" s="3"/>
-    </row>
-    <row r="180" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK179" s="3"/>
+      <c r="BL179" s="3"/>
+      <c r="BM179" s="3"/>
+      <c r="BN179" s="3"/>
+    </row>
+    <row r="180" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -12558,8 +13575,12 @@
       <c r="BH180" s="3"/>
       <c r="BI180" s="3"/>
       <c r="BJ180" s="3"/>
-    </row>
-    <row r="181" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK180" s="3"/>
+      <c r="BL180" s="3"/>
+      <c r="BM180" s="3"/>
+      <c r="BN180" s="3"/>
+    </row>
+    <row r="181" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -12620,8 +13641,12 @@
       <c r="BH181" s="3"/>
       <c r="BI181" s="3"/>
       <c r="BJ181" s="3"/>
-    </row>
-    <row r="182" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK181" s="3"/>
+      <c r="BL181" s="3"/>
+      <c r="BM181" s="3"/>
+      <c r="BN181" s="3"/>
+    </row>
+    <row r="182" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -12682,8 +13707,12 @@
       <c r="BH182" s="3"/>
       <c r="BI182" s="3"/>
       <c r="BJ182" s="3"/>
-    </row>
-    <row r="183" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK182" s="3"/>
+      <c r="BL182" s="3"/>
+      <c r="BM182" s="3"/>
+      <c r="BN182" s="3"/>
+    </row>
+    <row r="183" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -12744,8 +13773,12 @@
       <c r="BH183" s="3"/>
       <c r="BI183" s="3"/>
       <c r="BJ183" s="3"/>
-    </row>
-    <row r="184" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK183" s="3"/>
+      <c r="BL183" s="3"/>
+      <c r="BM183" s="3"/>
+      <c r="BN183" s="3"/>
+    </row>
+    <row r="184" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -12806,8 +13839,12 @@
       <c r="BH184" s="3"/>
       <c r="BI184" s="3"/>
       <c r="BJ184" s="3"/>
-    </row>
-    <row r="185" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK184" s="3"/>
+      <c r="BL184" s="3"/>
+      <c r="BM184" s="3"/>
+      <c r="BN184" s="3"/>
+    </row>
+    <row r="185" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -12868,8 +13905,12 @@
       <c r="BH185" s="3"/>
       <c r="BI185" s="3"/>
       <c r="BJ185" s="3"/>
-    </row>
-    <row r="186" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK185" s="3"/>
+      <c r="BL185" s="3"/>
+      <c r="BM185" s="3"/>
+      <c r="BN185" s="3"/>
+    </row>
+    <row r="186" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -12930,8 +13971,12 @@
       <c r="BH186" s="3"/>
       <c r="BI186" s="3"/>
       <c r="BJ186" s="3"/>
-    </row>
-    <row r="187" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK186" s="3"/>
+      <c r="BL186" s="3"/>
+      <c r="BM186" s="3"/>
+      <c r="BN186" s="3"/>
+    </row>
+    <row r="187" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -12992,8 +14037,12 @@
       <c r="BH187" s="3"/>
       <c r="BI187" s="3"/>
       <c r="BJ187" s="3"/>
-    </row>
-    <row r="188" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK187" s="3"/>
+      <c r="BL187" s="3"/>
+      <c r="BM187" s="3"/>
+      <c r="BN187" s="3"/>
+    </row>
+    <row r="188" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -13054,8 +14103,12 @@
       <c r="BH188" s="3"/>
       <c r="BI188" s="3"/>
       <c r="BJ188" s="3"/>
-    </row>
-    <row r="189" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK188" s="3"/>
+      <c r="BL188" s="3"/>
+      <c r="BM188" s="3"/>
+      <c r="BN188" s="3"/>
+    </row>
+    <row r="189" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13116,8 +14169,12 @@
       <c r="BH189" s="3"/>
       <c r="BI189" s="3"/>
       <c r="BJ189" s="3"/>
-    </row>
-    <row r="190" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK189" s="3"/>
+      <c r="BL189" s="3"/>
+      <c r="BM189" s="3"/>
+      <c r="BN189" s="3"/>
+    </row>
+    <row r="190" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -13178,8 +14235,12 @@
       <c r="BH190" s="3"/>
       <c r="BI190" s="3"/>
       <c r="BJ190" s="3"/>
-    </row>
-    <row r="191" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK190" s="3"/>
+      <c r="BL190" s="3"/>
+      <c r="BM190" s="3"/>
+      <c r="BN190" s="3"/>
+    </row>
+    <row r="191" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -13240,8 +14301,12 @@
       <c r="BH191" s="3"/>
       <c r="BI191" s="3"/>
       <c r="BJ191" s="3"/>
-    </row>
-    <row r="192" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK191" s="3"/>
+      <c r="BL191" s="3"/>
+      <c r="BM191" s="3"/>
+      <c r="BN191" s="3"/>
+    </row>
+    <row r="192" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -13302,8 +14367,12 @@
       <c r="BH192" s="3"/>
       <c r="BI192" s="3"/>
       <c r="BJ192" s="3"/>
-    </row>
-    <row r="193" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK192" s="3"/>
+      <c r="BL192" s="3"/>
+      <c r="BM192" s="3"/>
+      <c r="BN192" s="3"/>
+    </row>
+    <row r="193" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -13364,8 +14433,12 @@
       <c r="BH193" s="3"/>
       <c r="BI193" s="3"/>
       <c r="BJ193" s="3"/>
-    </row>
-    <row r="194" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK193" s="3"/>
+      <c r="BL193" s="3"/>
+      <c r="BM193" s="3"/>
+      <c r="BN193" s="3"/>
+    </row>
+    <row r="194" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -13426,8 +14499,12 @@
       <c r="BH194" s="3"/>
       <c r="BI194" s="3"/>
       <c r="BJ194" s="3"/>
-    </row>
-    <row r="195" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK194" s="3"/>
+      <c r="BL194" s="3"/>
+      <c r="BM194" s="3"/>
+      <c r="BN194" s="3"/>
+    </row>
+    <row r="195" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -13488,8 +14565,12 @@
       <c r="BH195" s="3"/>
       <c r="BI195" s="3"/>
       <c r="BJ195" s="3"/>
-    </row>
-    <row r="196" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK195" s="3"/>
+      <c r="BL195" s="3"/>
+      <c r="BM195" s="3"/>
+      <c r="BN195" s="3"/>
+    </row>
+    <row r="196" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -13550,8 +14631,12 @@
       <c r="BH196" s="3"/>
       <c r="BI196" s="3"/>
       <c r="BJ196" s="3"/>
-    </row>
-    <row r="197" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK196" s="3"/>
+      <c r="BL196" s="3"/>
+      <c r="BM196" s="3"/>
+      <c r="BN196" s="3"/>
+    </row>
+    <row r="197" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -13612,8 +14697,12 @@
       <c r="BH197" s="3"/>
       <c r="BI197" s="3"/>
       <c r="BJ197" s="3"/>
-    </row>
-    <row r="198" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK197" s="3"/>
+      <c r="BL197" s="3"/>
+      <c r="BM197" s="3"/>
+      <c r="BN197" s="3"/>
+    </row>
+    <row r="198" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -13674,8 +14763,12 @@
       <c r="BH198" s="3"/>
       <c r="BI198" s="3"/>
       <c r="BJ198" s="3"/>
-    </row>
-    <row r="199" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK198" s="3"/>
+      <c r="BL198" s="3"/>
+      <c r="BM198" s="3"/>
+      <c r="BN198" s="3"/>
+    </row>
+    <row r="199" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -13736,8 +14829,12 @@
       <c r="BH199" s="3"/>
       <c r="BI199" s="3"/>
       <c r="BJ199" s="3"/>
-    </row>
-    <row r="200" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK199" s="3"/>
+      <c r="BL199" s="3"/>
+      <c r="BM199" s="3"/>
+      <c r="BN199" s="3"/>
+    </row>
+    <row r="200" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -13798,8 +14895,12 @@
       <c r="BH200" s="3"/>
       <c r="BI200" s="3"/>
       <c r="BJ200" s="3"/>
-    </row>
-    <row r="201" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK200" s="3"/>
+      <c r="BL200" s="3"/>
+      <c r="BM200" s="3"/>
+      <c r="BN200" s="3"/>
+    </row>
+    <row r="201" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -13860,8 +14961,12 @@
       <c r="BH201" s="3"/>
       <c r="BI201" s="3"/>
       <c r="BJ201" s="3"/>
-    </row>
-    <row r="202" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK201" s="3"/>
+      <c r="BL201" s="3"/>
+      <c r="BM201" s="3"/>
+      <c r="BN201" s="3"/>
+    </row>
+    <row r="202" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -13922,8 +15027,12 @@
       <c r="BH202" s="3"/>
       <c r="BI202" s="3"/>
       <c r="BJ202" s="3"/>
-    </row>
-    <row r="203" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK202" s="3"/>
+      <c r="BL202" s="3"/>
+      <c r="BM202" s="3"/>
+      <c r="BN202" s="3"/>
+    </row>
+    <row r="203" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -13984,8 +15093,12 @@
       <c r="BH203" s="3"/>
       <c r="BI203" s="3"/>
       <c r="BJ203" s="3"/>
-    </row>
-    <row r="204" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK203" s="3"/>
+      <c r="BL203" s="3"/>
+      <c r="BM203" s="3"/>
+      <c r="BN203" s="3"/>
+    </row>
+    <row r="204" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -14046,8 +15159,12 @@
       <c r="BH204" s="3"/>
       <c r="BI204" s="3"/>
       <c r="BJ204" s="3"/>
-    </row>
-    <row r="205" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK204" s="3"/>
+      <c r="BL204" s="3"/>
+      <c r="BM204" s="3"/>
+      <c r="BN204" s="3"/>
+    </row>
+    <row r="205" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -14108,8 +15225,12 @@
       <c r="BH205" s="3"/>
       <c r="BI205" s="3"/>
       <c r="BJ205" s="3"/>
-    </row>
-    <row r="206" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK205" s="3"/>
+      <c r="BL205" s="3"/>
+      <c r="BM205" s="3"/>
+      <c r="BN205" s="3"/>
+    </row>
+    <row r="206" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -14170,8 +15291,12 @@
       <c r="BH206" s="3"/>
       <c r="BI206" s="3"/>
       <c r="BJ206" s="3"/>
-    </row>
-    <row r="207" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK206" s="3"/>
+      <c r="BL206" s="3"/>
+      <c r="BM206" s="3"/>
+      <c r="BN206" s="3"/>
+    </row>
+    <row r="207" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -14232,8 +15357,12 @@
       <c r="BH207" s="3"/>
       <c r="BI207" s="3"/>
       <c r="BJ207" s="3"/>
-    </row>
-    <row r="208" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK207" s="3"/>
+      <c r="BL207" s="3"/>
+      <c r="BM207" s="3"/>
+      <c r="BN207" s="3"/>
+    </row>
+    <row r="208" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -14294,8 +15423,12 @@
       <c r="BH208" s="3"/>
       <c r="BI208" s="3"/>
       <c r="BJ208" s="3"/>
-    </row>
-    <row r="209" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK208" s="3"/>
+      <c r="BL208" s="3"/>
+      <c r="BM208" s="3"/>
+      <c r="BN208" s="3"/>
+    </row>
+    <row r="209" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -14356,8 +15489,12 @@
       <c r="BH209" s="3"/>
       <c r="BI209" s="3"/>
       <c r="BJ209" s="3"/>
-    </row>
-    <row r="210" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK209" s="3"/>
+      <c r="BL209" s="3"/>
+      <c r="BM209" s="3"/>
+      <c r="BN209" s="3"/>
+    </row>
+    <row r="210" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -14418,8 +15555,12 @@
       <c r="BH210" s="3"/>
       <c r="BI210" s="3"/>
       <c r="BJ210" s="3"/>
-    </row>
-    <row r="211" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK210" s="3"/>
+      <c r="BL210" s="3"/>
+      <c r="BM210" s="3"/>
+      <c r="BN210" s="3"/>
+    </row>
+    <row r="211" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -14480,8 +15621,12 @@
       <c r="BH211" s="3"/>
       <c r="BI211" s="3"/>
       <c r="BJ211" s="3"/>
-    </row>
-    <row r="212" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK211" s="3"/>
+      <c r="BL211" s="3"/>
+      <c r="BM211" s="3"/>
+      <c r="BN211" s="3"/>
+    </row>
+    <row r="212" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -14542,8 +15687,12 @@
       <c r="BH212" s="3"/>
       <c r="BI212" s="3"/>
       <c r="BJ212" s="3"/>
-    </row>
-    <row r="213" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK212" s="3"/>
+      <c r="BL212" s="3"/>
+      <c r="BM212" s="3"/>
+      <c r="BN212" s="3"/>
+    </row>
+    <row r="213" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -14604,8 +15753,12 @@
       <c r="BH213" s="3"/>
       <c r="BI213" s="3"/>
       <c r="BJ213" s="3"/>
-    </row>
-    <row r="214" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK213" s="3"/>
+      <c r="BL213" s="3"/>
+      <c r="BM213" s="3"/>
+      <c r="BN213" s="3"/>
+    </row>
+    <row r="214" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -14666,8 +15819,12 @@
       <c r="BH214" s="3"/>
       <c r="BI214" s="3"/>
       <c r="BJ214" s="3"/>
-    </row>
-    <row r="215" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK214" s="3"/>
+      <c r="BL214" s="3"/>
+      <c r="BM214" s="3"/>
+      <c r="BN214" s="3"/>
+    </row>
+    <row r="215" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -14728,8 +15885,12 @@
       <c r="BH215" s="3"/>
       <c r="BI215" s="3"/>
       <c r="BJ215" s="3"/>
-    </row>
-    <row r="216" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK215" s="3"/>
+      <c r="BL215" s="3"/>
+      <c r="BM215" s="3"/>
+      <c r="BN215" s="3"/>
+    </row>
+    <row r="216" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -14790,8 +15951,12 @@
       <c r="BH216" s="3"/>
       <c r="BI216" s="3"/>
       <c r="BJ216" s="3"/>
-    </row>
-    <row r="217" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK216" s="3"/>
+      <c r="BL216" s="3"/>
+      <c r="BM216" s="3"/>
+      <c r="BN216" s="3"/>
+    </row>
+    <row r="217" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -14852,8 +16017,12 @@
       <c r="BH217" s="3"/>
       <c r="BI217" s="3"/>
       <c r="BJ217" s="3"/>
-    </row>
-    <row r="218" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK217" s="3"/>
+      <c r="BL217" s="3"/>
+      <c r="BM217" s="3"/>
+      <c r="BN217" s="3"/>
+    </row>
+    <row r="218" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -14914,8 +16083,12 @@
       <c r="BH218" s="3"/>
       <c r="BI218" s="3"/>
       <c r="BJ218" s="3"/>
-    </row>
-    <row r="219" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK218" s="3"/>
+      <c r="BL218" s="3"/>
+      <c r="BM218" s="3"/>
+      <c r="BN218" s="3"/>
+    </row>
+    <row r="219" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -14976,8 +16149,12 @@
       <c r="BH219" s="3"/>
       <c r="BI219" s="3"/>
       <c r="BJ219" s="3"/>
-    </row>
-    <row r="220" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK219" s="3"/>
+      <c r="BL219" s="3"/>
+      <c r="BM219" s="3"/>
+      <c r="BN219" s="3"/>
+    </row>
+    <row r="220" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -15038,8 +16215,12 @@
       <c r="BH220" s="3"/>
       <c r="BI220" s="3"/>
       <c r="BJ220" s="3"/>
-    </row>
-    <row r="221" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK220" s="3"/>
+      <c r="BL220" s="3"/>
+      <c r="BM220" s="3"/>
+      <c r="BN220" s="3"/>
+    </row>
+    <row r="221" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -15100,8 +16281,12 @@
       <c r="BH221" s="3"/>
       <c r="BI221" s="3"/>
       <c r="BJ221" s="3"/>
-    </row>
-    <row r="222" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK221" s="3"/>
+      <c r="BL221" s="3"/>
+      <c r="BM221" s="3"/>
+      <c r="BN221" s="3"/>
+    </row>
+    <row r="222" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -15162,8 +16347,12 @@
       <c r="BH222" s="3"/>
       <c r="BI222" s="3"/>
       <c r="BJ222" s="3"/>
-    </row>
-    <row r="223" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK222" s="3"/>
+      <c r="BL222" s="3"/>
+      <c r="BM222" s="3"/>
+      <c r="BN222" s="3"/>
+    </row>
+    <row r="223" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -15224,8 +16413,12 @@
       <c r="BH223" s="3"/>
       <c r="BI223" s="3"/>
       <c r="BJ223" s="3"/>
-    </row>
-    <row r="224" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK223" s="3"/>
+      <c r="BL223" s="3"/>
+      <c r="BM223" s="3"/>
+      <c r="BN223" s="3"/>
+    </row>
+    <row r="224" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -15286,8 +16479,12 @@
       <c r="BH224" s="3"/>
       <c r="BI224" s="3"/>
       <c r="BJ224" s="3"/>
-    </row>
-    <row r="225" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK224" s="3"/>
+      <c r="BL224" s="3"/>
+      <c r="BM224" s="3"/>
+      <c r="BN224" s="3"/>
+    </row>
+    <row r="225" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -15348,8 +16545,12 @@
       <c r="BH225" s="3"/>
       <c r="BI225" s="3"/>
       <c r="BJ225" s="3"/>
-    </row>
-    <row r="226" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK225" s="3"/>
+      <c r="BL225" s="3"/>
+      <c r="BM225" s="3"/>
+      <c r="BN225" s="3"/>
+    </row>
+    <row r="226" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -15410,8 +16611,12 @@
       <c r="BH226" s="3"/>
       <c r="BI226" s="3"/>
       <c r="BJ226" s="3"/>
-    </row>
-    <row r="227" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK226" s="3"/>
+      <c r="BL226" s="3"/>
+      <c r="BM226" s="3"/>
+      <c r="BN226" s="3"/>
+    </row>
+    <row r="227" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -15472,8 +16677,12 @@
       <c r="BH227" s="3"/>
       <c r="BI227" s="3"/>
       <c r="BJ227" s="3"/>
-    </row>
-    <row r="228" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK227" s="3"/>
+      <c r="BL227" s="3"/>
+      <c r="BM227" s="3"/>
+      <c r="BN227" s="3"/>
+    </row>
+    <row r="228" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -15534,8 +16743,12 @@
       <c r="BH228" s="3"/>
       <c r="BI228" s="3"/>
       <c r="BJ228" s="3"/>
-    </row>
-    <row r="229" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK228" s="3"/>
+      <c r="BL228" s="3"/>
+      <c r="BM228" s="3"/>
+      <c r="BN228" s="3"/>
+    </row>
+    <row r="229" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -15596,8 +16809,12 @@
       <c r="BH229" s="3"/>
       <c r="BI229" s="3"/>
       <c r="BJ229" s="3"/>
-    </row>
-    <row r="230" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK229" s="3"/>
+      <c r="BL229" s="3"/>
+      <c r="BM229" s="3"/>
+      <c r="BN229" s="3"/>
+    </row>
+    <row r="230" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -15658,8 +16875,12 @@
       <c r="BH230" s="3"/>
       <c r="BI230" s="3"/>
       <c r="BJ230" s="3"/>
-    </row>
-    <row r="231" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK230" s="3"/>
+      <c r="BL230" s="3"/>
+      <c r="BM230" s="3"/>
+      <c r="BN230" s="3"/>
+    </row>
+    <row r="231" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -15720,8 +16941,12 @@
       <c r="BH231" s="3"/>
       <c r="BI231" s="3"/>
       <c r="BJ231" s="3"/>
-    </row>
-    <row r="232" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK231" s="3"/>
+      <c r="BL231" s="3"/>
+      <c r="BM231" s="3"/>
+      <c r="BN231" s="3"/>
+    </row>
+    <row r="232" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -15782,8 +17007,12 @@
       <c r="BH232" s="3"/>
       <c r="BI232" s="3"/>
       <c r="BJ232" s="3"/>
-    </row>
-    <row r="233" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK232" s="3"/>
+      <c r="BL232" s="3"/>
+      <c r="BM232" s="3"/>
+      <c r="BN232" s="3"/>
+    </row>
+    <row r="233" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -15844,8 +17073,12 @@
       <c r="BH233" s="3"/>
       <c r="BI233" s="3"/>
       <c r="BJ233" s="3"/>
-    </row>
-    <row r="234" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK233" s="3"/>
+      <c r="BL233" s="3"/>
+      <c r="BM233" s="3"/>
+      <c r="BN233" s="3"/>
+    </row>
+    <row r="234" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -15906,8 +17139,12 @@
       <c r="BH234" s="3"/>
       <c r="BI234" s="3"/>
       <c r="BJ234" s="3"/>
-    </row>
-    <row r="235" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK234" s="3"/>
+      <c r="BL234" s="3"/>
+      <c r="BM234" s="3"/>
+      <c r="BN234" s="3"/>
+    </row>
+    <row r="235" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -15968,8 +17205,12 @@
       <c r="BH235" s="3"/>
       <c r="BI235" s="3"/>
       <c r="BJ235" s="3"/>
-    </row>
-    <row r="236" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK235" s="3"/>
+      <c r="BL235" s="3"/>
+      <c r="BM235" s="3"/>
+      <c r="BN235" s="3"/>
+    </row>
+    <row r="236" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -16030,8 +17271,12 @@
       <c r="BH236" s="3"/>
       <c r="BI236" s="3"/>
       <c r="BJ236" s="3"/>
-    </row>
-    <row r="237" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK236" s="3"/>
+      <c r="BL236" s="3"/>
+      <c r="BM236" s="3"/>
+      <c r="BN236" s="3"/>
+    </row>
+    <row r="237" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -16092,8 +17337,12 @@
       <c r="BH237" s="3"/>
       <c r="BI237" s="3"/>
       <c r="BJ237" s="3"/>
-    </row>
-    <row r="238" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK237" s="3"/>
+      <c r="BL237" s="3"/>
+      <c r="BM237" s="3"/>
+      <c r="BN237" s="3"/>
+    </row>
+    <row r="238" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -16154,8 +17403,12 @@
       <c r="BH238" s="3"/>
       <c r="BI238" s="3"/>
       <c r="BJ238" s="3"/>
-    </row>
-    <row r="239" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK238" s="3"/>
+      <c r="BL238" s="3"/>
+      <c r="BM238" s="3"/>
+      <c r="BN238" s="3"/>
+    </row>
+    <row r="239" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -16216,8 +17469,12 @@
       <c r="BH239" s="3"/>
       <c r="BI239" s="3"/>
       <c r="BJ239" s="3"/>
-    </row>
-    <row r="240" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK239" s="3"/>
+      <c r="BL239" s="3"/>
+      <c r="BM239" s="3"/>
+      <c r="BN239" s="3"/>
+    </row>
+    <row r="240" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -16278,8 +17535,12 @@
       <c r="BH240" s="3"/>
       <c r="BI240" s="3"/>
       <c r="BJ240" s="3"/>
-    </row>
-    <row r="241" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK240" s="3"/>
+      <c r="BL240" s="3"/>
+      <c r="BM240" s="3"/>
+      <c r="BN240" s="3"/>
+    </row>
+    <row r="241" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -16340,8 +17601,12 @@
       <c r="BH241" s="3"/>
       <c r="BI241" s="3"/>
       <c r="BJ241" s="3"/>
-    </row>
-    <row r="242" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK241" s="3"/>
+      <c r="BL241" s="3"/>
+      <c r="BM241" s="3"/>
+      <c r="BN241" s="3"/>
+    </row>
+    <row r="242" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -16402,8 +17667,12 @@
       <c r="BH242" s="3"/>
       <c r="BI242" s="3"/>
       <c r="BJ242" s="3"/>
-    </row>
-    <row r="243" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK242" s="3"/>
+      <c r="BL242" s="3"/>
+      <c r="BM242" s="3"/>
+      <c r="BN242" s="3"/>
+    </row>
+    <row r="243" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -16464,8 +17733,12 @@
       <c r="BH243" s="3"/>
       <c r="BI243" s="3"/>
       <c r="BJ243" s="3"/>
-    </row>
-    <row r="244" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK243" s="3"/>
+      <c r="BL243" s="3"/>
+      <c r="BM243" s="3"/>
+      <c r="BN243" s="3"/>
+    </row>
+    <row r="244" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -16526,8 +17799,12 @@
       <c r="BH244" s="3"/>
       <c r="BI244" s="3"/>
       <c r="BJ244" s="3"/>
-    </row>
-    <row r="245" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK244" s="3"/>
+      <c r="BL244" s="3"/>
+      <c r="BM244" s="3"/>
+      <c r="BN244" s="3"/>
+    </row>
+    <row r="245" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -16588,8 +17865,12 @@
       <c r="BH245" s="3"/>
       <c r="BI245" s="3"/>
       <c r="BJ245" s="3"/>
-    </row>
-    <row r="246" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK245" s="3"/>
+      <c r="BL245" s="3"/>
+      <c r="BM245" s="3"/>
+      <c r="BN245" s="3"/>
+    </row>
+    <row r="246" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -16650,8 +17931,12 @@
       <c r="BH246" s="3"/>
       <c r="BI246" s="3"/>
       <c r="BJ246" s="3"/>
-    </row>
-    <row r="247" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK246" s="3"/>
+      <c r="BL246" s="3"/>
+      <c r="BM246" s="3"/>
+      <c r="BN246" s="3"/>
+    </row>
+    <row r="247" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -16712,8 +17997,12 @@
       <c r="BH247" s="3"/>
       <c r="BI247" s="3"/>
       <c r="BJ247" s="3"/>
-    </row>
-    <row r="248" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK247" s="3"/>
+      <c r="BL247" s="3"/>
+      <c r="BM247" s="3"/>
+      <c r="BN247" s="3"/>
+    </row>
+    <row r="248" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -16774,8 +18063,12 @@
       <c r="BH248" s="3"/>
       <c r="BI248" s="3"/>
       <c r="BJ248" s="3"/>
-    </row>
-    <row r="249" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK248" s="3"/>
+      <c r="BL248" s="3"/>
+      <c r="BM248" s="3"/>
+      <c r="BN248" s="3"/>
+    </row>
+    <row r="249" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -16836,8 +18129,12 @@
       <c r="BH249" s="3"/>
       <c r="BI249" s="3"/>
       <c r="BJ249" s="3"/>
-    </row>
-    <row r="250" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK249" s="3"/>
+      <c r="BL249" s="3"/>
+      <c r="BM249" s="3"/>
+      <c r="BN249" s="3"/>
+    </row>
+    <row r="250" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -16898,8 +18195,12 @@
       <c r="BH250" s="3"/>
       <c r="BI250" s="3"/>
       <c r="BJ250" s="3"/>
-    </row>
-    <row r="251" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK250" s="3"/>
+      <c r="BL250" s="3"/>
+      <c r="BM250" s="3"/>
+      <c r="BN250" s="3"/>
+    </row>
+    <row r="251" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -16960,8 +18261,12 @@
       <c r="BH251" s="3"/>
       <c r="BI251" s="3"/>
       <c r="BJ251" s="3"/>
-    </row>
-    <row r="252" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK251" s="3"/>
+      <c r="BL251" s="3"/>
+      <c r="BM251" s="3"/>
+      <c r="BN251" s="3"/>
+    </row>
+    <row r="252" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -17022,8 +18327,12 @@
       <c r="BH252" s="3"/>
       <c r="BI252" s="3"/>
       <c r="BJ252" s="3"/>
-    </row>
-    <row r="253" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK252" s="3"/>
+      <c r="BL252" s="3"/>
+      <c r="BM252" s="3"/>
+      <c r="BN252" s="3"/>
+    </row>
+    <row r="253" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -17084,8 +18393,12 @@
       <c r="BH253" s="3"/>
       <c r="BI253" s="3"/>
       <c r="BJ253" s="3"/>
-    </row>
-    <row r="254" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK253" s="3"/>
+      <c r="BL253" s="3"/>
+      <c r="BM253" s="3"/>
+      <c r="BN253" s="3"/>
+    </row>
+    <row r="254" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -17146,8 +18459,12 @@
       <c r="BH254" s="3"/>
       <c r="BI254" s="3"/>
       <c r="BJ254" s="3"/>
-    </row>
-    <row r="255" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK254" s="3"/>
+      <c r="BL254" s="3"/>
+      <c r="BM254" s="3"/>
+      <c r="BN254" s="3"/>
+    </row>
+    <row r="255" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -17208,8 +18525,12 @@
       <c r="BH255" s="3"/>
       <c r="BI255" s="3"/>
       <c r="BJ255" s="3"/>
-    </row>
-    <row r="256" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK255" s="3"/>
+      <c r="BL255" s="3"/>
+      <c r="BM255" s="3"/>
+      <c r="BN255" s="3"/>
+    </row>
+    <row r="256" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -17270,8 +18591,12 @@
       <c r="BH256" s="3"/>
       <c r="BI256" s="3"/>
       <c r="BJ256" s="3"/>
-    </row>
-    <row r="257" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK256" s="3"/>
+      <c r="BL256" s="3"/>
+      <c r="BM256" s="3"/>
+      <c r="BN256" s="3"/>
+    </row>
+    <row r="257" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -17332,8 +18657,12 @@
       <c r="BH257" s="3"/>
       <c r="BI257" s="3"/>
       <c r="BJ257" s="3"/>
-    </row>
-    <row r="258" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK257" s="3"/>
+      <c r="BL257" s="3"/>
+      <c r="BM257" s="3"/>
+      <c r="BN257" s="3"/>
+    </row>
+    <row r="258" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -17394,8 +18723,12 @@
       <c r="BH258" s="3"/>
       <c r="BI258" s="3"/>
       <c r="BJ258" s="3"/>
-    </row>
-    <row r="259" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK258" s="3"/>
+      <c r="BL258" s="3"/>
+      <c r="BM258" s="3"/>
+      <c r="BN258" s="3"/>
+    </row>
+    <row r="259" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -17456,8 +18789,12 @@
       <c r="BH259" s="3"/>
       <c r="BI259" s="3"/>
       <c r="BJ259" s="3"/>
-    </row>
-    <row r="260" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK259" s="3"/>
+      <c r="BL259" s="3"/>
+      <c r="BM259" s="3"/>
+      <c r="BN259" s="3"/>
+    </row>
+    <row r="260" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -17518,8 +18855,12 @@
       <c r="BH260" s="3"/>
       <c r="BI260" s="3"/>
       <c r="BJ260" s="3"/>
-    </row>
-    <row r="261" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK260" s="3"/>
+      <c r="BL260" s="3"/>
+      <c r="BM260" s="3"/>
+      <c r="BN260" s="3"/>
+    </row>
+    <row r="261" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -17580,8 +18921,12 @@
       <c r="BH261" s="3"/>
       <c r="BI261" s="3"/>
       <c r="BJ261" s="3"/>
-    </row>
-    <row r="262" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK261" s="3"/>
+      <c r="BL261" s="3"/>
+      <c r="BM261" s="3"/>
+      <c r="BN261" s="3"/>
+    </row>
+    <row r="262" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -17642,8 +18987,12 @@
       <c r="BH262" s="3"/>
       <c r="BI262" s="3"/>
       <c r="BJ262" s="3"/>
-    </row>
-    <row r="263" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK262" s="3"/>
+      <c r="BL262" s="3"/>
+      <c r="BM262" s="3"/>
+      <c r="BN262" s="3"/>
+    </row>
+    <row r="263" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -17704,8 +19053,12 @@
       <c r="BH263" s="3"/>
       <c r="BI263" s="3"/>
       <c r="BJ263" s="3"/>
-    </row>
-    <row r="264" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK263" s="3"/>
+      <c r="BL263" s="3"/>
+      <c r="BM263" s="3"/>
+      <c r="BN263" s="3"/>
+    </row>
+    <row r="264" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -17766,8 +19119,12 @@
       <c r="BH264" s="3"/>
       <c r="BI264" s="3"/>
       <c r="BJ264" s="3"/>
-    </row>
-    <row r="265" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK264" s="3"/>
+      <c r="BL264" s="3"/>
+      <c r="BM264" s="3"/>
+      <c r="BN264" s="3"/>
+    </row>
+    <row r="265" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -17828,8 +19185,12 @@
       <c r="BH265" s="3"/>
       <c r="BI265" s="3"/>
       <c r="BJ265" s="3"/>
-    </row>
-    <row r="266" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK265" s="3"/>
+      <c r="BL265" s="3"/>
+      <c r="BM265" s="3"/>
+      <c r="BN265" s="3"/>
+    </row>
+    <row r="266" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -17890,8 +19251,12 @@
       <c r="BH266" s="3"/>
       <c r="BI266" s="3"/>
       <c r="BJ266" s="3"/>
-    </row>
-    <row r="267" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK266" s="3"/>
+      <c r="BL266" s="3"/>
+      <c r="BM266" s="3"/>
+      <c r="BN266" s="3"/>
+    </row>
+    <row r="267" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -17952,8 +19317,12 @@
       <c r="BH267" s="3"/>
       <c r="BI267" s="3"/>
       <c r="BJ267" s="3"/>
-    </row>
-    <row r="268" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK267" s="3"/>
+      <c r="BL267" s="3"/>
+      <c r="BM267" s="3"/>
+      <c r="BN267" s="3"/>
+    </row>
+    <row r="268" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -18014,8 +19383,12 @@
       <c r="BH268" s="3"/>
       <c r="BI268" s="3"/>
       <c r="BJ268" s="3"/>
-    </row>
-    <row r="269" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK268" s="3"/>
+      <c r="BL268" s="3"/>
+      <c r="BM268" s="3"/>
+      <c r="BN268" s="3"/>
+    </row>
+    <row r="269" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -18076,8 +19449,12 @@
       <c r="BH269" s="3"/>
       <c r="BI269" s="3"/>
       <c r="BJ269" s="3"/>
-    </row>
-    <row r="270" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK269" s="3"/>
+      <c r="BL269" s="3"/>
+      <c r="BM269" s="3"/>
+      <c r="BN269" s="3"/>
+    </row>
+    <row r="270" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -18138,8 +19515,12 @@
       <c r="BH270" s="3"/>
       <c r="BI270" s="3"/>
       <c r="BJ270" s="3"/>
-    </row>
-    <row r="271" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK270" s="3"/>
+      <c r="BL270" s="3"/>
+      <c r="BM270" s="3"/>
+      <c r="BN270" s="3"/>
+    </row>
+    <row r="271" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -18200,8 +19581,12 @@
       <c r="BH271" s="3"/>
       <c r="BI271" s="3"/>
       <c r="BJ271" s="3"/>
-    </row>
-    <row r="272" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK271" s="3"/>
+      <c r="BL271" s="3"/>
+      <c r="BM271" s="3"/>
+      <c r="BN271" s="3"/>
+    </row>
+    <row r="272" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -18262,8 +19647,12 @@
       <c r="BH272" s="3"/>
       <c r="BI272" s="3"/>
       <c r="BJ272" s="3"/>
-    </row>
-    <row r="273" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK272" s="3"/>
+      <c r="BL272" s="3"/>
+      <c r="BM272" s="3"/>
+      <c r="BN272" s="3"/>
+    </row>
+    <row r="273" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -18324,8 +19713,12 @@
       <c r="BH273" s="3"/>
       <c r="BI273" s="3"/>
       <c r="BJ273" s="3"/>
-    </row>
-    <row r="274" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK273" s="3"/>
+      <c r="BL273" s="3"/>
+      <c r="BM273" s="3"/>
+      <c r="BN273" s="3"/>
+    </row>
+    <row r="274" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -18386,8 +19779,12 @@
       <c r="BH274" s="3"/>
       <c r="BI274" s="3"/>
       <c r="BJ274" s="3"/>
-    </row>
-    <row r="275" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK274" s="3"/>
+      <c r="BL274" s="3"/>
+      <c r="BM274" s="3"/>
+      <c r="BN274" s="3"/>
+    </row>
+    <row r="275" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -18448,8 +19845,12 @@
       <c r="BH275" s="3"/>
       <c r="BI275" s="3"/>
       <c r="BJ275" s="3"/>
-    </row>
-    <row r="276" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK275" s="3"/>
+      <c r="BL275" s="3"/>
+      <c r="BM275" s="3"/>
+      <c r="BN275" s="3"/>
+    </row>
+    <row r="276" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -18510,8 +19911,12 @@
       <c r="BH276" s="3"/>
       <c r="BI276" s="3"/>
       <c r="BJ276" s="3"/>
-    </row>
-    <row r="277" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK276" s="3"/>
+      <c r="BL276" s="3"/>
+      <c r="BM276" s="3"/>
+      <c r="BN276" s="3"/>
+    </row>
+    <row r="277" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -18572,8 +19977,12 @@
       <c r="BH277" s="3"/>
       <c r="BI277" s="3"/>
       <c r="BJ277" s="3"/>
-    </row>
-    <row r="278" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK277" s="3"/>
+      <c r="BL277" s="3"/>
+      <c r="BM277" s="3"/>
+      <c r="BN277" s="3"/>
+    </row>
+    <row r="278" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -18634,8 +20043,12 @@
       <c r="BH278" s="3"/>
       <c r="BI278" s="3"/>
       <c r="BJ278" s="3"/>
-    </row>
-    <row r="279" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK278" s="3"/>
+      <c r="BL278" s="3"/>
+      <c r="BM278" s="3"/>
+      <c r="BN278" s="3"/>
+    </row>
+    <row r="279" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -18696,8 +20109,12 @@
       <c r="BH279" s="3"/>
       <c r="BI279" s="3"/>
       <c r="BJ279" s="3"/>
-    </row>
-    <row r="280" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK279" s="3"/>
+      <c r="BL279" s="3"/>
+      <c r="BM279" s="3"/>
+      <c r="BN279" s="3"/>
+    </row>
+    <row r="280" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -18758,8 +20175,12 @@
       <c r="BH280" s="3"/>
       <c r="BI280" s="3"/>
       <c r="BJ280" s="3"/>
-    </row>
-    <row r="281" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK280" s="3"/>
+      <c r="BL280" s="3"/>
+      <c r="BM280" s="3"/>
+      <c r="BN280" s="3"/>
+    </row>
+    <row r="281" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -18820,8 +20241,12 @@
       <c r="BH281" s="3"/>
       <c r="BI281" s="3"/>
       <c r="BJ281" s="3"/>
-    </row>
-    <row r="282" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK281" s="3"/>
+      <c r="BL281" s="3"/>
+      <c r="BM281" s="3"/>
+      <c r="BN281" s="3"/>
+    </row>
+    <row r="282" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -18882,8 +20307,12 @@
       <c r="BH282" s="3"/>
       <c r="BI282" s="3"/>
       <c r="BJ282" s="3"/>
-    </row>
-    <row r="283" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK282" s="3"/>
+      <c r="BL282" s="3"/>
+      <c r="BM282" s="3"/>
+      <c r="BN282" s="3"/>
+    </row>
+    <row r="283" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -18944,8 +20373,12 @@
       <c r="BH283" s="3"/>
       <c r="BI283" s="3"/>
       <c r="BJ283" s="3"/>
-    </row>
-    <row r="284" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK283" s="3"/>
+      <c r="BL283" s="3"/>
+      <c r="BM283" s="3"/>
+      <c r="BN283" s="3"/>
+    </row>
+    <row r="284" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -19006,8 +20439,12 @@
       <c r="BH284" s="3"/>
       <c r="BI284" s="3"/>
       <c r="BJ284" s="3"/>
-    </row>
-    <row r="285" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK284" s="3"/>
+      <c r="BL284" s="3"/>
+      <c r="BM284" s="3"/>
+      <c r="BN284" s="3"/>
+    </row>
+    <row r="285" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -19068,8 +20505,12 @@
       <c r="BH285" s="3"/>
       <c r="BI285" s="3"/>
       <c r="BJ285" s="3"/>
-    </row>
-    <row r="286" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK285" s="3"/>
+      <c r="BL285" s="3"/>
+      <c r="BM285" s="3"/>
+      <c r="BN285" s="3"/>
+    </row>
+    <row r="286" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -19130,8 +20571,12 @@
       <c r="BH286" s="3"/>
       <c r="BI286" s="3"/>
       <c r="BJ286" s="3"/>
-    </row>
-    <row r="287" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK286" s="3"/>
+      <c r="BL286" s="3"/>
+      <c r="BM286" s="3"/>
+      <c r="BN286" s="3"/>
+    </row>
+    <row r="287" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -19192,8 +20637,12 @@
       <c r="BH287" s="3"/>
       <c r="BI287" s="3"/>
       <c r="BJ287" s="3"/>
-    </row>
-    <row r="288" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK287" s="3"/>
+      <c r="BL287" s="3"/>
+      <c r="BM287" s="3"/>
+      <c r="BN287" s="3"/>
+    </row>
+    <row r="288" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -19254,8 +20703,12 @@
       <c r="BH288" s="3"/>
       <c r="BI288" s="3"/>
       <c r="BJ288" s="3"/>
-    </row>
-    <row r="289" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK288" s="3"/>
+      <c r="BL288" s="3"/>
+      <c r="BM288" s="3"/>
+      <c r="BN288" s="3"/>
+    </row>
+    <row r="289" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -19316,8 +20769,12 @@
       <c r="BH289" s="3"/>
       <c r="BI289" s="3"/>
       <c r="BJ289" s="3"/>
-    </row>
-    <row r="290" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK289" s="3"/>
+      <c r="BL289" s="3"/>
+      <c r="BM289" s="3"/>
+      <c r="BN289" s="3"/>
+    </row>
+    <row r="290" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -19378,8 +20835,12 @@
       <c r="BH290" s="3"/>
       <c r="BI290" s="3"/>
       <c r="BJ290" s="3"/>
-    </row>
-    <row r="291" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK290" s="3"/>
+      <c r="BL290" s="3"/>
+      <c r="BM290" s="3"/>
+      <c r="BN290" s="3"/>
+    </row>
+    <row r="291" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -19440,8 +20901,12 @@
       <c r="BH291" s="3"/>
       <c r="BI291" s="3"/>
       <c r="BJ291" s="3"/>
-    </row>
-    <row r="292" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK291" s="3"/>
+      <c r="BL291" s="3"/>
+      <c r="BM291" s="3"/>
+      <c r="BN291" s="3"/>
+    </row>
+    <row r="292" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -19502,8 +20967,12 @@
       <c r="BH292" s="3"/>
       <c r="BI292" s="3"/>
       <c r="BJ292" s="3"/>
-    </row>
-    <row r="293" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK292" s="3"/>
+      <c r="BL292" s="3"/>
+      <c r="BM292" s="3"/>
+      <c r="BN292" s="3"/>
+    </row>
+    <row r="293" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -19564,8 +21033,12 @@
       <c r="BH293" s="3"/>
       <c r="BI293" s="3"/>
       <c r="BJ293" s="3"/>
-    </row>
-    <row r="294" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK293" s="3"/>
+      <c r="BL293" s="3"/>
+      <c r="BM293" s="3"/>
+      <c r="BN293" s="3"/>
+    </row>
+    <row r="294" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -19626,8 +21099,12 @@
       <c r="BH294" s="3"/>
       <c r="BI294" s="3"/>
       <c r="BJ294" s="3"/>
-    </row>
-    <row r="295" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK294" s="3"/>
+      <c r="BL294" s="3"/>
+      <c r="BM294" s="3"/>
+      <c r="BN294" s="3"/>
+    </row>
+    <row r="295" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -19688,8 +21165,12 @@
       <c r="BH295" s="3"/>
       <c r="BI295" s="3"/>
       <c r="BJ295" s="3"/>
-    </row>
-    <row r="296" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK295" s="3"/>
+      <c r="BL295" s="3"/>
+      <c r="BM295" s="3"/>
+      <c r="BN295" s="3"/>
+    </row>
+    <row r="296" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -19750,8 +21231,12 @@
       <c r="BH296" s="3"/>
       <c r="BI296" s="3"/>
       <c r="BJ296" s="3"/>
-    </row>
-    <row r="297" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK296" s="3"/>
+      <c r="BL296" s="3"/>
+      <c r="BM296" s="3"/>
+      <c r="BN296" s="3"/>
+    </row>
+    <row r="297" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -19812,8 +21297,12 @@
       <c r="BH297" s="3"/>
       <c r="BI297" s="3"/>
       <c r="BJ297" s="3"/>
-    </row>
-    <row r="298" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK297" s="3"/>
+      <c r="BL297" s="3"/>
+      <c r="BM297" s="3"/>
+      <c r="BN297" s="3"/>
+    </row>
+    <row r="298" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -19874,8 +21363,12 @@
       <c r="BH298" s="3"/>
       <c r="BI298" s="3"/>
       <c r="BJ298" s="3"/>
-    </row>
-    <row r="299" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK298" s="3"/>
+      <c r="BL298" s="3"/>
+      <c r="BM298" s="3"/>
+      <c r="BN298" s="3"/>
+    </row>
+    <row r="299" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -19936,8 +21429,12 @@
       <c r="BH299" s="3"/>
       <c r="BI299" s="3"/>
       <c r="BJ299" s="3"/>
-    </row>
-    <row r="300" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK299" s="3"/>
+      <c r="BL299" s="3"/>
+      <c r="BM299" s="3"/>
+      <c r="BN299" s="3"/>
+    </row>
+    <row r="300" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -19998,8 +21495,12 @@
       <c r="BH300" s="3"/>
       <c r="BI300" s="3"/>
       <c r="BJ300" s="3"/>
-    </row>
-    <row r="301" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK300" s="3"/>
+      <c r="BL300" s="3"/>
+      <c r="BM300" s="3"/>
+      <c r="BN300" s="3"/>
+    </row>
+    <row r="301" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -20060,8 +21561,12 @@
       <c r="BH301" s="3"/>
       <c r="BI301" s="3"/>
       <c r="BJ301" s="3"/>
-    </row>
-    <row r="302" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK301" s="3"/>
+      <c r="BL301" s="3"/>
+      <c r="BM301" s="3"/>
+      <c r="BN301" s="3"/>
+    </row>
+    <row r="302" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -20122,8 +21627,12 @@
       <c r="BH302" s="3"/>
       <c r="BI302" s="3"/>
       <c r="BJ302" s="3"/>
-    </row>
-    <row r="303" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK302" s="3"/>
+      <c r="BL302" s="3"/>
+      <c r="BM302" s="3"/>
+      <c r="BN302" s="3"/>
+    </row>
+    <row r="303" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -20184,8 +21693,12 @@
       <c r="BH303" s="3"/>
       <c r="BI303" s="3"/>
       <c r="BJ303" s="3"/>
-    </row>
-    <row r="304" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK303" s="3"/>
+      <c r="BL303" s="3"/>
+      <c r="BM303" s="3"/>
+      <c r="BN303" s="3"/>
+    </row>
+    <row r="304" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -20246,8 +21759,12 @@
       <c r="BH304" s="3"/>
       <c r="BI304" s="3"/>
       <c r="BJ304" s="3"/>
-    </row>
-    <row r="305" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK304" s="3"/>
+      <c r="BL304" s="3"/>
+      <c r="BM304" s="3"/>
+      <c r="BN304" s="3"/>
+    </row>
+    <row r="305" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -20308,8 +21825,12 @@
       <c r="BH305" s="3"/>
       <c r="BI305" s="3"/>
       <c r="BJ305" s="3"/>
-    </row>
-    <row r="306" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK305" s="3"/>
+      <c r="BL305" s="3"/>
+      <c r="BM305" s="3"/>
+      <c r="BN305" s="3"/>
+    </row>
+    <row r="306" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -20370,8 +21891,12 @@
       <c r="BH306" s="3"/>
       <c r="BI306" s="3"/>
       <c r="BJ306" s="3"/>
-    </row>
-    <row r="307" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK306" s="3"/>
+      <c r="BL306" s="3"/>
+      <c r="BM306" s="3"/>
+      <c r="BN306" s="3"/>
+    </row>
+    <row r="307" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -20432,8 +21957,12 @@
       <c r="BH307" s="3"/>
       <c r="BI307" s="3"/>
       <c r="BJ307" s="3"/>
-    </row>
-    <row r="308" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK307" s="3"/>
+      <c r="BL307" s="3"/>
+      <c r="BM307" s="3"/>
+      <c r="BN307" s="3"/>
+    </row>
+    <row r="308" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -20494,8 +22023,12 @@
       <c r="BH308" s="3"/>
       <c r="BI308" s="3"/>
       <c r="BJ308" s="3"/>
-    </row>
-    <row r="309" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK308" s="3"/>
+      <c r="BL308" s="3"/>
+      <c r="BM308" s="3"/>
+      <c r="BN308" s="3"/>
+    </row>
+    <row r="309" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -20556,8 +22089,12 @@
       <c r="BH309" s="3"/>
       <c r="BI309" s="3"/>
       <c r="BJ309" s="3"/>
-    </row>
-    <row r="310" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK309" s="3"/>
+      <c r="BL309" s="3"/>
+      <c r="BM309" s="3"/>
+      <c r="BN309" s="3"/>
+    </row>
+    <row r="310" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -20618,8 +22155,12 @@
       <c r="BH310" s="3"/>
       <c r="BI310" s="3"/>
       <c r="BJ310" s="3"/>
-    </row>
-    <row r="311" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK310" s="3"/>
+      <c r="BL310" s="3"/>
+      <c r="BM310" s="3"/>
+      <c r="BN310" s="3"/>
+    </row>
+    <row r="311" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -20680,8 +22221,12 @@
       <c r="BH311" s="3"/>
       <c r="BI311" s="3"/>
       <c r="BJ311" s="3"/>
-    </row>
-    <row r="312" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK311" s="3"/>
+      <c r="BL311" s="3"/>
+      <c r="BM311" s="3"/>
+      <c r="BN311" s="3"/>
+    </row>
+    <row r="312" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -20742,8 +22287,12 @@
       <c r="BH312" s="3"/>
       <c r="BI312" s="3"/>
       <c r="BJ312" s="3"/>
-    </row>
-    <row r="313" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK312" s="3"/>
+      <c r="BL312" s="3"/>
+      <c r="BM312" s="3"/>
+      <c r="BN312" s="3"/>
+    </row>
+    <row r="313" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -20804,8 +22353,12 @@
       <c r="BH313" s="3"/>
       <c r="BI313" s="3"/>
       <c r="BJ313" s="3"/>
-    </row>
-    <row r="314" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK313" s="3"/>
+      <c r="BL313" s="3"/>
+      <c r="BM313" s="3"/>
+      <c r="BN313" s="3"/>
+    </row>
+    <row r="314" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -20866,8 +22419,12 @@
       <c r="BH314" s="3"/>
       <c r="BI314" s="3"/>
       <c r="BJ314" s="3"/>
-    </row>
-    <row r="315" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK314" s="3"/>
+      <c r="BL314" s="3"/>
+      <c r="BM314" s="3"/>
+      <c r="BN314" s="3"/>
+    </row>
+    <row r="315" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -20928,8 +22485,12 @@
       <c r="BH315" s="3"/>
       <c r="BI315" s="3"/>
       <c r="BJ315" s="3"/>
-    </row>
-    <row r="316" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK315" s="3"/>
+      <c r="BL315" s="3"/>
+      <c r="BM315" s="3"/>
+      <c r="BN315" s="3"/>
+    </row>
+    <row r="316" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -20990,8 +22551,12 @@
       <c r="BH316" s="3"/>
       <c r="BI316" s="3"/>
       <c r="BJ316" s="3"/>
-    </row>
-    <row r="317" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK316" s="3"/>
+      <c r="BL316" s="3"/>
+      <c r="BM316" s="3"/>
+      <c r="BN316" s="3"/>
+    </row>
+    <row r="317" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -21052,8 +22617,12 @@
       <c r="BH317" s="3"/>
       <c r="BI317" s="3"/>
       <c r="BJ317" s="3"/>
-    </row>
-    <row r="318" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="BK317" s="3"/>
+      <c r="BL317" s="3"/>
+      <c r="BM317" s="3"/>
+      <c r="BN317" s="3"/>
+    </row>
+    <row r="318" spans="3:66" x14ac:dyDescent="0.25">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -21114,6 +22683,10 @@
       <c r="BH318" s="3"/>
       <c r="BI318" s="3"/>
       <c r="BJ318" s="3"/>
+      <c r="BK318" s="3"/>
+      <c r="BL318" s="3"/>
+      <c r="BM318" s="3"/>
+      <c r="BN318" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/7936.T.xlsx
+++ b/7936.T.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3DB03-4CC0-47E4-8305-F190FB0B3CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4EE3A8-F77D-4ED7-93E8-31B83DC28080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -257,11 +257,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,12 +271,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -305,6 +304,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,20 +341,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -680,48 +695,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403BCA5A-AD74-4A89-82B4-2A5ED42596B0}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="3">
         <v>4245</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="3">
         <v>734.48223599999994</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="3">
@@ -729,37 +746,37 @@
         <v>3117877.0918199997</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3">
         <v>124662</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="3">
         <f>0+25000+35000</f>
         <v>60000</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="3">
@@ -767,23 +784,23 @@
         <v>3053215.0918199997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -799,2447 +816,1113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0781B03-897F-4FBF-8E19-27D8F6677ACE}">
   <dimension ref="A1:BN318"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="I3" s="8">
         <v>16.600000000000001</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="8">
         <v>101000</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    </row>
+    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>77913</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <f>147839-C6</f>
         <v>69926</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="8">
         <f>227070-SUM(C6:D6)</f>
         <v>79231</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>87894</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="8">
         <f>170903-G6</f>
         <v>83009</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="8">
         <f>258277-SUM(G6:H6)</f>
         <v>87374</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="K6" s="8">
         <v>98003</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="8">
         <f>184964-K6</f>
         <v>86961</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
+      <c r="T6" s="8">
         <v>285929</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="8">
         <v>326936</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>22741</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
         <f>40430-C7</f>
         <v>17689</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="8">
         <f>61048-SUM(C7:D7)</f>
         <v>20618</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>24884</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <f>42086-G7</f>
         <v>17202</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="8">
         <f>64884-SUM(G7:H7)</f>
         <v>22798</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="K7" s="8">
         <v>25497</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="8">
         <f>44118-K7</f>
         <v>18621</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3">
+      <c r="T7" s="8">
         <v>72154</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="8">
         <v>78620</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>9605</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <f>18075-C8</f>
         <v>8470</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="8">
         <f>28018-SUM(C8:D8)</f>
         <v>9943</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>9325</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <f>18713-G8</f>
         <v>9388</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <f>29130-SUM(G8:H8)</f>
         <v>10417</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="K8" s="8">
         <v>10339</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="8">
         <f>20003-K8</f>
         <v>9664</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3">
+      <c r="T8" s="8">
         <v>36185</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="8">
         <v>38065</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>15487</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <f>28077-C9</f>
         <v>12590</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <f>45958-SUM(C9:D9)</f>
         <v>17881</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>23493</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="8">
         <f>45986-G9</f>
         <v>22493</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="8">
         <f>75085-SUM(G9:H9)</f>
         <v>29099</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="K9" s="8">
         <v>35144</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="8">
         <f>67314-K9</f>
         <v>32170</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3">
+      <c r="T9" s="8">
         <v>59257</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="8">
         <v>98425</v>
       </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>12124</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <f>28297-C10</f>
         <v>16173</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="8">
         <f>44874-SUM(C10:D10)</f>
         <v>16577</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <v>18024</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="8">
         <f>43884-G10</f>
         <v>25860</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="8">
         <f>68535-SUM(G10:H10)</f>
         <v>24651</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+      <c r="K10" s="8">
         <v>28325</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="8">
         <f>65876-K10</f>
         <v>37551</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3">
+      <c r="T10" s="8">
         <v>60304</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="8">
         <v>95439</v>
       </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="11">
         <v>152297</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="11">
         <f>290079-C11</f>
         <v>137782</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="11">
         <f>448105-SUM(C11:D11)</f>
         <v>158026</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="11">
         <f>+T11-SUM(C11:E11)</f>
         <v>122358</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="11">
         <v>174102</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="11">
         <f>342199-G11</f>
         <v>168097</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="11">
         <f>525454-SUM(G11:H11)</f>
         <v>183255</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="11">
         <f>+U11-SUM(G11:I11)</f>
         <v>153072</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="11">
         <v>208313</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="11">
         <f>402798-K11</f>
         <v>194485</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="6">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="R11" s="11">
         <v>404083</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="11">
         <v>484601</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="11">
         <v>570463</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="11">
         <v>678526</v>
       </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
-      <c r="BB11" s="2"/>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    </row>
+    <row r="12" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>75873</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>142083</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>218477</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
         <v>79254</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="8">
         <f>152108-G12</f>
         <v>72854</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="8">
         <f>234533-SUM(G12:H12)</f>
         <v>82425</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="K12" s="8">
         <v>91990</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="8">
         <f>174356-K12</f>
         <v>82366</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3">
+      <c r="R12" s="8">
         <v>204205</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="8">
         <v>243894</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="8">
         <v>273566</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="8">
         <v>299648</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <f t="shared" ref="C13:H13" si="0">+C11-C12</f>
         <v>76424</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>-4301</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>-60451</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>122358</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>94848</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>95243</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="8">
         <f>+I11-I12</f>
         <v>100830</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="8">
         <f t="shared" ref="J13:L13" si="1">+J11-J12</f>
         <v>153072</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="8">
         <f t="shared" si="1"/>
         <v>116323</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>112119</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3">
+      <c r="R13" s="8">
         <f>+R11-R12</f>
         <v>199878</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="8">
         <f>+S11-S12</f>
         <v>240707</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="8">
         <f>+T11-T12</f>
         <v>296897</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="8">
         <f>+U11-U12</f>
         <v>378878</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    </row>
+    <row r="14" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>54303</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="8">
         <v>114385</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="8">
         <v>173822</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="G14" s="8">
         <v>61034</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="8">
         <f>131094-G14</f>
         <v>70060</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="8">
         <f>199397-SUM(G14:H14)</f>
         <v>68303</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="K14" s="8">
         <v>71810</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="8">
         <f>147310-K14</f>
         <v>75500</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3">
+      <c r="R14" s="8">
         <v>177932</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="8">
         <v>206704</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="8">
         <v>242680</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="8">
         <v>278766</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    </row>
+    <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <f t="shared" ref="C15:H15" si="2">+C13-C14</f>
         <v>22121</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <f t="shared" si="2"/>
         <v>-118686</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <f t="shared" si="2"/>
         <v>-234273</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="8">
         <f t="shared" si="2"/>
         <v>122358</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>33814</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="8">
         <f t="shared" si="2"/>
         <v>25183</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="8">
         <f>+I13-I14</f>
         <v>32527</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="8">
         <f t="shared" ref="J15:L15" si="3">+J13-J14</f>
         <v>153072</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="8">
         <f t="shared" si="3"/>
         <v>44513</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="8">
         <f t="shared" si="3"/>
         <v>36619</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3">
+      <c r="R15" s="8">
         <f t="shared" ref="R15:S15" si="4">+R13-R14</f>
         <v>21946</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="8">
         <f t="shared" si="4"/>
         <v>34003</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="8">
         <f>+T13-T14</f>
         <v>54217</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="8">
         <f>+U13-U14</f>
         <v>100112</v>
       </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>1511</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="8">
         <v>3482</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="8">
         <v>4398</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <v>1636</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="8">
         <f>3802-G16</f>
         <v>2166</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="8">
         <f>5815-SUM(G16:H16)</f>
         <v>2013</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="K16" s="8">
         <v>1640</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="8">
         <f>2551-K16</f>
         <v>911</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3">
+      <c r="T16" s="8">
         <v>5301</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="8">
         <v>5745</v>
       </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-    </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>1711</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="8">
         <v>3273</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="8">
         <v>5455</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <v>2372</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="8">
         <f>4976-G17</f>
         <v>2604</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="8">
         <f>9059-SUM(G17:H17)</f>
         <v>4083</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="K17" s="8">
         <v>2775</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="8">
         <f>5056-K17</f>
         <v>2281</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3">
+      <c r="T17" s="8">
         <v>8845</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="8">
         <v>13255</v>
       </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-    </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    </row>
+    <row r="18" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <f t="shared" ref="C18:H18" si="5">+C15-C17+C16</f>
         <v>21921</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="8">
         <f t="shared" si="5"/>
         <v>-118477</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="8">
         <f t="shared" si="5"/>
         <v>-235330</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="8">
         <f t="shared" si="5"/>
         <v>122358</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <f t="shared" si="5"/>
         <v>33078</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="8">
         <f t="shared" si="5"/>
         <v>24745</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="8">
         <f>+I15-I17+I16</f>
         <v>30457</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="8">
         <f t="shared" ref="J18:L18" si="6">+J15-J17+J16</f>
         <v>153072</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="8">
         <f t="shared" si="6"/>
         <v>43378</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="8">
         <f t="shared" si="6"/>
         <v>35249</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3">
+      <c r="T18" s="8">
         <f>+T15+T16-T17</f>
         <v>50673</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="8">
         <f>+U15+U16-U17</f>
         <v>92602</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-    </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    </row>
+    <row r="19" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="8">
         <v>8</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>1499</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="8">
         <f>267-G19</f>
         <v>266</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="8">
         <f>5924-SUM(G19:H19)</f>
         <v>5657</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="K19" s="8">
         <v>12</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="8">
         <f>2305-K19</f>
         <v>2293</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3">
+      <c r="T19" s="8">
         <v>8418</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="8">
         <v>7174</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-    </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    </row>
+    <row r="20" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>317</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <v>429</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <v>1019</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>15</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="8">
         <f>31-G20</f>
         <v>16</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="8">
         <f>2129-SUM(G20:H20)</f>
         <v>2098</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="K20" s="8">
         <v>6</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="8">
         <f>200-K20</f>
         <v>194</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3">
+      <c r="T20" s="8">
         <v>8516</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="8">
         <v>6531</v>
       </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-    </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    </row>
+    <row r="21" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <f t="shared" ref="C21:H21" si="7">+C18+C19-C20</f>
         <v>21605</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <f t="shared" si="7"/>
         <v>-118898</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <f t="shared" si="7"/>
         <v>-234850</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="8">
         <f t="shared" si="7"/>
         <v>122358</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="8">
         <f t="shared" si="7"/>
         <v>33064</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="8">
         <f t="shared" si="7"/>
         <v>24995</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="8">
         <f>+I18+I19-I20</f>
         <v>34016</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="8">
         <f t="shared" ref="J21:L21" si="8">+J18+J19-J20</f>
         <v>153072</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="8">
         <f t="shared" si="8"/>
         <v>43384</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="8">
         <f t="shared" si="8"/>
         <v>37348</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3">
+      <c r="T21" s="8">
         <f>+T18+T19-T20</f>
         <v>50575</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="8">
         <f>+U18+U19-U20</f>
         <v>93245</v>
       </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-    </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    </row>
+    <row r="22" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>5189</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="8">
         <v>8473</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="8">
         <v>14865</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="G22" s="8">
         <v>6239</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="8">
         <f>15761-G22</f>
         <v>9522</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="8">
         <f>27112-SUM(G22:H22)</f>
         <v>11351</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="K22" s="8">
         <v>11654</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="8">
         <f>27048-K22</f>
         <v>15394</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3">
+      <c r="T22" s="8">
         <v>15119</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="8">
         <v>29299</v>
       </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-    </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    </row>
+    <row r="23" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:H23" si="9">+C21-C22</f>
         <v>16416</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="8">
         <f t="shared" si="9"/>
         <v>-127371</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="8">
         <f t="shared" si="9"/>
         <v>-249715</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="8">
         <f t="shared" si="9"/>
         <v>122358</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="8">
         <f t="shared" si="9"/>
         <v>26825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="8">
         <f t="shared" si="9"/>
         <v>15473</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="8">
         <f>+I21-I22</f>
         <v>22665</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="8">
         <f t="shared" ref="J23:L23" si="10">+J21-J22</f>
         <v>153072</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="8">
         <f t="shared" si="10"/>
         <v>31730</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="8">
         <f t="shared" si="10"/>
         <v>21954</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3">
+      <c r="T23" s="8">
         <f>+T21-T22</f>
         <v>35456</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="8">
         <f>+U21-U22</f>
         <v>63946</v>
       </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
-      <c r="BN23" s="3"/>
-    </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    </row>
+    <row r="24" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>105</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="8">
         <v>129</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>81</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>85</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <f>77-G24</f>
         <v>-8</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <f>20-SUM(G24:H24)</f>
         <v>-57</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="K24" s="8">
         <v>80</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="8">
         <f>76-K24</f>
         <v>-4</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3">
+      <c r="T24" s="8">
         <v>180</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="8">
         <v>138</v>
       </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-    </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    </row>
+    <row r="25" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <f t="shared" ref="C25:H25" si="11">+C23-C24</f>
         <v>16311</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="8">
         <f t="shared" si="11"/>
         <v>-127500</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="8">
         <f t="shared" si="11"/>
         <v>-249796</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="8">
         <f t="shared" si="11"/>
         <v>122358</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="8">
         <f>+G23-G24</f>
         <v>26740</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="8">
         <f t="shared" si="11"/>
         <v>15481</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="8">
         <f>+I23-I24</f>
         <v>22722</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="8">
         <f t="shared" ref="J25:L25" si="12">+J23-J24</f>
         <v>153072</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="8">
         <f t="shared" si="12"/>
         <v>31650</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="8">
         <f t="shared" si="12"/>
         <v>21958</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3">
+      <c r="T25" s="8">
         <f>+T23-T24</f>
         <v>35276</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="8">
         <f>+U23-U24</f>
         <v>63808</v>
       </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
-      <c r="BN25" s="3"/>
-    </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-    </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    </row>
+    <row r="26" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="12">
         <f t="shared" ref="C27:H27" si="13">+C25/C28</f>
         <v>22.262139298476221</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="12">
         <f t="shared" si="13"/>
         <v>-174.00271459792663</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="12">
         <f t="shared" si="13"/>
         <v>-340.87626624938014</v>
       </c>
-      <c r="F27" s="8" t="e">
+      <c r="F27" s="12" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="12">
         <f t="shared" si="13"/>
         <v>36.654522788407427</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="12">
         <f t="shared" si="13"/>
         <v>21.298860831508435</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="12">
         <f>+I25/I28</f>
         <v>31.354480047458221</v>
       </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" ref="J27:L28" si="14">+J25/J28</f>
+      <c r="J27" s="12" t="e">
+        <f t="shared" ref="J27:L27" si="14">+J25/J28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="12">
         <f t="shared" si="14"/>
         <v>44.26723755635679</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="12">
         <f t="shared" si="14"/>
         <v>30.720007084264751</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3"/>
-      <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
-      <c r="BN27" s="3"/>
-    </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <f>183.169728*4</f>
         <v>732.67891199999997</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>732.74718900000005</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="6">
         <v>732.80549199999996</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
         <f>182.378585*4</f>
         <v>729.51433999999995</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>726.84638500000005</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="6">
         <v>724.68112900000006</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
         <v>714.97571900000003</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="6">
         <v>714.77848100000006</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3276,11 +1959,11 @@
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
@@ -3293,7 +1976,7 @@
       <c r="BM28" s="3"/>
       <c r="BN28" s="3"/>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3342,11 +2025,11 @@
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
@@ -3359,40 +2042,40 @@
       <c r="BM29" s="3"/>
       <c r="BN29" s="3"/>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7">
+      <c r="G30" s="9">
         <f t="shared" ref="G30:G35" si="15">+G6/C6-1</f>
         <v>0.12810442416541523</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="9">
         <f t="shared" ref="H30:H35" si="16">+H6/D6-1</f>
         <v>0.18709778909132502</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <f t="shared" ref="I30:J34" si="17">+I6/E6-1</f>
         <v>0.10277542880943069</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="9">
         <f t="shared" ref="K30:K35" si="18">+K6/G6-1</f>
         <v>0.11501353903565659</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="9">
         <f t="shared" ref="L30:L35" si="19">+L6/H6-1</f>
         <v>4.7609295377609717E-2</v>
       </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3429,11 +2112,11 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
@@ -3446,40 +2129,40 @@
       <c r="BM30" s="3"/>
       <c r="BN30" s="3"/>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7">
+      <c r="G31" s="9">
         <f t="shared" si="15"/>
         <v>9.4235082010465598E-2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="9">
         <f t="shared" si="16"/>
         <v>-2.7531234100288349E-2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="9">
         <f t="shared" si="17"/>
         <v>0.10573285478707928</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="9">
         <f t="shared" si="18"/>
         <v>2.463430316669335E-2</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="9">
         <f t="shared" si="19"/>
         <v>8.2490408092082301E-2</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3516,11 +2199,11 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
       <c r="BD31" s="3"/>
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
@@ -3533,40 +2216,40 @@
       <c r="BM31" s="3"/>
       <c r="BN31" s="3"/>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7">
+      <c r="G32" s="9">
         <f t="shared" si="15"/>
         <v>-2.9151483602290473E-2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="9">
         <f t="shared" si="16"/>
         <v>0.10838252656434477</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <f t="shared" si="17"/>
         <v>4.7671728854470574E-2</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <f t="shared" si="18"/>
         <v>0.10873994638069706</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="9">
         <f t="shared" si="19"/>
         <v>2.9399233063485353E-2</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3603,11 +2286,11 @@
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
-      <c r="AY32" s="2"/>
-      <c r="AZ32" s="2"/>
-      <c r="BA32" s="2"/>
-      <c r="BB32" s="2"/>
-      <c r="BC32" s="2"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
       <c r="BD32" s="3"/>
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
@@ -3620,40 +2303,40 @@
       <c r="BM32" s="3"/>
       <c r="BN32" s="3"/>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="7">
+      <c r="G33" s="9">
         <f t="shared" si="15"/>
         <v>0.51694969974817595</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="9">
         <f t="shared" si="16"/>
         <v>0.7865766481334393</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <f t="shared" si="17"/>
         <v>0.62736983390190715</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="9">
         <f t="shared" si="18"/>
         <v>0.49593495934959342</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="9">
         <f t="shared" si="19"/>
         <v>0.43022273596229943</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3690,11 +2373,11 @@
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
       <c r="BD33" s="3"/>
       <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
@@ -3707,40 +2390,40 @@
       <c r="BM33" s="3"/>
       <c r="BN33" s="3"/>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="7">
+      <c r="G34" s="9">
         <f t="shared" si="15"/>
         <v>0.48663807324315411</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="9">
         <f t="shared" si="16"/>
         <v>0.59896123168243376</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="9">
         <f t="shared" si="17"/>
         <v>0.48706038487060388</v>
       </c>
-      <c r="J34" s="7" t="e">
+      <c r="J34" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="9">
         <f t="shared" si="18"/>
         <v>0.57151575676875277</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="9">
         <f t="shared" si="19"/>
         <v>0.4520881670533643</v>
       </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -3777,11 +2460,11 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6"/>
       <c r="BD34" s="3"/>
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
@@ -3794,56 +2477,56 @@
       <c r="BM34" s="3"/>
       <c r="BN34" s="3"/>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:66" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="9">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="10">
         <f t="shared" si="15"/>
         <v>0.14317419253169783</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <f t="shared" si="16"/>
         <v>0.22002148321261128</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <f>+I11/E11-1</f>
         <v>0.15965094351562392</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <f>+J11/F11-1</f>
         <v>0.25101750600696326</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <f t="shared" si="18"/>
         <v>0.19649975301834566</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <f t="shared" si="19"/>
         <v>0.1569807908529004</v>
       </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="7" t="e">
+      <c r="R35" s="9" t="e">
         <f t="shared" ref="R35:T35" si="20">+R11/Q11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="9">
         <f t="shared" si="20"/>
         <v>0.19926104290455182</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="9">
         <f t="shared" si="20"/>
         <v>0.17718081473211988</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="9">
         <f>+U11/T11-1</f>
         <v>0.18943033991687463</v>
       </c>
@@ -3876,11 +2559,11 @@
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
       <c r="BD35" s="3"/>
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
@@ -3893,74 +2576,74 @@
       <c r="BM35" s="3"/>
       <c r="BN35" s="3"/>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="7">
-        <f t="shared" ref="C36:I36" si="21">+C13/C11</f>
+      <c r="C36" s="9">
+        <f t="shared" ref="C36:H36" si="21">+C13/C11</f>
         <v>0.50180896537686237</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <f t="shared" si="21"/>
         <v>-3.1215978865163811E-2</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <f t="shared" si="21"/>
         <v>-0.38253831647956665</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="9">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="9">
         <f t="shared" si="21"/>
         <v>0.54478409208395073</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="9">
         <f t="shared" si="21"/>
         <v>0.56659547761114115</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <f>+I13/I11</f>
         <v>0.55021691086191371</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="9">
         <f>+J13/J11</f>
         <v>1</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="9">
         <f t="shared" ref="K36:L36" si="22">+K13/K11</f>
         <v>0.55840490031827106</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="9">
         <f t="shared" si="22"/>
         <v>0.57649176028999671</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="7" t="e">
+      <c r="P36" s="9" t="e">
         <f t="shared" ref="P36:T36" si="23">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q36" s="7" t="e">
+      <c r="Q36" s="9" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="9">
         <f t="shared" si="23"/>
         <v>0.49464590195578634</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="9">
         <f t="shared" si="23"/>
         <v>0.49671172779255512</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="9">
         <f t="shared" si="23"/>
         <v>0.52044917900021559</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="9">
         <f>+U13/U11</f>
         <v>0.55838390864904219</v>
       </c>
@@ -3993,11 +2676,11 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
-      <c r="AY36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="2"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
       <c r="BD36" s="3"/>
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
@@ -4010,47 +2693,47 @@
       <c r="BM36" s="3"/>
       <c r="BN36" s="3"/>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="7">
-        <f t="shared" ref="C37:I37" si="24">+C15/C11</f>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:H37" si="24">+C15/C11</f>
         <v>0.1452490856681353</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <f t="shared" si="24"/>
         <v>-0.86140424728919596</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
         <f t="shared" si="24"/>
         <v>-1.4824965512004353</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="9">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="9">
         <f t="shared" si="24"/>
         <v>0.19421948053439939</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="9">
         <f t="shared" si="24"/>
         <v>0.1498123107491508</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <f>+I15/I11</f>
         <v>0.17749583913126518</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="9">
         <f>+J15/J11</f>
         <v>1</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="9">
         <f t="shared" ref="K37:L37" si="25">+K15/K11</f>
         <v>0.21368325548573541</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="9">
         <f t="shared" si="25"/>
         <v>0.18828701442270612</v>
       </c>
@@ -4092,11 +2775,11 @@
       <c r="AV37" s="3"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
       <c r="BD37" s="3"/>
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
@@ -4109,47 +2792,47 @@
       <c r="BM37" s="3"/>
       <c r="BN37" s="3"/>
     </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="7">
-        <f t="shared" ref="C38:I38" si="26">+C22/C21</f>
+      <c r="C38" s="9">
+        <f t="shared" ref="C38:H38" si="26">+C22/C21</f>
         <v>0.24017588521175653</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <f t="shared" si="26"/>
         <v>-7.1262763040589414E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
         <f t="shared" si="26"/>
         <v>-6.3295720672769853E-2</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f t="shared" si="26"/>
         <v>0.1886946527945802</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="9">
         <f t="shared" si="26"/>
         <v>0.38095619123824764</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9">
         <f>+I22/I21</f>
         <v>0.33369590780809033</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <f>+J22/J21</f>
         <v>0</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="9">
         <f t="shared" ref="K38:L38" si="27">+K22/K21</f>
         <v>0.26862437765074682</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="9">
         <f t="shared" si="27"/>
         <v>0.41217735889471996</v>
       </c>
@@ -4191,11 +2874,11 @@
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
       <c r="BD38" s="3"/>
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
@@ -4208,7 +2891,7 @@
       <c r="BM38" s="3"/>
       <c r="BN38" s="3"/>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4257,11 +2940,11 @@
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
       <c r="BD39" s="3"/>
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
@@ -4274,7 +2957,7 @@
       <c r="BM39" s="3"/>
       <c r="BN39" s="3"/>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4323,11 +3006,11 @@
       <c r="AV40" s="3"/>
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
       <c r="BD40" s="3"/>
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
@@ -4340,7 +3023,7 @@
       <c r="BM40" s="3"/>
       <c r="BN40" s="3"/>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4389,11 +3072,11 @@
       <c r="AV41" s="3"/>
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6"/>
+      <c r="BC41" s="6"/>
       <c r="BD41" s="3"/>
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
@@ -4406,7 +3089,7 @@
       <c r="BM41" s="3"/>
       <c r="BN41" s="3"/>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4455,11 +3138,11 @@
       <c r="AV42" s="3"/>
       <c r="AW42" s="3"/>
       <c r="AX42" s="3"/>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
+      <c r="AY42" s="6"/>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="6"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="6"/>
       <c r="BD42" s="3"/>
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
@@ -4472,7 +3155,7 @@
       <c r="BM42" s="3"/>
       <c r="BN42" s="3"/>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4521,11 +3204,11 @@
       <c r="AV43" s="3"/>
       <c r="AW43" s="3"/>
       <c r="AX43" s="3"/>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="6"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
       <c r="BD43" s="3"/>
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
@@ -4538,7 +3221,7 @@
       <c r="BM43" s="3"/>
       <c r="BN43" s="3"/>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4587,11 +3270,11 @@
       <c r="AV44" s="3"/>
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="6"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
       <c r="BD44" s="3"/>
       <c r="BE44" s="3"/>
       <c r="BF44" s="3"/>
@@ -4604,7 +3287,7 @@
       <c r="BM44" s="3"/>
       <c r="BN44" s="3"/>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4653,11 +3336,11 @@
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="2"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
       <c r="BD45" s="3"/>
       <c r="BE45" s="3"/>
       <c r="BF45" s="3"/>
@@ -4670,7 +3353,7 @@
       <c r="BM45" s="3"/>
       <c r="BN45" s="3"/>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4719,11 +3402,11 @@
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="6"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="6"/>
       <c r="BD46" s="3"/>
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
@@ -4736,7 +3419,7 @@
       <c r="BM46" s="3"/>
       <c r="BN46" s="3"/>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4785,11 +3468,11 @@
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
       <c r="BD47" s="3"/>
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
@@ -4802,7 +3485,7 @@
       <c r="BM47" s="3"/>
       <c r="BN47" s="3"/>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:66" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4851,11 +3534,11 @@
       <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
       <c r="BF48" s="3"/>
@@ -4868,7 +3551,7 @@
       <c r="BM48" s="3"/>
       <c r="BN48" s="3"/>
     </row>
-    <row r="49" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4917,11 +3600,11 @@
       <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="6"/>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="6"/>
       <c r="BD49" s="3"/>
       <c r="BE49" s="3"/>
       <c r="BF49" s="3"/>
@@ -4934,7 +3617,7 @@
       <c r="BM49" s="3"/>
       <c r="BN49" s="3"/>
     </row>
-    <row r="50" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4983,11 +3666,11 @@
       <c r="AV50" s="3"/>
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
-      <c r="AY50" s="2"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="2"/>
+      <c r="AY50" s="6"/>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="6"/>
+      <c r="BB50" s="6"/>
+      <c r="BC50" s="6"/>
       <c r="BD50" s="3"/>
       <c r="BE50" s="3"/>
       <c r="BF50" s="3"/>
@@ -5000,7 +3683,7 @@
       <c r="BM50" s="3"/>
       <c r="BN50" s="3"/>
     </row>
-    <row r="51" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5049,11 +3732,11 @@
       <c r="AV51" s="3"/>
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="2"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="6"/>
+      <c r="BA51" s="6"/>
+      <c r="BB51" s="6"/>
+      <c r="BC51" s="6"/>
       <c r="BD51" s="3"/>
       <c r="BE51" s="3"/>
       <c r="BF51" s="3"/>
@@ -5066,7 +3749,7 @@
       <c r="BM51" s="3"/>
       <c r="BN51" s="3"/>
     </row>
-    <row r="52" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5115,11 +3798,11 @@
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
-      <c r="AY52" s="2"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="2"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
       <c r="BD52" s="3"/>
       <c r="BE52" s="3"/>
       <c r="BF52" s="3"/>
@@ -5132,7 +3815,7 @@
       <c r="BM52" s="3"/>
       <c r="BN52" s="3"/>
     </row>
-    <row r="53" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5181,11 +3864,11 @@
       <c r="AV53" s="3"/>
       <c r="AW53" s="3"/>
       <c r="AX53" s="3"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
       <c r="BD53" s="3"/>
       <c r="BE53" s="3"/>
       <c r="BF53" s="3"/>
@@ -5198,7 +3881,7 @@
       <c r="BM53" s="3"/>
       <c r="BN53" s="3"/>
     </row>
-    <row r="54" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5247,11 +3930,11 @@
       <c r="AV54" s="3"/>
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
+      <c r="AY54" s="6"/>
+      <c r="AZ54" s="6"/>
+      <c r="BA54" s="6"/>
+      <c r="BB54" s="6"/>
+      <c r="BC54" s="6"/>
       <c r="BD54" s="3"/>
       <c r="BE54" s="3"/>
       <c r="BF54" s="3"/>
@@ -5264,7 +3947,7 @@
       <c r="BM54" s="3"/>
       <c r="BN54" s="3"/>
     </row>
-    <row r="55" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5313,11 +3996,11 @@
       <c r="AV55" s="3"/>
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
-      <c r="AY55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+      <c r="BA55" s="6"/>
+      <c r="BB55" s="6"/>
+      <c r="BC55" s="6"/>
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
       <c r="BF55" s="3"/>
@@ -5330,7 +4013,7 @@
       <c r="BM55" s="3"/>
       <c r="BN55" s="3"/>
     </row>
-    <row r="56" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5379,11 +4062,11 @@
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
-      <c r="AY56" s="2"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
+      <c r="AY56" s="6"/>
+      <c r="AZ56" s="6"/>
+      <c r="BA56" s="6"/>
+      <c r="BB56" s="6"/>
+      <c r="BC56" s="6"/>
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
       <c r="BF56" s="3"/>
@@ -5396,7 +4079,7 @@
       <c r="BM56" s="3"/>
       <c r="BN56" s="3"/>
     </row>
-    <row r="57" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5445,11 +4128,11 @@
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
+      <c r="AY57" s="6"/>
+      <c r="AZ57" s="6"/>
+      <c r="BA57" s="6"/>
+      <c r="BB57" s="6"/>
+      <c r="BC57" s="6"/>
       <c r="BD57" s="3"/>
       <c r="BE57" s="3"/>
       <c r="BF57" s="3"/>
@@ -5462,7 +4145,7 @@
       <c r="BM57" s="3"/>
       <c r="BN57" s="3"/>
     </row>
-    <row r="58" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5511,11 +4194,11 @@
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
-      <c r="AY58" s="2"/>
-      <c r="AZ58" s="2"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="2"/>
-      <c r="BC58" s="2"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
       <c r="BD58" s="3"/>
       <c r="BE58" s="3"/>
       <c r="BF58" s="3"/>
@@ -5528,7 +4211,7 @@
       <c r="BM58" s="3"/>
       <c r="BN58" s="3"/>
     </row>
-    <row r="59" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5577,11 +4260,11 @@
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
-      <c r="AY59" s="2"/>
-      <c r="AZ59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="2"/>
-      <c r="BC59" s="2"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
       <c r="BD59" s="3"/>
       <c r="BE59" s="3"/>
       <c r="BF59" s="3"/>
@@ -5594,7 +4277,7 @@
       <c r="BM59" s="3"/>
       <c r="BN59" s="3"/>
     </row>
-    <row r="60" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5643,11 +4326,11 @@
       <c r="AV60" s="3"/>
       <c r="AW60" s="3"/>
       <c r="AX60" s="3"/>
-      <c r="AY60" s="2"/>
-      <c r="AZ60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="2"/>
+      <c r="AY60" s="6"/>
+      <c r="AZ60" s="6"/>
+      <c r="BA60" s="6"/>
+      <c r="BB60" s="6"/>
+      <c r="BC60" s="6"/>
       <c r="BD60" s="3"/>
       <c r="BE60" s="3"/>
       <c r="BF60" s="3"/>
@@ -5660,7 +4343,7 @@
       <c r="BM60" s="3"/>
       <c r="BN60" s="3"/>
     </row>
-    <row r="61" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5709,11 +4392,11 @@
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
-      <c r="AY61" s="2"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="2"/>
+      <c r="AY61" s="6"/>
+      <c r="AZ61" s="6"/>
+      <c r="BA61" s="6"/>
+      <c r="BB61" s="6"/>
+      <c r="BC61" s="6"/>
       <c r="BD61" s="3"/>
       <c r="BE61" s="3"/>
       <c r="BF61" s="3"/>
@@ -5726,7 +4409,7 @@
       <c r="BM61" s="3"/>
       <c r="BN61" s="3"/>
     </row>
-    <row r="62" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5775,11 +4458,11 @@
       <c r="AV62" s="3"/>
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
-      <c r="AY62" s="2"/>
-      <c r="AZ62" s="2"/>
-      <c r="BA62" s="2"/>
-      <c r="BB62" s="2"/>
-      <c r="BC62" s="2"/>
+      <c r="AY62" s="6"/>
+      <c r="AZ62" s="6"/>
+      <c r="BA62" s="6"/>
+      <c r="BB62" s="6"/>
+      <c r="BC62" s="6"/>
       <c r="BD62" s="3"/>
       <c r="BE62" s="3"/>
       <c r="BF62" s="3"/>
@@ -5792,7 +4475,7 @@
       <c r="BM62" s="3"/>
       <c r="BN62" s="3"/>
     </row>
-    <row r="63" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5841,11 +4524,11 @@
       <c r="AV63" s="3"/>
       <c r="AW63" s="3"/>
       <c r="AX63" s="3"/>
-      <c r="AY63" s="2"/>
-      <c r="AZ63" s="2"/>
-      <c r="BA63" s="2"/>
-      <c r="BB63" s="2"/>
-      <c r="BC63" s="2"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
       <c r="BD63" s="3"/>
       <c r="BE63" s="3"/>
       <c r="BF63" s="3"/>
@@ -5858,7 +4541,7 @@
       <c r="BM63" s="3"/>
       <c r="BN63" s="3"/>
     </row>
-    <row r="64" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5907,11 +4590,11 @@
       <c r="AV64" s="3"/>
       <c r="AW64" s="3"/>
       <c r="AX64" s="3"/>
-      <c r="AY64" s="2"/>
-      <c r="AZ64" s="2"/>
-      <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="2"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
       <c r="BD64" s="3"/>
       <c r="BE64" s="3"/>
       <c r="BF64" s="3"/>
@@ -5924,7 +4607,7 @@
       <c r="BM64" s="3"/>
       <c r="BN64" s="3"/>
     </row>
-    <row r="65" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5973,11 +4656,11 @@
       <c r="AV65" s="3"/>
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
-      <c r="AY65" s="2"/>
-      <c r="AZ65" s="2"/>
-      <c r="BA65" s="2"/>
-      <c r="BB65" s="2"/>
-      <c r="BC65" s="2"/>
+      <c r="AY65" s="6"/>
+      <c r="AZ65" s="6"/>
+      <c r="BA65" s="6"/>
+      <c r="BB65" s="6"/>
+      <c r="BC65" s="6"/>
       <c r="BD65" s="3"/>
       <c r="BE65" s="3"/>
       <c r="BF65" s="3"/>
@@ -5990,7 +4673,7 @@
       <c r="BM65" s="3"/>
       <c r="BN65" s="3"/>
     </row>
-    <row r="66" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6039,11 +4722,11 @@
       <c r="AV66" s="3"/>
       <c r="AW66" s="3"/>
       <c r="AX66" s="3"/>
-      <c r="AY66" s="2"/>
-      <c r="AZ66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
+      <c r="AY66" s="6"/>
+      <c r="AZ66" s="6"/>
+      <c r="BA66" s="6"/>
+      <c r="BB66" s="6"/>
+      <c r="BC66" s="6"/>
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3"/>
@@ -6056,7 +4739,7 @@
       <c r="BM66" s="3"/>
       <c r="BN66" s="3"/>
     </row>
-    <row r="67" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6105,11 +4788,11 @@
       <c r="AV67" s="3"/>
       <c r="AW67" s="3"/>
       <c r="AX67" s="3"/>
-      <c r="AY67" s="2"/>
-      <c r="AZ67" s="2"/>
-      <c r="BA67" s="2"/>
-      <c r="BB67" s="2"/>
-      <c r="BC67" s="2"/>
+      <c r="AY67" s="6"/>
+      <c r="AZ67" s="6"/>
+      <c r="BA67" s="6"/>
+      <c r="BB67" s="6"/>
+      <c r="BC67" s="6"/>
       <c r="BD67" s="3"/>
       <c r="BE67" s="3"/>
       <c r="BF67" s="3"/>
@@ -6122,7 +4805,7 @@
       <c r="BM67" s="3"/>
       <c r="BN67" s="3"/>
     </row>
-    <row r="68" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6171,11 +4854,11 @@
       <c r="AV68" s="3"/>
       <c r="AW68" s="3"/>
       <c r="AX68" s="3"/>
-      <c r="AY68" s="2"/>
-      <c r="AZ68" s="2"/>
-      <c r="BA68" s="2"/>
-      <c r="BB68" s="2"/>
-      <c r="BC68" s="2"/>
+      <c r="AY68" s="6"/>
+      <c r="AZ68" s="6"/>
+      <c r="BA68" s="6"/>
+      <c r="BB68" s="6"/>
+      <c r="BC68" s="6"/>
       <c r="BD68" s="3"/>
       <c r="BE68" s="3"/>
       <c r="BF68" s="3"/>
@@ -6188,7 +4871,7 @@
       <c r="BM68" s="3"/>
       <c r="BN68" s="3"/>
     </row>
-    <row r="69" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6237,11 +4920,11 @@
       <c r="AV69" s="3"/>
       <c r="AW69" s="3"/>
       <c r="AX69" s="3"/>
-      <c r="AY69" s="2"/>
-      <c r="AZ69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
-      <c r="BC69" s="2"/>
+      <c r="AY69" s="6"/>
+      <c r="AZ69" s="6"/>
+      <c r="BA69" s="6"/>
+      <c r="BB69" s="6"/>
+      <c r="BC69" s="6"/>
       <c r="BD69" s="3"/>
       <c r="BE69" s="3"/>
       <c r="BF69" s="3"/>
@@ -6254,7 +4937,7 @@
       <c r="BM69" s="3"/>
       <c r="BN69" s="3"/>
     </row>
-    <row r="70" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6303,11 +4986,11 @@
       <c r="AV70" s="3"/>
       <c r="AW70" s="3"/>
       <c r="AX70" s="3"/>
-      <c r="AY70" s="2"/>
-      <c r="AZ70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
+      <c r="AY70" s="6"/>
+      <c r="AZ70" s="6"/>
+      <c r="BA70" s="6"/>
+      <c r="BB70" s="6"/>
+      <c r="BC70" s="6"/>
       <c r="BD70" s="3"/>
       <c r="BE70" s="3"/>
       <c r="BF70" s="3"/>
@@ -6320,7 +5003,7 @@
       <c r="BM70" s="3"/>
       <c r="BN70" s="3"/>
     </row>
-    <row r="71" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6369,11 +5052,11 @@
       <c r="AV71" s="3"/>
       <c r="AW71" s="3"/>
       <c r="AX71" s="3"/>
-      <c r="AY71" s="2"/>
-      <c r="AZ71" s="2"/>
-      <c r="BA71" s="2"/>
-      <c r="BB71" s="2"/>
-      <c r="BC71" s="2"/>
+      <c r="AY71" s="6"/>
+      <c r="AZ71" s="6"/>
+      <c r="BA71" s="6"/>
+      <c r="BB71" s="6"/>
+      <c r="BC71" s="6"/>
       <c r="BD71" s="3"/>
       <c r="BE71" s="3"/>
       <c r="BF71" s="3"/>
@@ -6386,7 +5069,7 @@
       <c r="BM71" s="3"/>
       <c r="BN71" s="3"/>
     </row>
-    <row r="72" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6435,11 +5118,11 @@
       <c r="AV72" s="3"/>
       <c r="AW72" s="3"/>
       <c r="AX72" s="3"/>
-      <c r="AY72" s="2"/>
-      <c r="AZ72" s="2"/>
-      <c r="BA72" s="2"/>
-      <c r="BB72" s="2"/>
-      <c r="BC72" s="2"/>
+      <c r="AY72" s="6"/>
+      <c r="AZ72" s="6"/>
+      <c r="BA72" s="6"/>
+      <c r="BB72" s="6"/>
+      <c r="BC72" s="6"/>
       <c r="BD72" s="3"/>
       <c r="BE72" s="3"/>
       <c r="BF72" s="3"/>
@@ -6452,7 +5135,7 @@
       <c r="BM72" s="3"/>
       <c r="BN72" s="3"/>
     </row>
-    <row r="73" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6501,11 +5184,11 @@
       <c r="AV73" s="3"/>
       <c r="AW73" s="3"/>
       <c r="AX73" s="3"/>
-      <c r="AY73" s="2"/>
-      <c r="AZ73" s="2"/>
-      <c r="BA73" s="2"/>
-      <c r="BB73" s="2"/>
-      <c r="BC73" s="2"/>
+      <c r="AY73" s="6"/>
+      <c r="AZ73" s="6"/>
+      <c r="BA73" s="6"/>
+      <c r="BB73" s="6"/>
+      <c r="BC73" s="6"/>
       <c r="BD73" s="3"/>
       <c r="BE73" s="3"/>
       <c r="BF73" s="3"/>
@@ -6518,7 +5201,7 @@
       <c r="BM73" s="3"/>
       <c r="BN73" s="3"/>
     </row>
-    <row r="74" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6567,11 +5250,11 @@
       <c r="AV74" s="3"/>
       <c r="AW74" s="3"/>
       <c r="AX74" s="3"/>
-      <c r="AY74" s="2"/>
-      <c r="AZ74" s="2"/>
-      <c r="BA74" s="2"/>
-      <c r="BB74" s="2"/>
-      <c r="BC74" s="2"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="6"/>
+      <c r="BB74" s="6"/>
+      <c r="BC74" s="6"/>
       <c r="BD74" s="3"/>
       <c r="BE74" s="3"/>
       <c r="BF74" s="3"/>
@@ -6584,7 +5267,7 @@
       <c r="BM74" s="3"/>
       <c r="BN74" s="3"/>
     </row>
-    <row r="75" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6633,11 +5316,11 @@
       <c r="AV75" s="3"/>
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
-      <c r="AY75" s="2"/>
-      <c r="AZ75" s="2"/>
-      <c r="BA75" s="2"/>
-      <c r="BB75" s="2"/>
-      <c r="BC75" s="2"/>
+      <c r="AY75" s="6"/>
+      <c r="AZ75" s="6"/>
+      <c r="BA75" s="6"/>
+      <c r="BB75" s="6"/>
+      <c r="BC75" s="6"/>
       <c r="BD75" s="3"/>
       <c r="BE75" s="3"/>
       <c r="BF75" s="3"/>
@@ -6650,7 +5333,7 @@
       <c r="BM75" s="3"/>
       <c r="BN75" s="3"/>
     </row>
-    <row r="76" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6699,11 +5382,11 @@
       <c r="AV76" s="3"/>
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
-      <c r="AY76" s="2"/>
-      <c r="AZ76" s="2"/>
-      <c r="BA76" s="2"/>
-      <c r="BB76" s="2"/>
-      <c r="BC76" s="2"/>
+      <c r="AY76" s="6"/>
+      <c r="AZ76" s="6"/>
+      <c r="BA76" s="6"/>
+      <c r="BB76" s="6"/>
+      <c r="BC76" s="6"/>
       <c r="BD76" s="3"/>
       <c r="BE76" s="3"/>
       <c r="BF76" s="3"/>
@@ -6716,7 +5399,7 @@
       <c r="BM76" s="3"/>
       <c r="BN76" s="3"/>
     </row>
-    <row r="77" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6765,11 +5448,11 @@
       <c r="AV77" s="3"/>
       <c r="AW77" s="3"/>
       <c r="AX77" s="3"/>
-      <c r="AY77" s="2"/>
-      <c r="AZ77" s="2"/>
-      <c r="BA77" s="2"/>
-      <c r="BB77" s="2"/>
-      <c r="BC77" s="2"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="6"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" s="6"/>
+      <c r="BC77" s="6"/>
       <c r="BD77" s="3"/>
       <c r="BE77" s="3"/>
       <c r="BF77" s="3"/>
@@ -6782,7 +5465,7 @@
       <c r="BM77" s="3"/>
       <c r="BN77" s="3"/>
     </row>
-    <row r="78" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6831,11 +5514,11 @@
       <c r="AV78" s="3"/>
       <c r="AW78" s="3"/>
       <c r="AX78" s="3"/>
-      <c r="AY78" s="2"/>
-      <c r="AZ78" s="2"/>
-      <c r="BA78" s="2"/>
-      <c r="BB78" s="2"/>
-      <c r="BC78" s="2"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="6"/>
       <c r="BD78" s="3"/>
       <c r="BE78" s="3"/>
       <c r="BF78" s="3"/>
@@ -6848,7 +5531,7 @@
       <c r="BM78" s="3"/>
       <c r="BN78" s="3"/>
     </row>
-    <row r="79" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6897,11 +5580,11 @@
       <c r="AV79" s="3"/>
       <c r="AW79" s="3"/>
       <c r="AX79" s="3"/>
-      <c r="AY79" s="2"/>
-      <c r="AZ79" s="2"/>
-      <c r="BA79" s="2"/>
-      <c r="BB79" s="2"/>
-      <c r="BC79" s="2"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
       <c r="BD79" s="3"/>
       <c r="BE79" s="3"/>
       <c r="BF79" s="3"/>
@@ -6914,7 +5597,7 @@
       <c r="BM79" s="3"/>
       <c r="BN79" s="3"/>
     </row>
-    <row r="80" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6963,11 +5646,11 @@
       <c r="AV80" s="3"/>
       <c r="AW80" s="3"/>
       <c r="AX80" s="3"/>
-      <c r="AY80" s="2"/>
-      <c r="AZ80" s="2"/>
-      <c r="BA80" s="2"/>
-      <c r="BB80" s="2"/>
-      <c r="BC80" s="2"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
+      <c r="BA80" s="6"/>
+      <c r="BB80" s="6"/>
+      <c r="BC80" s="6"/>
       <c r="BD80" s="3"/>
       <c r="BE80" s="3"/>
       <c r="BF80" s="3"/>
@@ -6980,7 +5663,7 @@
       <c r="BM80" s="3"/>
       <c r="BN80" s="3"/>
     </row>
-    <row r="81" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7029,11 +5712,11 @@
       <c r="AV81" s="3"/>
       <c r="AW81" s="3"/>
       <c r="AX81" s="3"/>
-      <c r="AY81" s="2"/>
-      <c r="AZ81" s="2"/>
-      <c r="BA81" s="2"/>
-      <c r="BB81" s="2"/>
-      <c r="BC81" s="2"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
       <c r="BD81" s="3"/>
       <c r="BE81" s="3"/>
       <c r="BF81" s="3"/>
@@ -7046,7 +5729,7 @@
       <c r="BM81" s="3"/>
       <c r="BN81" s="3"/>
     </row>
-    <row r="82" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7095,11 +5778,11 @@
       <c r="AV82" s="3"/>
       <c r="AW82" s="3"/>
       <c r="AX82" s="3"/>
-      <c r="AY82" s="2"/>
-      <c r="AZ82" s="2"/>
-      <c r="BA82" s="2"/>
-      <c r="BB82" s="2"/>
-      <c r="BC82" s="2"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
       <c r="BD82" s="3"/>
       <c r="BE82" s="3"/>
       <c r="BF82" s="3"/>
@@ -7112,7 +5795,7 @@
       <c r="BM82" s="3"/>
       <c r="BN82" s="3"/>
     </row>
-    <row r="83" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7161,11 +5844,11 @@
       <c r="AV83" s="3"/>
       <c r="AW83" s="3"/>
       <c r="AX83" s="3"/>
-      <c r="AY83" s="2"/>
-      <c r="AZ83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
       <c r="BD83" s="3"/>
       <c r="BE83" s="3"/>
       <c r="BF83" s="3"/>
@@ -7178,7 +5861,7 @@
       <c r="BM83" s="3"/>
       <c r="BN83" s="3"/>
     </row>
-    <row r="84" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -7227,11 +5910,11 @@
       <c r="AV84" s="3"/>
       <c r="AW84" s="3"/>
       <c r="AX84" s="3"/>
-      <c r="AY84" s="2"/>
-      <c r="AZ84" s="2"/>
-      <c r="BA84" s="2"/>
-      <c r="BB84" s="2"/>
-      <c r="BC84" s="2"/>
+      <c r="AY84" s="6"/>
+      <c r="AZ84" s="6"/>
+      <c r="BA84" s="6"/>
+      <c r="BB84" s="6"/>
+      <c r="BC84" s="6"/>
       <c r="BD84" s="3"/>
       <c r="BE84" s="3"/>
       <c r="BF84" s="3"/>
@@ -7244,7 +5927,7 @@
       <c r="BM84" s="3"/>
       <c r="BN84" s="3"/>
     </row>
-    <row r="85" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -7293,11 +5976,11 @@
       <c r="AV85" s="3"/>
       <c r="AW85" s="3"/>
       <c r="AX85" s="3"/>
-      <c r="AY85" s="2"/>
-      <c r="AZ85" s="2"/>
-      <c r="BA85" s="2"/>
-      <c r="BB85" s="2"/>
-      <c r="BC85" s="2"/>
+      <c r="AY85" s="6"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="6"/>
+      <c r="BB85" s="6"/>
+      <c r="BC85" s="6"/>
       <c r="BD85" s="3"/>
       <c r="BE85" s="3"/>
       <c r="BF85" s="3"/>
@@ -7310,7 +5993,7 @@
       <c r="BM85" s="3"/>
       <c r="BN85" s="3"/>
     </row>
-    <row r="86" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -7359,11 +6042,11 @@
       <c r="AV86" s="3"/>
       <c r="AW86" s="3"/>
       <c r="AX86" s="3"/>
-      <c r="AY86" s="2"/>
-      <c r="AZ86" s="2"/>
-      <c r="BA86" s="2"/>
-      <c r="BB86" s="2"/>
-      <c r="BC86" s="2"/>
+      <c r="AY86" s="6"/>
+      <c r="AZ86" s="6"/>
+      <c r="BA86" s="6"/>
+      <c r="BB86" s="6"/>
+      <c r="BC86" s="6"/>
       <c r="BD86" s="3"/>
       <c r="BE86" s="3"/>
       <c r="BF86" s="3"/>
@@ -7376,7 +6059,7 @@
       <c r="BM86" s="3"/>
       <c r="BN86" s="3"/>
     </row>
-    <row r="87" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7425,11 +6108,11 @@
       <c r="AV87" s="3"/>
       <c r="AW87" s="3"/>
       <c r="AX87" s="3"/>
-      <c r="AY87" s="2"/>
-      <c r="AZ87" s="2"/>
-      <c r="BA87" s="2"/>
-      <c r="BB87" s="2"/>
-      <c r="BC87" s="2"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
       <c r="BD87" s="3"/>
       <c r="BE87" s="3"/>
       <c r="BF87" s="3"/>
@@ -7442,7 +6125,7 @@
       <c r="BM87" s="3"/>
       <c r="BN87" s="3"/>
     </row>
-    <row r="88" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7491,11 +6174,11 @@
       <c r="AV88" s="3"/>
       <c r="AW88" s="3"/>
       <c r="AX88" s="3"/>
-      <c r="AY88" s="2"/>
-      <c r="AZ88" s="2"/>
-      <c r="BA88" s="2"/>
-      <c r="BB88" s="2"/>
-      <c r="BC88" s="2"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="6"/>
+      <c r="BA88" s="6"/>
+      <c r="BB88" s="6"/>
+      <c r="BC88" s="6"/>
       <c r="BD88" s="3"/>
       <c r="BE88" s="3"/>
       <c r="BF88" s="3"/>
@@ -7508,7 +6191,7 @@
       <c r="BM88" s="3"/>
       <c r="BN88" s="3"/>
     </row>
-    <row r="89" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7557,11 +6240,11 @@
       <c r="AV89" s="3"/>
       <c r="AW89" s="3"/>
       <c r="AX89" s="3"/>
-      <c r="AY89" s="2"/>
-      <c r="AZ89" s="2"/>
-      <c r="BA89" s="2"/>
-      <c r="BB89" s="2"/>
-      <c r="BC89" s="2"/>
+      <c r="AY89" s="6"/>
+      <c r="AZ89" s="6"/>
+      <c r="BA89" s="6"/>
+      <c r="BB89" s="6"/>
+      <c r="BC89" s="6"/>
       <c r="BD89" s="3"/>
       <c r="BE89" s="3"/>
       <c r="BF89" s="3"/>
@@ -7574,7 +6257,7 @@
       <c r="BM89" s="3"/>
       <c r="BN89" s="3"/>
     </row>
-    <row r="90" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7623,11 +6306,11 @@
       <c r="AV90" s="3"/>
       <c r="AW90" s="3"/>
       <c r="AX90" s="3"/>
-      <c r="AY90" s="2"/>
-      <c r="AZ90" s="2"/>
-      <c r="BA90" s="2"/>
-      <c r="BB90" s="2"/>
-      <c r="BC90" s="2"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+      <c r="BA90" s="6"/>
+      <c r="BB90" s="6"/>
+      <c r="BC90" s="6"/>
       <c r="BD90" s="3"/>
       <c r="BE90" s="3"/>
       <c r="BF90" s="3"/>
@@ -7640,7 +6323,7 @@
       <c r="BM90" s="3"/>
       <c r="BN90" s="3"/>
     </row>
-    <row r="91" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7689,11 +6372,11 @@
       <c r="AV91" s="3"/>
       <c r="AW91" s="3"/>
       <c r="AX91" s="3"/>
-      <c r="AY91" s="2"/>
-      <c r="AZ91" s="2"/>
-      <c r="BA91" s="2"/>
-      <c r="BB91" s="2"/>
-      <c r="BC91" s="2"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="6"/>
+      <c r="BB91" s="6"/>
+      <c r="BC91" s="6"/>
       <c r="BD91" s="3"/>
       <c r="BE91" s="3"/>
       <c r="BF91" s="3"/>
@@ -7706,7 +6389,7 @@
       <c r="BM91" s="3"/>
       <c r="BN91" s="3"/>
     </row>
-    <row r="92" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7755,11 +6438,11 @@
       <c r="AV92" s="3"/>
       <c r="AW92" s="3"/>
       <c r="AX92" s="3"/>
-      <c r="AY92" s="2"/>
-      <c r="AZ92" s="2"/>
-      <c r="BA92" s="2"/>
-      <c r="BB92" s="2"/>
-      <c r="BC92" s="2"/>
+      <c r="AY92" s="6"/>
+      <c r="AZ92" s="6"/>
+      <c r="BA92" s="6"/>
+      <c r="BB92" s="6"/>
+      <c r="BC92" s="6"/>
       <c r="BD92" s="3"/>
       <c r="BE92" s="3"/>
       <c r="BF92" s="3"/>
@@ -7772,7 +6455,7 @@
       <c r="BM92" s="3"/>
       <c r="BN92" s="3"/>
     </row>
-    <row r="93" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -7821,11 +6504,11 @@
       <c r="AV93" s="3"/>
       <c r="AW93" s="3"/>
       <c r="AX93" s="3"/>
-      <c r="AY93" s="2"/>
-      <c r="AZ93" s="2"/>
-      <c r="BA93" s="2"/>
-      <c r="BB93" s="2"/>
-      <c r="BC93" s="2"/>
+      <c r="AY93" s="6"/>
+      <c r="AZ93" s="6"/>
+      <c r="BA93" s="6"/>
+      <c r="BB93" s="6"/>
+      <c r="BC93" s="6"/>
       <c r="BD93" s="3"/>
       <c r="BE93" s="3"/>
       <c r="BF93" s="3"/>
@@ -7838,7 +6521,7 @@
       <c r="BM93" s="3"/>
       <c r="BN93" s="3"/>
     </row>
-    <row r="94" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -7887,11 +6570,11 @@
       <c r="AV94" s="3"/>
       <c r="AW94" s="3"/>
       <c r="AX94" s="3"/>
-      <c r="AY94" s="2"/>
-      <c r="AZ94" s="2"/>
-      <c r="BA94" s="2"/>
-      <c r="BB94" s="2"/>
-      <c r="BC94" s="2"/>
+      <c r="AY94" s="6"/>
+      <c r="AZ94" s="6"/>
+      <c r="BA94" s="6"/>
+      <c r="BB94" s="6"/>
+      <c r="BC94" s="6"/>
       <c r="BD94" s="3"/>
       <c r="BE94" s="3"/>
       <c r="BF94" s="3"/>
@@ -7904,7 +6587,7 @@
       <c r="BM94" s="3"/>
       <c r="BN94" s="3"/>
     </row>
-    <row r="95" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -7953,11 +6636,11 @@
       <c r="AV95" s="3"/>
       <c r="AW95" s="3"/>
       <c r="AX95" s="3"/>
-      <c r="AY95" s="2"/>
-      <c r="AZ95" s="2"/>
-      <c r="BA95" s="2"/>
-      <c r="BB95" s="2"/>
-      <c r="BC95" s="2"/>
+      <c r="AY95" s="6"/>
+      <c r="AZ95" s="6"/>
+      <c r="BA95" s="6"/>
+      <c r="BB95" s="6"/>
+      <c r="BC95" s="6"/>
       <c r="BD95" s="3"/>
       <c r="BE95" s="3"/>
       <c r="BF95" s="3"/>
@@ -7970,7 +6653,7 @@
       <c r="BM95" s="3"/>
       <c r="BN95" s="3"/>
     </row>
-    <row r="96" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8019,11 +6702,11 @@
       <c r="AV96" s="3"/>
       <c r="AW96" s="3"/>
       <c r="AX96" s="3"/>
-      <c r="AY96" s="2"/>
-      <c r="AZ96" s="2"/>
-      <c r="BA96" s="2"/>
-      <c r="BB96" s="2"/>
-      <c r="BC96" s="2"/>
+      <c r="AY96" s="6"/>
+      <c r="AZ96" s="6"/>
+      <c r="BA96" s="6"/>
+      <c r="BB96" s="6"/>
+      <c r="BC96" s="6"/>
       <c r="BD96" s="3"/>
       <c r="BE96" s="3"/>
       <c r="BF96" s="3"/>
@@ -8036,7 +6719,7 @@
       <c r="BM96" s="3"/>
       <c r="BN96" s="3"/>
     </row>
-    <row r="97" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8085,11 +6768,11 @@
       <c r="AV97" s="3"/>
       <c r="AW97" s="3"/>
       <c r="AX97" s="3"/>
-      <c r="AY97" s="2"/>
-      <c r="AZ97" s="2"/>
-      <c r="BA97" s="2"/>
-      <c r="BB97" s="2"/>
-      <c r="BC97" s="2"/>
+      <c r="AY97" s="6"/>
+      <c r="AZ97" s="6"/>
+      <c r="BA97" s="6"/>
+      <c r="BB97" s="6"/>
+      <c r="BC97" s="6"/>
       <c r="BD97" s="3"/>
       <c r="BE97" s="3"/>
       <c r="BF97" s="3"/>
@@ -8102,7 +6785,7 @@
       <c r="BM97" s="3"/>
       <c r="BN97" s="3"/>
     </row>
-    <row r="98" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8151,11 +6834,11 @@
       <c r="AV98" s="3"/>
       <c r="AW98" s="3"/>
       <c r="AX98" s="3"/>
-      <c r="AY98" s="2"/>
-      <c r="AZ98" s="2"/>
-      <c r="BA98" s="2"/>
-      <c r="BB98" s="2"/>
-      <c r="BC98" s="2"/>
+      <c r="AY98" s="6"/>
+      <c r="AZ98" s="6"/>
+      <c r="BA98" s="6"/>
+      <c r="BB98" s="6"/>
+      <c r="BC98" s="6"/>
       <c r="BD98" s="3"/>
       <c r="BE98" s="3"/>
       <c r="BF98" s="3"/>
@@ -8168,7 +6851,7 @@
       <c r="BM98" s="3"/>
       <c r="BN98" s="3"/>
     </row>
-    <row r="99" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8217,11 +6900,11 @@
       <c r="AV99" s="3"/>
       <c r="AW99" s="3"/>
       <c r="AX99" s="3"/>
-      <c r="AY99" s="2"/>
-      <c r="AZ99" s="2"/>
-      <c r="BA99" s="2"/>
-      <c r="BB99" s="2"/>
-      <c r="BC99" s="2"/>
+      <c r="AY99" s="6"/>
+      <c r="AZ99" s="6"/>
+      <c r="BA99" s="6"/>
+      <c r="BB99" s="6"/>
+      <c r="BC99" s="6"/>
       <c r="BD99" s="3"/>
       <c r="BE99" s="3"/>
       <c r="BF99" s="3"/>
@@ -8234,7 +6917,7 @@
       <c r="BM99" s="3"/>
       <c r="BN99" s="3"/>
     </row>
-    <row r="100" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8283,11 +6966,11 @@
       <c r="AV100" s="3"/>
       <c r="AW100" s="3"/>
       <c r="AX100" s="3"/>
-      <c r="AY100" s="2"/>
-      <c r="AZ100" s="2"/>
-      <c r="BA100" s="2"/>
-      <c r="BB100" s="2"/>
-      <c r="BC100" s="2"/>
+      <c r="AY100" s="6"/>
+      <c r="AZ100" s="6"/>
+      <c r="BA100" s="6"/>
+      <c r="BB100" s="6"/>
+      <c r="BC100" s="6"/>
       <c r="BD100" s="3"/>
       <c r="BE100" s="3"/>
       <c r="BF100" s="3"/>
@@ -8300,7 +6983,7 @@
       <c r="BM100" s="3"/>
       <c r="BN100" s="3"/>
     </row>
-    <row r="101" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -8349,11 +7032,11 @@
       <c r="AV101" s="3"/>
       <c r="AW101" s="3"/>
       <c r="AX101" s="3"/>
-      <c r="AY101" s="2"/>
-      <c r="AZ101" s="2"/>
-      <c r="BA101" s="2"/>
-      <c r="BB101" s="2"/>
-      <c r="BC101" s="2"/>
+      <c r="AY101" s="6"/>
+      <c r="AZ101" s="6"/>
+      <c r="BA101" s="6"/>
+      <c r="BB101" s="6"/>
+      <c r="BC101" s="6"/>
       <c r="BD101" s="3"/>
       <c r="BE101" s="3"/>
       <c r="BF101" s="3"/>
@@ -8366,7 +7049,7 @@
       <c r="BM101" s="3"/>
       <c r="BN101" s="3"/>
     </row>
-    <row r="102" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8415,11 +7098,11 @@
       <c r="AV102" s="3"/>
       <c r="AW102" s="3"/>
       <c r="AX102" s="3"/>
-      <c r="AY102" s="2"/>
-      <c r="AZ102" s="2"/>
-      <c r="BA102" s="2"/>
-      <c r="BB102" s="2"/>
-      <c r="BC102" s="2"/>
+      <c r="AY102" s="6"/>
+      <c r="AZ102" s="6"/>
+      <c r="BA102" s="6"/>
+      <c r="BB102" s="6"/>
+      <c r="BC102" s="6"/>
       <c r="BD102" s="3"/>
       <c r="BE102" s="3"/>
       <c r="BF102" s="3"/>
@@ -8432,7 +7115,7 @@
       <c r="BM102" s="3"/>
       <c r="BN102" s="3"/>
     </row>
-    <row r="103" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8481,11 +7164,11 @@
       <c r="AV103" s="3"/>
       <c r="AW103" s="3"/>
       <c r="AX103" s="3"/>
-      <c r="AY103" s="2"/>
-      <c r="AZ103" s="2"/>
-      <c r="BA103" s="2"/>
-      <c r="BB103" s="2"/>
-      <c r="BC103" s="2"/>
+      <c r="AY103" s="6"/>
+      <c r="AZ103" s="6"/>
+      <c r="BA103" s="6"/>
+      <c r="BB103" s="6"/>
+      <c r="BC103" s="6"/>
       <c r="BD103" s="3"/>
       <c r="BE103" s="3"/>
       <c r="BF103" s="3"/>
@@ -8498,7 +7181,7 @@
       <c r="BM103" s="3"/>
       <c r="BN103" s="3"/>
     </row>
-    <row r="104" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8547,11 +7230,11 @@
       <c r="AV104" s="3"/>
       <c r="AW104" s="3"/>
       <c r="AX104" s="3"/>
-      <c r="AY104" s="2"/>
-      <c r="AZ104" s="2"/>
-      <c r="BA104" s="2"/>
-      <c r="BB104" s="2"/>
-      <c r="BC104" s="2"/>
+      <c r="AY104" s="6"/>
+      <c r="AZ104" s="6"/>
+      <c r="BA104" s="6"/>
+      <c r="BB104" s="6"/>
+      <c r="BC104" s="6"/>
       <c r="BD104" s="3"/>
       <c r="BE104" s="3"/>
       <c r="BF104" s="3"/>
@@ -8564,7 +7247,7 @@
       <c r="BM104" s="3"/>
       <c r="BN104" s="3"/>
     </row>
-    <row r="105" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8613,11 +7296,11 @@
       <c r="AV105" s="3"/>
       <c r="AW105" s="3"/>
       <c r="AX105" s="3"/>
-      <c r="AY105" s="2"/>
-      <c r="AZ105" s="2"/>
-      <c r="BA105" s="2"/>
-      <c r="BB105" s="2"/>
-      <c r="BC105" s="2"/>
+      <c r="AY105" s="6"/>
+      <c r="AZ105" s="6"/>
+      <c r="BA105" s="6"/>
+      <c r="BB105" s="6"/>
+      <c r="BC105" s="6"/>
       <c r="BD105" s="3"/>
       <c r="BE105" s="3"/>
       <c r="BF105" s="3"/>
@@ -8630,7 +7313,7 @@
       <c r="BM105" s="3"/>
       <c r="BN105" s="3"/>
     </row>
-    <row r="106" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8679,11 +7362,11 @@
       <c r="AV106" s="3"/>
       <c r="AW106" s="3"/>
       <c r="AX106" s="3"/>
-      <c r="AY106" s="2"/>
-      <c r="AZ106" s="2"/>
-      <c r="BA106" s="2"/>
-      <c r="BB106" s="2"/>
-      <c r="BC106" s="2"/>
+      <c r="AY106" s="6"/>
+      <c r="AZ106" s="6"/>
+      <c r="BA106" s="6"/>
+      <c r="BB106" s="6"/>
+      <c r="BC106" s="6"/>
       <c r="BD106" s="3"/>
       <c r="BE106" s="3"/>
       <c r="BF106" s="3"/>
@@ -8696,7 +7379,7 @@
       <c r="BM106" s="3"/>
       <c r="BN106" s="3"/>
     </row>
-    <row r="107" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8745,11 +7428,11 @@
       <c r="AV107" s="3"/>
       <c r="AW107" s="3"/>
       <c r="AX107" s="3"/>
-      <c r="AY107" s="2"/>
-      <c r="AZ107" s="2"/>
-      <c r="BA107" s="2"/>
-      <c r="BB107" s="2"/>
-      <c r="BC107" s="2"/>
+      <c r="AY107" s="6"/>
+      <c r="AZ107" s="6"/>
+      <c r="BA107" s="6"/>
+      <c r="BB107" s="6"/>
+      <c r="BC107" s="6"/>
       <c r="BD107" s="3"/>
       <c r="BE107" s="3"/>
       <c r="BF107" s="3"/>
@@ -8762,7 +7445,7 @@
       <c r="BM107" s="3"/>
       <c r="BN107" s="3"/>
     </row>
-    <row r="108" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -8811,11 +7494,11 @@
       <c r="AV108" s="3"/>
       <c r="AW108" s="3"/>
       <c r="AX108" s="3"/>
-      <c r="AY108" s="2"/>
-      <c r="AZ108" s="2"/>
-      <c r="BA108" s="2"/>
-      <c r="BB108" s="2"/>
-      <c r="BC108" s="2"/>
+      <c r="AY108" s="6"/>
+      <c r="AZ108" s="6"/>
+      <c r="BA108" s="6"/>
+      <c r="BB108" s="6"/>
+      <c r="BC108" s="6"/>
       <c r="BD108" s="3"/>
       <c r="BE108" s="3"/>
       <c r="BF108" s="3"/>
@@ -8828,7 +7511,7 @@
       <c r="BM108" s="3"/>
       <c r="BN108" s="3"/>
     </row>
-    <row r="109" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -8877,11 +7560,11 @@
       <c r="AV109" s="3"/>
       <c r="AW109" s="3"/>
       <c r="AX109" s="3"/>
-      <c r="AY109" s="2"/>
-      <c r="AZ109" s="2"/>
-      <c r="BA109" s="2"/>
-      <c r="BB109" s="2"/>
-      <c r="BC109" s="2"/>
+      <c r="AY109" s="6"/>
+      <c r="AZ109" s="6"/>
+      <c r="BA109" s="6"/>
+      <c r="BB109" s="6"/>
+      <c r="BC109" s="6"/>
       <c r="BD109" s="3"/>
       <c r="BE109" s="3"/>
       <c r="BF109" s="3"/>
@@ -8894,7 +7577,7 @@
       <c r="BM109" s="3"/>
       <c r="BN109" s="3"/>
     </row>
-    <row r="110" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -8943,11 +7626,11 @@
       <c r="AV110" s="3"/>
       <c r="AW110" s="3"/>
       <c r="AX110" s="3"/>
-      <c r="AY110" s="2"/>
-      <c r="AZ110" s="2"/>
-      <c r="BA110" s="2"/>
-      <c r="BB110" s="2"/>
-      <c r="BC110" s="2"/>
+      <c r="AY110" s="6"/>
+      <c r="AZ110" s="6"/>
+      <c r="BA110" s="6"/>
+      <c r="BB110" s="6"/>
+      <c r="BC110" s="6"/>
       <c r="BD110" s="3"/>
       <c r="BE110" s="3"/>
       <c r="BF110" s="3"/>
@@ -8960,7 +7643,7 @@
       <c r="BM110" s="3"/>
       <c r="BN110" s="3"/>
     </row>
-    <row r="111" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9009,11 +7692,11 @@
       <c r="AV111" s="3"/>
       <c r="AW111" s="3"/>
       <c r="AX111" s="3"/>
-      <c r="AY111" s="2"/>
-      <c r="AZ111" s="2"/>
-      <c r="BA111" s="2"/>
-      <c r="BB111" s="2"/>
-      <c r="BC111" s="2"/>
+      <c r="AY111" s="6"/>
+      <c r="AZ111" s="6"/>
+      <c r="BA111" s="6"/>
+      <c r="BB111" s="6"/>
+      <c r="BC111" s="6"/>
       <c r="BD111" s="3"/>
       <c r="BE111" s="3"/>
       <c r="BF111" s="3"/>
@@ -9026,7 +7709,7 @@
       <c r="BM111" s="3"/>
       <c r="BN111" s="3"/>
     </row>
-    <row r="112" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -9075,11 +7758,11 @@
       <c r="AV112" s="3"/>
       <c r="AW112" s="3"/>
       <c r="AX112" s="3"/>
-      <c r="AY112" s="2"/>
-      <c r="AZ112" s="2"/>
-      <c r="BA112" s="2"/>
-      <c r="BB112" s="2"/>
-      <c r="BC112" s="2"/>
+      <c r="AY112" s="6"/>
+      <c r="AZ112" s="6"/>
+      <c r="BA112" s="6"/>
+      <c r="BB112" s="6"/>
+      <c r="BC112" s="6"/>
       <c r="BD112" s="3"/>
       <c r="BE112" s="3"/>
       <c r="BF112" s="3"/>
@@ -9092,7 +7775,7 @@
       <c r="BM112" s="3"/>
       <c r="BN112" s="3"/>
     </row>
-    <row r="113" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -9141,11 +7824,11 @@
       <c r="AV113" s="3"/>
       <c r="AW113" s="3"/>
       <c r="AX113" s="3"/>
-      <c r="AY113" s="2"/>
-      <c r="AZ113" s="2"/>
-      <c r="BA113" s="2"/>
-      <c r="BB113" s="2"/>
-      <c r="BC113" s="2"/>
+      <c r="AY113" s="6"/>
+      <c r="AZ113" s="6"/>
+      <c r="BA113" s="6"/>
+      <c r="BB113" s="6"/>
+      <c r="BC113" s="6"/>
       <c r="BD113" s="3"/>
       <c r="BE113" s="3"/>
       <c r="BF113" s="3"/>
@@ -9158,7 +7841,7 @@
       <c r="BM113" s="3"/>
       <c r="BN113" s="3"/>
     </row>
-    <row r="114" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -9207,11 +7890,11 @@
       <c r="AV114" s="3"/>
       <c r="AW114" s="3"/>
       <c r="AX114" s="3"/>
-      <c r="AY114" s="2"/>
-      <c r="AZ114" s="2"/>
-      <c r="BA114" s="2"/>
-      <c r="BB114" s="2"/>
-      <c r="BC114" s="2"/>
+      <c r="AY114" s="6"/>
+      <c r="AZ114" s="6"/>
+      <c r="BA114" s="6"/>
+      <c r="BB114" s="6"/>
+      <c r="BC114" s="6"/>
       <c r="BD114" s="3"/>
       <c r="BE114" s="3"/>
       <c r="BF114" s="3"/>
@@ -9224,7 +7907,7 @@
       <c r="BM114" s="3"/>
       <c r="BN114" s="3"/>
     </row>
-    <row r="115" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -9273,11 +7956,11 @@
       <c r="AV115" s="3"/>
       <c r="AW115" s="3"/>
       <c r="AX115" s="3"/>
-      <c r="AY115" s="2"/>
-      <c r="AZ115" s="2"/>
-      <c r="BA115" s="2"/>
-      <c r="BB115" s="2"/>
-      <c r="BC115" s="2"/>
+      <c r="AY115" s="6"/>
+      <c r="AZ115" s="6"/>
+      <c r="BA115" s="6"/>
+      <c r="BB115" s="6"/>
+      <c r="BC115" s="6"/>
       <c r="BD115" s="3"/>
       <c r="BE115" s="3"/>
       <c r="BF115" s="3"/>
@@ -9290,7 +7973,7 @@
       <c r="BM115" s="3"/>
       <c r="BN115" s="3"/>
     </row>
-    <row r="116" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -9339,11 +8022,11 @@
       <c r="AV116" s="3"/>
       <c r="AW116" s="3"/>
       <c r="AX116" s="3"/>
-      <c r="AY116" s="2"/>
-      <c r="AZ116" s="2"/>
-      <c r="BA116" s="2"/>
-      <c r="BB116" s="2"/>
-      <c r="BC116" s="2"/>
+      <c r="AY116" s="6"/>
+      <c r="AZ116" s="6"/>
+      <c r="BA116" s="6"/>
+      <c r="BB116" s="6"/>
+      <c r="BC116" s="6"/>
       <c r="BD116" s="3"/>
       <c r="BE116" s="3"/>
       <c r="BF116" s="3"/>
@@ -9356,7 +8039,7 @@
       <c r="BM116" s="3"/>
       <c r="BN116" s="3"/>
     </row>
-    <row r="117" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -9405,11 +8088,11 @@
       <c r="AV117" s="3"/>
       <c r="AW117" s="3"/>
       <c r="AX117" s="3"/>
-      <c r="AY117" s="2"/>
-      <c r="AZ117" s="2"/>
-      <c r="BA117" s="2"/>
-      <c r="BB117" s="2"/>
-      <c r="BC117" s="2"/>
+      <c r="AY117" s="6"/>
+      <c r="AZ117" s="6"/>
+      <c r="BA117" s="6"/>
+      <c r="BB117" s="6"/>
+      <c r="BC117" s="6"/>
       <c r="BD117" s="3"/>
       <c r="BE117" s="3"/>
       <c r="BF117" s="3"/>
@@ -9422,7 +8105,7 @@
       <c r="BM117" s="3"/>
       <c r="BN117" s="3"/>
     </row>
-    <row r="118" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -9471,11 +8154,11 @@
       <c r="AV118" s="3"/>
       <c r="AW118" s="3"/>
       <c r="AX118" s="3"/>
-      <c r="AY118" s="2"/>
-      <c r="AZ118" s="2"/>
-      <c r="BA118" s="2"/>
-      <c r="BB118" s="2"/>
-      <c r="BC118" s="2"/>
+      <c r="AY118" s="6"/>
+      <c r="AZ118" s="6"/>
+      <c r="BA118" s="6"/>
+      <c r="BB118" s="6"/>
+      <c r="BC118" s="6"/>
       <c r="BD118" s="3"/>
       <c r="BE118" s="3"/>
       <c r="BF118" s="3"/>
@@ -9488,7 +8171,7 @@
       <c r="BM118" s="3"/>
       <c r="BN118" s="3"/>
     </row>
-    <row r="119" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9537,11 +8220,11 @@
       <c r="AV119" s="3"/>
       <c r="AW119" s="3"/>
       <c r="AX119" s="3"/>
-      <c r="AY119" s="2"/>
-      <c r="AZ119" s="2"/>
-      <c r="BA119" s="2"/>
-      <c r="BB119" s="2"/>
-      <c r="BC119" s="2"/>
+      <c r="AY119" s="6"/>
+      <c r="AZ119" s="6"/>
+      <c r="BA119" s="6"/>
+      <c r="BB119" s="6"/>
+      <c r="BC119" s="6"/>
       <c r="BD119" s="3"/>
       <c r="BE119" s="3"/>
       <c r="BF119" s="3"/>
@@ -9554,7 +8237,7 @@
       <c r="BM119" s="3"/>
       <c r="BN119" s="3"/>
     </row>
-    <row r="120" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -9603,11 +8286,11 @@
       <c r="AV120" s="3"/>
       <c r="AW120" s="3"/>
       <c r="AX120" s="3"/>
-      <c r="AY120" s="2"/>
-      <c r="AZ120" s="2"/>
-      <c r="BA120" s="2"/>
-      <c r="BB120" s="2"/>
-      <c r="BC120" s="2"/>
+      <c r="AY120" s="6"/>
+      <c r="AZ120" s="6"/>
+      <c r="BA120" s="6"/>
+      <c r="BB120" s="6"/>
+      <c r="BC120" s="6"/>
       <c r="BD120" s="3"/>
       <c r="BE120" s="3"/>
       <c r="BF120" s="3"/>
@@ -9620,7 +8303,7 @@
       <c r="BM120" s="3"/>
       <c r="BN120" s="3"/>
     </row>
-    <row r="121" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -9669,11 +8352,11 @@
       <c r="AV121" s="3"/>
       <c r="AW121" s="3"/>
       <c r="AX121" s="3"/>
-      <c r="AY121" s="2"/>
-      <c r="AZ121" s="2"/>
-      <c r="BA121" s="2"/>
-      <c r="BB121" s="2"/>
-      <c r="BC121" s="2"/>
+      <c r="AY121" s="6"/>
+      <c r="AZ121" s="6"/>
+      <c r="BA121" s="6"/>
+      <c r="BB121" s="6"/>
+      <c r="BC121" s="6"/>
       <c r="BD121" s="3"/>
       <c r="BE121" s="3"/>
       <c r="BF121" s="3"/>
@@ -9686,7 +8369,7 @@
       <c r="BM121" s="3"/>
       <c r="BN121" s="3"/>
     </row>
-    <row r="122" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -9735,11 +8418,11 @@
       <c r="AV122" s="3"/>
       <c r="AW122" s="3"/>
       <c r="AX122" s="3"/>
-      <c r="AY122" s="2"/>
-      <c r="AZ122" s="2"/>
-      <c r="BA122" s="2"/>
-      <c r="BB122" s="2"/>
-      <c r="BC122" s="2"/>
+      <c r="AY122" s="6"/>
+      <c r="AZ122" s="6"/>
+      <c r="BA122" s="6"/>
+      <c r="BB122" s="6"/>
+      <c r="BC122" s="6"/>
       <c r="BD122" s="3"/>
       <c r="BE122" s="3"/>
       <c r="BF122" s="3"/>
@@ -9752,7 +8435,7 @@
       <c r="BM122" s="3"/>
       <c r="BN122" s="3"/>
     </row>
-    <row r="123" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -9801,11 +8484,11 @@
       <c r="AV123" s="3"/>
       <c r="AW123" s="3"/>
       <c r="AX123" s="3"/>
-      <c r="AY123" s="2"/>
-      <c r="AZ123" s="2"/>
-      <c r="BA123" s="2"/>
-      <c r="BB123" s="2"/>
-      <c r="BC123" s="2"/>
+      <c r="AY123" s="6"/>
+      <c r="AZ123" s="6"/>
+      <c r="BA123" s="6"/>
+      <c r="BB123" s="6"/>
+      <c r="BC123" s="6"/>
       <c r="BD123" s="3"/>
       <c r="BE123" s="3"/>
       <c r="BF123" s="3"/>
@@ -9818,7 +8501,7 @@
       <c r="BM123" s="3"/>
       <c r="BN123" s="3"/>
     </row>
-    <row r="124" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -9867,11 +8550,11 @@
       <c r="AV124" s="3"/>
       <c r="AW124" s="3"/>
       <c r="AX124" s="3"/>
-      <c r="AY124" s="2"/>
-      <c r="AZ124" s="2"/>
-      <c r="BA124" s="2"/>
-      <c r="BB124" s="2"/>
-      <c r="BC124" s="2"/>
+      <c r="AY124" s="6"/>
+      <c r="AZ124" s="6"/>
+      <c r="BA124" s="6"/>
+      <c r="BB124" s="6"/>
+      <c r="BC124" s="6"/>
       <c r="BD124" s="3"/>
       <c r="BE124" s="3"/>
       <c r="BF124" s="3"/>
@@ -9884,7 +8567,7 @@
       <c r="BM124" s="3"/>
       <c r="BN124" s="3"/>
     </row>
-    <row r="125" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -9933,11 +8616,11 @@
       <c r="AV125" s="3"/>
       <c r="AW125" s="3"/>
       <c r="AX125" s="3"/>
-      <c r="AY125" s="2"/>
-      <c r="AZ125" s="2"/>
-      <c r="BA125" s="2"/>
-      <c r="BB125" s="2"/>
-      <c r="BC125" s="2"/>
+      <c r="AY125" s="6"/>
+      <c r="AZ125" s="6"/>
+      <c r="BA125" s="6"/>
+      <c r="BB125" s="6"/>
+      <c r="BC125" s="6"/>
       <c r="BD125" s="3"/>
       <c r="BE125" s="3"/>
       <c r="BF125" s="3"/>
@@ -9950,7 +8633,7 @@
       <c r="BM125" s="3"/>
       <c r="BN125" s="3"/>
     </row>
-    <row r="126" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -9999,11 +8682,11 @@
       <c r="AV126" s="3"/>
       <c r="AW126" s="3"/>
       <c r="AX126" s="3"/>
-      <c r="AY126" s="2"/>
-      <c r="AZ126" s="2"/>
-      <c r="BA126" s="2"/>
-      <c r="BB126" s="2"/>
-      <c r="BC126" s="2"/>
+      <c r="AY126" s="6"/>
+      <c r="AZ126" s="6"/>
+      <c r="BA126" s="6"/>
+      <c r="BB126" s="6"/>
+      <c r="BC126" s="6"/>
       <c r="BD126" s="3"/>
       <c r="BE126" s="3"/>
       <c r="BF126" s="3"/>
@@ -10016,7 +8699,7 @@
       <c r="BM126" s="3"/>
       <c r="BN126" s="3"/>
     </row>
-    <row r="127" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -10065,11 +8748,11 @@
       <c r="AV127" s="3"/>
       <c r="AW127" s="3"/>
       <c r="AX127" s="3"/>
-      <c r="AY127" s="2"/>
-      <c r="AZ127" s="2"/>
-      <c r="BA127" s="2"/>
-      <c r="BB127" s="2"/>
-      <c r="BC127" s="2"/>
+      <c r="AY127" s="6"/>
+      <c r="AZ127" s="6"/>
+      <c r="BA127" s="6"/>
+      <c r="BB127" s="6"/>
+      <c r="BC127" s="6"/>
       <c r="BD127" s="3"/>
       <c r="BE127" s="3"/>
       <c r="BF127" s="3"/>
@@ -10082,7 +8765,7 @@
       <c r="BM127" s="3"/>
       <c r="BN127" s="3"/>
     </row>
-    <row r="128" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -10131,11 +8814,11 @@
       <c r="AV128" s="3"/>
       <c r="AW128" s="3"/>
       <c r="AX128" s="3"/>
-      <c r="AY128" s="2"/>
-      <c r="AZ128" s="2"/>
-      <c r="BA128" s="2"/>
-      <c r="BB128" s="2"/>
-      <c r="BC128" s="2"/>
+      <c r="AY128" s="6"/>
+      <c r="AZ128" s="6"/>
+      <c r="BA128" s="6"/>
+      <c r="BB128" s="6"/>
+      <c r="BC128" s="6"/>
       <c r="BD128" s="3"/>
       <c r="BE128" s="3"/>
       <c r="BF128" s="3"/>
@@ -10148,7 +8831,7 @@
       <c r="BM128" s="3"/>
       <c r="BN128" s="3"/>
     </row>
-    <row r="129" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -10197,11 +8880,11 @@
       <c r="AV129" s="3"/>
       <c r="AW129" s="3"/>
       <c r="AX129" s="3"/>
-      <c r="AY129" s="2"/>
-      <c r="AZ129" s="2"/>
-      <c r="BA129" s="2"/>
-      <c r="BB129" s="2"/>
-      <c r="BC129" s="2"/>
+      <c r="AY129" s="6"/>
+      <c r="AZ129" s="6"/>
+      <c r="BA129" s="6"/>
+      <c r="BB129" s="6"/>
+      <c r="BC129" s="6"/>
       <c r="BD129" s="3"/>
       <c r="BE129" s="3"/>
       <c r="BF129" s="3"/>
@@ -10214,7 +8897,7 @@
       <c r="BM129" s="3"/>
       <c r="BN129" s="3"/>
     </row>
-    <row r="130" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -10263,11 +8946,11 @@
       <c r="AV130" s="3"/>
       <c r="AW130" s="3"/>
       <c r="AX130" s="3"/>
-      <c r="AY130" s="2"/>
-      <c r="AZ130" s="2"/>
-      <c r="BA130" s="2"/>
-      <c r="BB130" s="2"/>
-      <c r="BC130" s="2"/>
+      <c r="AY130" s="6"/>
+      <c r="AZ130" s="6"/>
+      <c r="BA130" s="6"/>
+      <c r="BB130" s="6"/>
+      <c r="BC130" s="6"/>
       <c r="BD130" s="3"/>
       <c r="BE130" s="3"/>
       <c r="BF130" s="3"/>
@@ -10280,7 +8963,7 @@
       <c r="BM130" s="3"/>
       <c r="BN130" s="3"/>
     </row>
-    <row r="131" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -10329,11 +9012,11 @@
       <c r="AV131" s="3"/>
       <c r="AW131" s="3"/>
       <c r="AX131" s="3"/>
-      <c r="AY131" s="2"/>
-      <c r="AZ131" s="2"/>
-      <c r="BA131" s="2"/>
-      <c r="BB131" s="2"/>
-      <c r="BC131" s="2"/>
+      <c r="AY131" s="6"/>
+      <c r="AZ131" s="6"/>
+      <c r="BA131" s="6"/>
+      <c r="BB131" s="6"/>
+      <c r="BC131" s="6"/>
       <c r="BD131" s="3"/>
       <c r="BE131" s="3"/>
       <c r="BF131" s="3"/>
@@ -10346,7 +9029,7 @@
       <c r="BM131" s="3"/>
       <c r="BN131" s="3"/>
     </row>
-    <row r="132" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -10395,11 +9078,11 @@
       <c r="AV132" s="3"/>
       <c r="AW132" s="3"/>
       <c r="AX132" s="3"/>
-      <c r="AY132" s="2"/>
-      <c r="AZ132" s="2"/>
-      <c r="BA132" s="2"/>
-      <c r="BB132" s="2"/>
-      <c r="BC132" s="2"/>
+      <c r="AY132" s="6"/>
+      <c r="AZ132" s="6"/>
+      <c r="BA132" s="6"/>
+      <c r="BB132" s="6"/>
+      <c r="BC132" s="6"/>
       <c r="BD132" s="3"/>
       <c r="BE132" s="3"/>
       <c r="BF132" s="3"/>
@@ -10412,7 +9095,7 @@
       <c r="BM132" s="3"/>
       <c r="BN132" s="3"/>
     </row>
-    <row r="133" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -10461,11 +9144,11 @@
       <c r="AV133" s="3"/>
       <c r="AW133" s="3"/>
       <c r="AX133" s="3"/>
-      <c r="AY133" s="2"/>
-      <c r="AZ133" s="2"/>
-      <c r="BA133" s="2"/>
-      <c r="BB133" s="2"/>
-      <c r="BC133" s="2"/>
+      <c r="AY133" s="6"/>
+      <c r="AZ133" s="6"/>
+      <c r="BA133" s="6"/>
+      <c r="BB133" s="6"/>
+      <c r="BC133" s="6"/>
       <c r="BD133" s="3"/>
       <c r="BE133" s="3"/>
       <c r="BF133" s="3"/>
@@ -10478,7 +9161,7 @@
       <c r="BM133" s="3"/>
       <c r="BN133" s="3"/>
     </row>
-    <row r="134" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -10527,11 +9210,11 @@
       <c r="AV134" s="3"/>
       <c r="AW134" s="3"/>
       <c r="AX134" s="3"/>
-      <c r="AY134" s="2"/>
-      <c r="AZ134" s="2"/>
-      <c r="BA134" s="2"/>
-      <c r="BB134" s="2"/>
-      <c r="BC134" s="2"/>
+      <c r="AY134" s="6"/>
+      <c r="AZ134" s="6"/>
+      <c r="BA134" s="6"/>
+      <c r="BB134" s="6"/>
+      <c r="BC134" s="6"/>
       <c r="BD134" s="3"/>
       <c r="BE134" s="3"/>
       <c r="BF134" s="3"/>
@@ -10544,7 +9227,7 @@
       <c r="BM134" s="3"/>
       <c r="BN134" s="3"/>
     </row>
-    <row r="135" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -10593,11 +9276,11 @@
       <c r="AV135" s="3"/>
       <c r="AW135" s="3"/>
       <c r="AX135" s="3"/>
-      <c r="AY135" s="2"/>
-      <c r="AZ135" s="2"/>
-      <c r="BA135" s="2"/>
-      <c r="BB135" s="2"/>
-      <c r="BC135" s="2"/>
+      <c r="AY135" s="6"/>
+      <c r="AZ135" s="6"/>
+      <c r="BA135" s="6"/>
+      <c r="BB135" s="6"/>
+      <c r="BC135" s="6"/>
       <c r="BD135" s="3"/>
       <c r="BE135" s="3"/>
       <c r="BF135" s="3"/>
@@ -10610,7 +9293,7 @@
       <c r="BM135" s="3"/>
       <c r="BN135" s="3"/>
     </row>
-    <row r="136" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -10659,11 +9342,11 @@
       <c r="AV136" s="3"/>
       <c r="AW136" s="3"/>
       <c r="AX136" s="3"/>
-      <c r="AY136" s="2"/>
-      <c r="AZ136" s="2"/>
-      <c r="BA136" s="2"/>
-      <c r="BB136" s="2"/>
-      <c r="BC136" s="2"/>
+      <c r="AY136" s="6"/>
+      <c r="AZ136" s="6"/>
+      <c r="BA136" s="6"/>
+      <c r="BB136" s="6"/>
+      <c r="BC136" s="6"/>
       <c r="BD136" s="3"/>
       <c r="BE136" s="3"/>
       <c r="BF136" s="3"/>
@@ -10676,7 +9359,7 @@
       <c r="BM136" s="3"/>
       <c r="BN136" s="3"/>
     </row>
-    <row r="137" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -10725,11 +9408,11 @@
       <c r="AV137" s="3"/>
       <c r="AW137" s="3"/>
       <c r="AX137" s="3"/>
-      <c r="AY137" s="2"/>
-      <c r="AZ137" s="2"/>
-      <c r="BA137" s="2"/>
-      <c r="BB137" s="2"/>
-      <c r="BC137" s="2"/>
+      <c r="AY137" s="6"/>
+      <c r="AZ137" s="6"/>
+      <c r="BA137" s="6"/>
+      <c r="BB137" s="6"/>
+      <c r="BC137" s="6"/>
       <c r="BD137" s="3"/>
       <c r="BE137" s="3"/>
       <c r="BF137" s="3"/>
@@ -10742,7 +9425,7 @@
       <c r="BM137" s="3"/>
       <c r="BN137" s="3"/>
     </row>
-    <row r="138" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -10791,11 +9474,11 @@
       <c r="AV138" s="3"/>
       <c r="AW138" s="3"/>
       <c r="AX138" s="3"/>
-      <c r="AY138" s="2"/>
-      <c r="AZ138" s="2"/>
-      <c r="BA138" s="2"/>
-      <c r="BB138" s="2"/>
-      <c r="BC138" s="2"/>
+      <c r="AY138" s="6"/>
+      <c r="AZ138" s="6"/>
+      <c r="BA138" s="6"/>
+      <c r="BB138" s="6"/>
+      <c r="BC138" s="6"/>
       <c r="BD138" s="3"/>
       <c r="BE138" s="3"/>
       <c r="BF138" s="3"/>
@@ -10808,7 +9491,7 @@
       <c r="BM138" s="3"/>
       <c r="BN138" s="3"/>
     </row>
-    <row r="139" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -10857,11 +9540,11 @@
       <c r="AV139" s="3"/>
       <c r="AW139" s="3"/>
       <c r="AX139" s="3"/>
-      <c r="AY139" s="2"/>
-      <c r="AZ139" s="2"/>
-      <c r="BA139" s="2"/>
-      <c r="BB139" s="2"/>
-      <c r="BC139" s="2"/>
+      <c r="AY139" s="6"/>
+      <c r="AZ139" s="6"/>
+      <c r="BA139" s="6"/>
+      <c r="BB139" s="6"/>
+      <c r="BC139" s="6"/>
       <c r="BD139" s="3"/>
       <c r="BE139" s="3"/>
       <c r="BF139" s="3"/>
@@ -10874,7 +9557,7 @@
       <c r="BM139" s="3"/>
       <c r="BN139" s="3"/>
     </row>
-    <row r="140" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -10923,11 +9606,11 @@
       <c r="AV140" s="3"/>
       <c r="AW140" s="3"/>
       <c r="AX140" s="3"/>
-      <c r="AY140" s="2"/>
-      <c r="AZ140" s="2"/>
-      <c r="BA140" s="2"/>
-      <c r="BB140" s="2"/>
-      <c r="BC140" s="2"/>
+      <c r="AY140" s="6"/>
+      <c r="AZ140" s="6"/>
+      <c r="BA140" s="6"/>
+      <c r="BB140" s="6"/>
+      <c r="BC140" s="6"/>
       <c r="BD140" s="3"/>
       <c r="BE140" s="3"/>
       <c r="BF140" s="3"/>
@@ -10940,7 +9623,7 @@
       <c r="BM140" s="3"/>
       <c r="BN140" s="3"/>
     </row>
-    <row r="141" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -10989,11 +9672,11 @@
       <c r="AV141" s="3"/>
       <c r="AW141" s="3"/>
       <c r="AX141" s="3"/>
-      <c r="AY141" s="2"/>
-      <c r="AZ141" s="2"/>
-      <c r="BA141" s="2"/>
-      <c r="BB141" s="2"/>
-      <c r="BC141" s="2"/>
+      <c r="AY141" s="6"/>
+      <c r="AZ141" s="6"/>
+      <c r="BA141" s="6"/>
+      <c r="BB141" s="6"/>
+      <c r="BC141" s="6"/>
       <c r="BD141" s="3"/>
       <c r="BE141" s="3"/>
       <c r="BF141" s="3"/>
@@ -11006,7 +9689,7 @@
       <c r="BM141" s="3"/>
       <c r="BN141" s="3"/>
     </row>
-    <row r="142" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -11072,7 +9755,7 @@
       <c r="BM142" s="3"/>
       <c r="BN142" s="3"/>
     </row>
-    <row r="143" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -11138,7 +9821,7 @@
       <c r="BM143" s="3"/>
       <c r="BN143" s="3"/>
     </row>
-    <row r="144" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -11204,7 +9887,7 @@
       <c r="BM144" s="3"/>
       <c r="BN144" s="3"/>
     </row>
-    <row r="145" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11270,7 +9953,7 @@
       <c r="BM145" s="3"/>
       <c r="BN145" s="3"/>
     </row>
-    <row r="146" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11336,7 +10019,7 @@
       <c r="BM146" s="3"/>
       <c r="BN146" s="3"/>
     </row>
-    <row r="147" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -11402,7 +10085,7 @@
       <c r="BM147" s="3"/>
       <c r="BN147" s="3"/>
     </row>
-    <row r="148" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -11468,7 +10151,7 @@
       <c r="BM148" s="3"/>
       <c r="BN148" s="3"/>
     </row>
-    <row r="149" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -11534,7 +10217,7 @@
       <c r="BM149" s="3"/>
       <c r="BN149" s="3"/>
     </row>
-    <row r="150" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -11600,7 +10283,7 @@
       <c r="BM150" s="3"/>
       <c r="BN150" s="3"/>
     </row>
-    <row r="151" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -11666,7 +10349,7 @@
       <c r="BM151" s="3"/>
       <c r="BN151" s="3"/>
     </row>
-    <row r="152" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -11732,7 +10415,7 @@
       <c r="BM152" s="3"/>
       <c r="BN152" s="3"/>
     </row>
-    <row r="153" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11798,7 +10481,7 @@
       <c r="BM153" s="3"/>
       <c r="BN153" s="3"/>
     </row>
-    <row r="154" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -11864,7 +10547,7 @@
       <c r="BM154" s="3"/>
       <c r="BN154" s="3"/>
     </row>
-    <row r="155" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -11930,7 +10613,7 @@
       <c r="BM155" s="3"/>
       <c r="BN155" s="3"/>
     </row>
-    <row r="156" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11996,7 +10679,7 @@
       <c r="BM156" s="3"/>
       <c r="BN156" s="3"/>
     </row>
-    <row r="157" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -12062,7 +10745,7 @@
       <c r="BM157" s="3"/>
       <c r="BN157" s="3"/>
     </row>
-    <row r="158" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12128,7 +10811,7 @@
       <c r="BM158" s="3"/>
       <c r="BN158" s="3"/>
     </row>
-    <row r="159" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -12194,7 +10877,7 @@
       <c r="BM159" s="3"/>
       <c r="BN159" s="3"/>
     </row>
-    <row r="160" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -12260,7 +10943,7 @@
       <c r="BM160" s="3"/>
       <c r="BN160" s="3"/>
     </row>
-    <row r="161" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -12326,7 +11009,7 @@
       <c r="BM161" s="3"/>
       <c r="BN161" s="3"/>
     </row>
-    <row r="162" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -12392,7 +11075,7 @@
       <c r="BM162" s="3"/>
       <c r="BN162" s="3"/>
     </row>
-    <row r="163" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -12458,7 +11141,7 @@
       <c r="BM163" s="3"/>
       <c r="BN163" s="3"/>
     </row>
-    <row r="164" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -12524,7 +11207,7 @@
       <c r="BM164" s="3"/>
       <c r="BN164" s="3"/>
     </row>
-    <row r="165" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -12590,7 +11273,7 @@
       <c r="BM165" s="3"/>
       <c r="BN165" s="3"/>
     </row>
-    <row r="166" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -12656,7 +11339,7 @@
       <c r="BM166" s="3"/>
       <c r="BN166" s="3"/>
     </row>
-    <row r="167" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -12722,7 +11405,7 @@
       <c r="BM167" s="3"/>
       <c r="BN167" s="3"/>
     </row>
-    <row r="168" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -12788,7 +11471,7 @@
       <c r="BM168" s="3"/>
       <c r="BN168" s="3"/>
     </row>
-    <row r="169" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -12854,7 +11537,7 @@
       <c r="BM169" s="3"/>
       <c r="BN169" s="3"/>
     </row>
-    <row r="170" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -12920,7 +11603,7 @@
       <c r="BM170" s="3"/>
       <c r="BN170" s="3"/>
     </row>
-    <row r="171" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -12986,7 +11669,7 @@
       <c r="BM171" s="3"/>
       <c r="BN171" s="3"/>
     </row>
-    <row r="172" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -13052,7 +11735,7 @@
       <c r="BM172" s="3"/>
       <c r="BN172" s="3"/>
     </row>
-    <row r="173" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -13118,7 +11801,7 @@
       <c r="BM173" s="3"/>
       <c r="BN173" s="3"/>
     </row>
-    <row r="174" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -13184,7 +11867,7 @@
       <c r="BM174" s="3"/>
       <c r="BN174" s="3"/>
     </row>
-    <row r="175" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -13250,7 +11933,7 @@
       <c r="BM175" s="3"/>
       <c r="BN175" s="3"/>
     </row>
-    <row r="176" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -13316,7 +11999,7 @@
       <c r="BM176" s="3"/>
       <c r="BN176" s="3"/>
     </row>
-    <row r="177" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -13382,7 +12065,7 @@
       <c r="BM177" s="3"/>
       <c r="BN177" s="3"/>
     </row>
-    <row r="178" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -13448,7 +12131,7 @@
       <c r="BM178" s="3"/>
       <c r="BN178" s="3"/>
     </row>
-    <row r="179" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -13514,7 +12197,7 @@
       <c r="BM179" s="3"/>
       <c r="BN179" s="3"/>
     </row>
-    <row r="180" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13580,7 +12263,7 @@
       <c r="BM180" s="3"/>
       <c r="BN180" s="3"/>
     </row>
-    <row r="181" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -13646,7 +12329,7 @@
       <c r="BM181" s="3"/>
       <c r="BN181" s="3"/>
     </row>
-    <row r="182" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -13712,7 +12395,7 @@
       <c r="BM182" s="3"/>
       <c r="BN182" s="3"/>
     </row>
-    <row r="183" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -13778,7 +12461,7 @@
       <c r="BM183" s="3"/>
       <c r="BN183" s="3"/>
     </row>
-    <row r="184" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -13844,7 +12527,7 @@
       <c r="BM184" s="3"/>
       <c r="BN184" s="3"/>
     </row>
-    <row r="185" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -13910,7 +12593,7 @@
       <c r="BM185" s="3"/>
       <c r="BN185" s="3"/>
     </row>
-    <row r="186" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -13976,7 +12659,7 @@
       <c r="BM186" s="3"/>
       <c r="BN186" s="3"/>
     </row>
-    <row r="187" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -14042,7 +12725,7 @@
       <c r="BM187" s="3"/>
       <c r="BN187" s="3"/>
     </row>
-    <row r="188" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -14108,7 +12791,7 @@
       <c r="BM188" s="3"/>
       <c r="BN188" s="3"/>
     </row>
-    <row r="189" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -14174,7 +12857,7 @@
       <c r="BM189" s="3"/>
       <c r="BN189" s="3"/>
     </row>
-    <row r="190" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -14240,7 +12923,7 @@
       <c r="BM190" s="3"/>
       <c r="BN190" s="3"/>
     </row>
-    <row r="191" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -14306,7 +12989,7 @@
       <c r="BM191" s="3"/>
       <c r="BN191" s="3"/>
     </row>
-    <row r="192" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -14372,7 +13055,7 @@
       <c r="BM192" s="3"/>
       <c r="BN192" s="3"/>
     </row>
-    <row r="193" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -14438,7 +13121,7 @@
       <c r="BM193" s="3"/>
       <c r="BN193" s="3"/>
     </row>
-    <row r="194" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -14504,7 +13187,7 @@
       <c r="BM194" s="3"/>
       <c r="BN194" s="3"/>
     </row>
-    <row r="195" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -14570,7 +13253,7 @@
       <c r="BM195" s="3"/>
       <c r="BN195" s="3"/>
     </row>
-    <row r="196" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -14636,7 +13319,7 @@
       <c r="BM196" s="3"/>
       <c r="BN196" s="3"/>
     </row>
-    <row r="197" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -14702,7 +13385,7 @@
       <c r="BM197" s="3"/>
       <c r="BN197" s="3"/>
     </row>
-    <row r="198" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -14768,7 +13451,7 @@
       <c r="BM198" s="3"/>
       <c r="BN198" s="3"/>
     </row>
-    <row r="199" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -14834,7 +13517,7 @@
       <c r="BM199" s="3"/>
       <c r="BN199" s="3"/>
     </row>
-    <row r="200" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -14900,7 +13583,7 @@
       <c r="BM200" s="3"/>
       <c r="BN200" s="3"/>
     </row>
-    <row r="201" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -14966,7 +13649,7 @@
       <c r="BM201" s="3"/>
       <c r="BN201" s="3"/>
     </row>
-    <row r="202" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -15032,7 +13715,7 @@
       <c r="BM202" s="3"/>
       <c r="BN202" s="3"/>
     </row>
-    <row r="203" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -15098,7 +13781,7 @@
       <c r="BM203" s="3"/>
       <c r="BN203" s="3"/>
     </row>
-    <row r="204" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -15164,7 +13847,7 @@
       <c r="BM204" s="3"/>
       <c r="BN204" s="3"/>
     </row>
-    <row r="205" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -15230,7 +13913,7 @@
       <c r="BM205" s="3"/>
       <c r="BN205" s="3"/>
     </row>
-    <row r="206" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -15296,7 +13979,7 @@
       <c r="BM206" s="3"/>
       <c r="BN206" s="3"/>
     </row>
-    <row r="207" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -15362,7 +14045,7 @@
       <c r="BM207" s="3"/>
       <c r="BN207" s="3"/>
     </row>
-    <row r="208" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -15428,7 +14111,7 @@
       <c r="BM208" s="3"/>
       <c r="BN208" s="3"/>
     </row>
-    <row r="209" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -15494,7 +14177,7 @@
       <c r="BM209" s="3"/>
       <c r="BN209" s="3"/>
     </row>
-    <row r="210" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -15560,7 +14243,7 @@
       <c r="BM210" s="3"/>
       <c r="BN210" s="3"/>
     </row>
-    <row r="211" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -15626,7 +14309,7 @@
       <c r="BM211" s="3"/>
       <c r="BN211" s="3"/>
     </row>
-    <row r="212" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -15692,7 +14375,7 @@
       <c r="BM212" s="3"/>
       <c r="BN212" s="3"/>
     </row>
-    <row r="213" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -15758,7 +14441,7 @@
       <c r="BM213" s="3"/>
       <c r="BN213" s="3"/>
     </row>
-    <row r="214" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -15824,7 +14507,7 @@
       <c r="BM214" s="3"/>
       <c r="BN214" s="3"/>
     </row>
-    <row r="215" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -15890,7 +14573,7 @@
       <c r="BM215" s="3"/>
       <c r="BN215" s="3"/>
     </row>
-    <row r="216" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -15956,7 +14639,7 @@
       <c r="BM216" s="3"/>
       <c r="BN216" s="3"/>
     </row>
-    <row r="217" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -16022,7 +14705,7 @@
       <c r="BM217" s="3"/>
       <c r="BN217" s="3"/>
     </row>
-    <row r="218" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -16088,7 +14771,7 @@
       <c r="BM218" s="3"/>
       <c r="BN218" s="3"/>
     </row>
-    <row r="219" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -16154,7 +14837,7 @@
       <c r="BM219" s="3"/>
       <c r="BN219" s="3"/>
     </row>
-    <row r="220" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -16220,7 +14903,7 @@
       <c r="BM220" s="3"/>
       <c r="BN220" s="3"/>
     </row>
-    <row r="221" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -16286,7 +14969,7 @@
       <c r="BM221" s="3"/>
       <c r="BN221" s="3"/>
     </row>
-    <row r="222" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -16352,7 +15035,7 @@
       <c r="BM222" s="3"/>
       <c r="BN222" s="3"/>
     </row>
-    <row r="223" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -16418,7 +15101,7 @@
       <c r="BM223" s="3"/>
       <c r="BN223" s="3"/>
     </row>
-    <row r="224" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -16484,7 +15167,7 @@
       <c r="BM224" s="3"/>
       <c r="BN224" s="3"/>
     </row>
-    <row r="225" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -16550,7 +15233,7 @@
       <c r="BM225" s="3"/>
       <c r="BN225" s="3"/>
     </row>
-    <row r="226" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -16616,7 +15299,7 @@
       <c r="BM226" s="3"/>
       <c r="BN226" s="3"/>
     </row>
-    <row r="227" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -16682,7 +15365,7 @@
       <c r="BM227" s="3"/>
       <c r="BN227" s="3"/>
     </row>
-    <row r="228" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -16748,7 +15431,7 @@
       <c r="BM228" s="3"/>
       <c r="BN228" s="3"/>
     </row>
-    <row r="229" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -16814,7 +15497,7 @@
       <c r="BM229" s="3"/>
       <c r="BN229" s="3"/>
     </row>
-    <row r="230" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -16880,7 +15563,7 @@
       <c r="BM230" s="3"/>
       <c r="BN230" s="3"/>
     </row>
-    <row r="231" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -16946,7 +15629,7 @@
       <c r="BM231" s="3"/>
       <c r="BN231" s="3"/>
     </row>
-    <row r="232" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -17012,7 +15695,7 @@
       <c r="BM232" s="3"/>
       <c r="BN232" s="3"/>
     </row>
-    <row r="233" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -17078,7 +15761,7 @@
       <c r="BM233" s="3"/>
       <c r="BN233" s="3"/>
     </row>
-    <row r="234" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -17144,7 +15827,7 @@
       <c r="BM234" s="3"/>
       <c r="BN234" s="3"/>
     </row>
-    <row r="235" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -17210,7 +15893,7 @@
       <c r="BM235" s="3"/>
       <c r="BN235" s="3"/>
     </row>
-    <row r="236" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -17276,7 +15959,7 @@
       <c r="BM236" s="3"/>
       <c r="BN236" s="3"/>
     </row>
-    <row r="237" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -17342,7 +16025,7 @@
       <c r="BM237" s="3"/>
       <c r="BN237" s="3"/>
     </row>
-    <row r="238" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -17408,7 +16091,7 @@
       <c r="BM238" s="3"/>
       <c r="BN238" s="3"/>
     </row>
-    <row r="239" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -17474,7 +16157,7 @@
       <c r="BM239" s="3"/>
       <c r="BN239" s="3"/>
     </row>
-    <row r="240" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -17540,7 +16223,7 @@
       <c r="BM240" s="3"/>
       <c r="BN240" s="3"/>
     </row>
-    <row r="241" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -17606,7 +16289,7 @@
       <c r="BM241" s="3"/>
       <c r="BN241" s="3"/>
     </row>
-    <row r="242" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -17672,7 +16355,7 @@
       <c r="BM242" s="3"/>
       <c r="BN242" s="3"/>
     </row>
-    <row r="243" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -17738,7 +16421,7 @@
       <c r="BM243" s="3"/>
       <c r="BN243" s="3"/>
     </row>
-    <row r="244" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -17804,7 +16487,7 @@
       <c r="BM244" s="3"/>
       <c r="BN244" s="3"/>
     </row>
-    <row r="245" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -17870,7 +16553,7 @@
       <c r="BM245" s="3"/>
       <c r="BN245" s="3"/>
     </row>
-    <row r="246" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -17936,7 +16619,7 @@
       <c r="BM246" s="3"/>
       <c r="BN246" s="3"/>
     </row>
-    <row r="247" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -18002,7 +16685,7 @@
       <c r="BM247" s="3"/>
       <c r="BN247" s="3"/>
     </row>
-    <row r="248" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -18068,7 +16751,7 @@
       <c r="BM248" s="3"/>
       <c r="BN248" s="3"/>
     </row>
-    <row r="249" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -18134,7 +16817,7 @@
       <c r="BM249" s="3"/>
       <c r="BN249" s="3"/>
     </row>
-    <row r="250" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -18200,7 +16883,7 @@
       <c r="BM250" s="3"/>
       <c r="BN250" s="3"/>
     </row>
-    <row r="251" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -18266,7 +16949,7 @@
       <c r="BM251" s="3"/>
       <c r="BN251" s="3"/>
     </row>
-    <row r="252" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -18332,7 +17015,7 @@
       <c r="BM252" s="3"/>
       <c r="BN252" s="3"/>
     </row>
-    <row r="253" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -18398,7 +17081,7 @@
       <c r="BM253" s="3"/>
       <c r="BN253" s="3"/>
     </row>
-    <row r="254" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -18464,7 +17147,7 @@
       <c r="BM254" s="3"/>
       <c r="BN254" s="3"/>
     </row>
-    <row r="255" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -18530,7 +17213,7 @@
       <c r="BM255" s="3"/>
       <c r="BN255" s="3"/>
     </row>
-    <row r="256" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -18596,7 +17279,7 @@
       <c r="BM256" s="3"/>
       <c r="BN256" s="3"/>
     </row>
-    <row r="257" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -18662,7 +17345,7 @@
       <c r="BM257" s="3"/>
       <c r="BN257" s="3"/>
     </row>
-    <row r="258" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -18728,7 +17411,7 @@
       <c r="BM258" s="3"/>
       <c r="BN258" s="3"/>
     </row>
-    <row r="259" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -18794,7 +17477,7 @@
       <c r="BM259" s="3"/>
       <c r="BN259" s="3"/>
     </row>
-    <row r="260" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -18860,7 +17543,7 @@
       <c r="BM260" s="3"/>
       <c r="BN260" s="3"/>
     </row>
-    <row r="261" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -18926,7 +17609,7 @@
       <c r="BM261" s="3"/>
       <c r="BN261" s="3"/>
     </row>
-    <row r="262" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -18992,7 +17675,7 @@
       <c r="BM262" s="3"/>
       <c r="BN262" s="3"/>
     </row>
-    <row r="263" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -19058,7 +17741,7 @@
       <c r="BM263" s="3"/>
       <c r="BN263" s="3"/>
     </row>
-    <row r="264" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -19124,7 +17807,7 @@
       <c r="BM264" s="3"/>
       <c r="BN264" s="3"/>
     </row>
-    <row r="265" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -19190,7 +17873,7 @@
       <c r="BM265" s="3"/>
       <c r="BN265" s="3"/>
     </row>
-    <row r="266" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -19256,7 +17939,7 @@
       <c r="BM266" s="3"/>
       <c r="BN266" s="3"/>
     </row>
-    <row r="267" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -19322,7 +18005,7 @@
       <c r="BM267" s="3"/>
       <c r="BN267" s="3"/>
     </row>
-    <row r="268" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -19388,7 +18071,7 @@
       <c r="BM268" s="3"/>
       <c r="BN268" s="3"/>
     </row>
-    <row r="269" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -19454,7 +18137,7 @@
       <c r="BM269" s="3"/>
       <c r="BN269" s="3"/>
     </row>
-    <row r="270" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -19520,7 +18203,7 @@
       <c r="BM270" s="3"/>
       <c r="BN270" s="3"/>
     </row>
-    <row r="271" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -19586,7 +18269,7 @@
       <c r="BM271" s="3"/>
       <c r="BN271" s="3"/>
     </row>
-    <row r="272" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -19652,7 +18335,7 @@
       <c r="BM272" s="3"/>
       <c r="BN272" s="3"/>
     </row>
-    <row r="273" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -19718,7 +18401,7 @@
       <c r="BM273" s="3"/>
       <c r="BN273" s="3"/>
     </row>
-    <row r="274" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -19784,7 +18467,7 @@
       <c r="BM274" s="3"/>
       <c r="BN274" s="3"/>
     </row>
-    <row r="275" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -19850,7 +18533,7 @@
       <c r="BM275" s="3"/>
       <c r="BN275" s="3"/>
     </row>
-    <row r="276" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -19916,7 +18599,7 @@
       <c r="BM276" s="3"/>
       <c r="BN276" s="3"/>
     </row>
-    <row r="277" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -19982,7 +18665,7 @@
       <c r="BM277" s="3"/>
       <c r="BN277" s="3"/>
     </row>
-    <row r="278" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -20048,7 +18731,7 @@
       <c r="BM278" s="3"/>
       <c r="BN278" s="3"/>
     </row>
-    <row r="279" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -20114,7 +18797,7 @@
       <c r="BM279" s="3"/>
       <c r="BN279" s="3"/>
     </row>
-    <row r="280" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -20180,7 +18863,7 @@
       <c r="BM280" s="3"/>
       <c r="BN280" s="3"/>
     </row>
-    <row r="281" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -20246,7 +18929,7 @@
       <c r="BM281" s="3"/>
       <c r="BN281" s="3"/>
     </row>
-    <row r="282" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -20312,7 +18995,7 @@
       <c r="BM282" s="3"/>
       <c r="BN282" s="3"/>
     </row>
-    <row r="283" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -20378,7 +19061,7 @@
       <c r="BM283" s="3"/>
       <c r="BN283" s="3"/>
     </row>
-    <row r="284" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -20444,7 +19127,7 @@
       <c r="BM284" s="3"/>
       <c r="BN284" s="3"/>
     </row>
-    <row r="285" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -20510,7 +19193,7 @@
       <c r="BM285" s="3"/>
       <c r="BN285" s="3"/>
     </row>
-    <row r="286" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -20576,7 +19259,7 @@
       <c r="BM286" s="3"/>
       <c r="BN286" s="3"/>
     </row>
-    <row r="287" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -20642,7 +19325,7 @@
       <c r="BM287" s="3"/>
       <c r="BN287" s="3"/>
     </row>
-    <row r="288" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -20708,7 +19391,7 @@
       <c r="BM288" s="3"/>
       <c r="BN288" s="3"/>
     </row>
-    <row r="289" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -20774,7 +19457,7 @@
       <c r="BM289" s="3"/>
       <c r="BN289" s="3"/>
     </row>
-    <row r="290" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -20840,7 +19523,7 @@
       <c r="BM290" s="3"/>
       <c r="BN290" s="3"/>
     </row>
-    <row r="291" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -20906,7 +19589,7 @@
       <c r="BM291" s="3"/>
       <c r="BN291" s="3"/>
     </row>
-    <row r="292" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -20972,7 +19655,7 @@
       <c r="BM292" s="3"/>
       <c r="BN292" s="3"/>
     </row>
-    <row r="293" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -21038,7 +19721,7 @@
       <c r="BM293" s="3"/>
       <c r="BN293" s="3"/>
     </row>
-    <row r="294" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -21104,7 +19787,7 @@
       <c r="BM294" s="3"/>
       <c r="BN294" s="3"/>
     </row>
-    <row r="295" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -21170,7 +19853,7 @@
       <c r="BM295" s="3"/>
       <c r="BN295" s="3"/>
     </row>
-    <row r="296" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -21236,7 +19919,7 @@
       <c r="BM296" s="3"/>
       <c r="BN296" s="3"/>
     </row>
-    <row r="297" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -21302,7 +19985,7 @@
       <c r="BM297" s="3"/>
       <c r="BN297" s="3"/>
     </row>
-    <row r="298" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -21368,7 +20051,7 @@
       <c r="BM298" s="3"/>
       <c r="BN298" s="3"/>
     </row>
-    <row r="299" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -21434,7 +20117,7 @@
       <c r="BM299" s="3"/>
       <c r="BN299" s="3"/>
     </row>
-    <row r="300" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -21500,7 +20183,7 @@
       <c r="BM300" s="3"/>
       <c r="BN300" s="3"/>
     </row>
-    <row r="301" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -21566,7 +20249,7 @@
       <c r="BM301" s="3"/>
       <c r="BN301" s="3"/>
     </row>
-    <row r="302" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -21632,7 +20315,7 @@
       <c r="BM302" s="3"/>
       <c r="BN302" s="3"/>
     </row>
-    <row r="303" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -21698,7 +20381,7 @@
       <c r="BM303" s="3"/>
       <c r="BN303" s="3"/>
     </row>
-    <row r="304" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -21764,7 +20447,7 @@
       <c r="BM304" s="3"/>
       <c r="BN304" s="3"/>
     </row>
-    <row r="305" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -21830,7 +20513,7 @@
       <c r="BM305" s="3"/>
       <c r="BN305" s="3"/>
     </row>
-    <row r="306" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -21896,7 +20579,7 @@
       <c r="BM306" s="3"/>
       <c r="BN306" s="3"/>
     </row>
-    <row r="307" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -21962,7 +20645,7 @@
       <c r="BM307" s="3"/>
       <c r="BN307" s="3"/>
     </row>
-    <row r="308" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -22028,7 +20711,7 @@
       <c r="BM308" s="3"/>
       <c r="BN308" s="3"/>
     </row>
-    <row r="309" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -22094,7 +20777,7 @@
       <c r="BM309" s="3"/>
       <c r="BN309" s="3"/>
     </row>
-    <row r="310" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -22160,7 +20843,7 @@
       <c r="BM310" s="3"/>
       <c r="BN310" s="3"/>
     </row>
-    <row r="311" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -22226,7 +20909,7 @@
       <c r="BM311" s="3"/>
       <c r="BN311" s="3"/>
     </row>
-    <row r="312" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -22292,7 +20975,7 @@
       <c r="BM312" s="3"/>
       <c r="BN312" s="3"/>
     </row>
-    <row r="313" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -22358,7 +21041,7 @@
       <c r="BM313" s="3"/>
       <c r="BN313" s="3"/>
     </row>
-    <row r="314" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -22424,7 +21107,7 @@
       <c r="BM314" s="3"/>
       <c r="BN314" s="3"/>
     </row>
-    <row r="315" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -22490,7 +21173,7 @@
       <c r="BM315" s="3"/>
       <c r="BN315" s="3"/>
     </row>
-    <row r="316" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -22556,7 +21239,7 @@
       <c r="BM316" s="3"/>
       <c r="BN316" s="3"/>
     </row>
-    <row r="317" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -22622,7 +21305,7 @@
       <c r="BM317" s="3"/>
       <c r="BN317" s="3"/>
     </row>
-    <row r="318" spans="3:66" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>

--- a/7936.T.xlsx
+++ b/7936.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4EE3A8-F77D-4ED7-93E8-31B83DC28080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDFB4ED-A247-4DA8-BB5A-32B08E5B84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -260,15 +260,21 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,25 +344,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403BCA5A-AD74-4A89-82B4-2A5ED42596B0}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -720,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>4245</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>734.48223599999994</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>53</v>
+        <v>715.35324300000002</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -743,7 +752,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>3117877.0918199997</v>
+        <v>2653960.5315300003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -754,10 +763,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>124662</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>53</v>
+        <v>123998</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -765,11 +774,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="3">
-        <f>0+25000+35000</f>
-        <v>60000</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>53</v>
+        <f>0+35000</f>
+        <v>35000</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -781,7 +790,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>3053215.0918199997</v>
+        <v>2564962.5315300003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -817,10 +826,10 @@
   <dimension ref="A1:BN318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -947,6 +956,10 @@
         <f>184964-K6</f>
         <v>86961</v>
       </c>
+      <c r="M6" s="8">
+        <f>284305-SUM(K6:L6)</f>
+        <v>99341</v>
+      </c>
       <c r="T6" s="8">
         <v>285929</v>
       </c>
@@ -988,6 +1001,10 @@
         <f>44118-K7</f>
         <v>18621</v>
       </c>
+      <c r="M7" s="8">
+        <f>69606-SUM(K7:L7)</f>
+        <v>25488</v>
+      </c>
       <c r="T7" s="8">
         <v>72154</v>
       </c>
@@ -1029,6 +1046,10 @@
         <f>20003-K8</f>
         <v>9664</v>
       </c>
+      <c r="M8" s="8">
+        <f>32243-SUM(K8:L8)</f>
+        <v>12240</v>
+      </c>
       <c r="T8" s="8">
         <v>36185</v>
       </c>
@@ -1070,6 +1091,10 @@
         <f>67314-K9</f>
         <v>32170</v>
       </c>
+      <c r="M9" s="8">
+        <f>109044-SUM(K9:L9)</f>
+        <v>41730</v>
+      </c>
       <c r="T9" s="8">
         <v>59257</v>
       </c>
@@ -1111,6 +1136,10 @@
         <f>65876-K10</f>
         <v>37551</v>
       </c>
+      <c r="M10" s="8">
+        <f>99876-SUM(K10:L10)</f>
+        <v>34000</v>
+      </c>
       <c r="T10" s="8">
         <v>60304</v>
       </c>
@@ -1160,7 +1189,10 @@
         <f>402798-K11</f>
         <v>194485</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="11">
+        <f>625055-SUM(K11:L11)</f>
+        <v>222257</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="R11" s="11">
         <v>404083</v>
@@ -1207,6 +1239,10 @@
         <f>174356-K12</f>
         <v>82366</v>
       </c>
+      <c r="M12" s="8">
+        <f>271882-SUM(K12:L12)</f>
+        <v>97526</v>
+      </c>
       <c r="R12" s="8">
         <v>204205</v>
       </c>
@@ -1254,7 +1290,7 @@
         <v>100830</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ref="J13:L13" si="1">+J11-J12</f>
+        <f t="shared" ref="J13:M13" si="1">+J11-J12</f>
         <v>153072</v>
       </c>
       <c r="K13" s="8">
@@ -1264,6 +1300,10 @@
       <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>112119</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>124731</v>
       </c>
       <c r="R13" s="8">
         <f>+R11-R12</f>
@@ -1314,6 +1354,10 @@
         <f>147310-K14</f>
         <v>75500</v>
       </c>
+      <c r="M14" s="8">
+        <f>225566-SUM(K14:L14)</f>
+        <v>78256</v>
+      </c>
       <c r="R14" s="8">
         <v>177932</v>
       </c>
@@ -1361,7 +1405,7 @@
         <v>32527</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:L15" si="3">+J13-J14</f>
+        <f t="shared" ref="J15:M15" si="3">+J13-J14</f>
         <v>153072</v>
       </c>
       <c r="K15" s="8">
@@ -1371,6 +1415,10 @@
       <c r="L15" s="8">
         <f t="shared" si="3"/>
         <v>36619</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="3"/>
+        <v>46475</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" ref="R15:S15" si="4">+R13-R14</f>
@@ -1421,6 +1469,10 @@
         <f>2551-K16</f>
         <v>911</v>
       </c>
+      <c r="M16" s="8">
+        <f>3309-SUM(K16:L16)</f>
+        <v>758</v>
+      </c>
       <c r="T16" s="8">
         <v>5301</v>
       </c>
@@ -1460,6 +1512,10 @@
         <f>5056-K17</f>
         <v>2281</v>
       </c>
+      <c r="M17" s="8">
+        <f>6415-SUM(K17:L17)</f>
+        <v>1359</v>
+      </c>
       <c r="T17" s="8">
         <v>8845</v>
       </c>
@@ -1501,7 +1557,7 @@
         <v>30457</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:L18" si="6">+J15-J17+J16</f>
+        <f t="shared" ref="J18:M18" si="6">+J15-J17+J16</f>
         <v>153072</v>
       </c>
       <c r="K18" s="8">
@@ -1511,6 +1567,10 @@
       <c r="L18" s="8">
         <f t="shared" si="6"/>
         <v>35249</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="6"/>
+        <v>45874</v>
       </c>
       <c r="T18" s="8">
         <f>+T15+T16-T17</f>
@@ -1553,6 +1613,10 @@
         <f>2305-K19</f>
         <v>2293</v>
       </c>
+      <c r="M19" s="8">
+        <f>2306-SUM(K19:L19)</f>
+        <v>1</v>
+      </c>
       <c r="T19" s="8">
         <v>8418</v>
       </c>
@@ -1592,6 +1656,10 @@
         <f>200-K20</f>
         <v>194</v>
       </c>
+      <c r="M20" s="8">
+        <f>268-SUM(K20:L20)</f>
+        <v>68</v>
+      </c>
       <c r="T20" s="8">
         <v>8516</v>
       </c>
@@ -1633,7 +1701,7 @@
         <v>34016</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ref="J21:L21" si="8">+J18+J19-J20</f>
+        <f t="shared" ref="J21:M21" si="8">+J18+J19-J20</f>
         <v>153072</v>
       </c>
       <c r="K21" s="8">
@@ -1643,6 +1711,10 @@
       <c r="L21" s="8">
         <f t="shared" si="8"/>
         <v>37348</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="8"/>
+        <v>45807</v>
       </c>
       <c r="T21" s="8">
         <f>+T18+T19-T20</f>
@@ -1685,6 +1757,10 @@
         <f>27048-K22</f>
         <v>15394</v>
       </c>
+      <c r="M22" s="8">
+        <f>40166-SUM(K22:L22)</f>
+        <v>13118</v>
+      </c>
       <c r="T22" s="8">
         <v>15119</v>
       </c>
@@ -1726,7 +1802,7 @@
         <v>22665</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23:L23" si="10">+J21-J22</f>
+        <f t="shared" ref="J23:M23" si="10">+J21-J22</f>
         <v>153072</v>
       </c>
       <c r="K23" s="8">
@@ -1736,6 +1812,10 @@
       <c r="L23" s="8">
         <f t="shared" si="10"/>
         <v>21954</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="10"/>
+        <v>32689</v>
       </c>
       <c r="T23" s="8">
         <f>+T21-T22</f>
@@ -1778,6 +1858,10 @@
         <f>76-K24</f>
         <v>-4</v>
       </c>
+      <c r="M24" s="8">
+        <f>56-SUM(K24:L24)</f>
+        <v>-20</v>
+      </c>
       <c r="T24" s="8">
         <v>180</v>
       </c>
@@ -1819,7 +1903,7 @@
         <v>22722</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:L25" si="12">+J23-J24</f>
+        <f t="shared" ref="J25:M25" si="12">+J23-J24</f>
         <v>153072</v>
       </c>
       <c r="K25" s="8">
@@ -1829,6 +1913,10 @@
       <c r="L25" s="8">
         <f t="shared" si="12"/>
         <v>21958</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="12"/>
+        <v>32709</v>
       </c>
       <c r="T25" s="8">
         <f>+T23-T24</f>
@@ -1877,7 +1965,7 @@
         <v>31.354480047458221</v>
       </c>
       <c r="J27" s="12" t="e">
-        <f t="shared" ref="J27:L27" si="14">+J25/J28</f>
+        <f t="shared" ref="J27:M27" si="14">+J25/J28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="12">
@@ -1887,6 +1975,10 @@
       <c r="L27" s="12">
         <f t="shared" si="14"/>
         <v>30.720007084264751</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="14"/>
+        <v>45.724263250456808</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.2">
@@ -1921,7 +2013,9 @@
       <c r="L28" s="6">
         <v>714.77848100000006</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="3">
+        <v>715.35324300000002</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2071,10 +2165,13 @@
         <v>0.11501353903565659</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" ref="L30:L35" si="19">+L6/H6-1</f>
+        <f t="shared" ref="L30:M35" si="19">+L6/H6-1</f>
         <v>4.7609295377609717E-2</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9">
+        <f t="shared" si="19"/>
+        <v>0.1369629409206401</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2161,7 +2258,10 @@
         <f t="shared" si="19"/>
         <v>8.2490408092082301E-2</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="9">
+        <f t="shared" si="19"/>
+        <v>0.11799280638652521</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2248,7 +2348,10 @@
         <f t="shared" si="19"/>
         <v>2.9399233063485353E-2</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="M32" s="9">
+        <f t="shared" si="19"/>
+        <v>0.17500239992320243</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2335,7 +2438,10 @@
         <f t="shared" si="19"/>
         <v>0.43022273596229943</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="9">
+        <f t="shared" si="19"/>
+        <v>0.43406989930925466</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2422,7 +2528,10 @@
         <f t="shared" si="19"/>
         <v>0.4520881670533643</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="9">
+        <f t="shared" si="19"/>
+        <v>0.37925439130258409</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2509,7 +2618,10 @@
         <f t="shared" si="19"/>
         <v>0.1569807908529004</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="10">
+        <f t="shared" si="19"/>
+        <v>0.21282911789582815</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2620,27 +2732,30 @@
         <f t="shared" si="22"/>
         <v>0.57649176028999671</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="9">
+        <f t="shared" ref="M36" si="23">+M13/M11</f>
+        <v>0.5612016719383417</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="9" t="e">
-        <f t="shared" ref="P36:T36" si="23">+P13/P11</f>
+        <f t="shared" ref="P36:T36" si="24">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.49464590195578634</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.49671172779255512</v>
       </c>
       <c r="T36" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.52044917900021559</v>
       </c>
       <c r="U36" s="9">
@@ -2698,27 +2813,27 @@
         <v>57</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:H37" si="24">+C15/C11</f>
+        <f t="shared" ref="C37:H37" si="25">+C15/C11</f>
         <v>0.1452490856681353</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.86140424728919596</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.4824965512004353</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.19421948053439939</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.1498123107491508</v>
       </c>
       <c r="I37" s="9">
@@ -2730,14 +2845,17 @@
         <v>1</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="25">+K15/K11</f>
+        <f t="shared" ref="K37:L37" si="26">+K15/K11</f>
         <v>0.21368325548573541</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.18828701442270612</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37" si="27">+M15/M11</f>
+        <v>0.20910477510269643</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -2797,27 +2915,27 @@
         <v>59</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38:H38" si="26">+C22/C21</f>
+        <f t="shared" ref="C38:H38" si="28">+C22/C21</f>
         <v>0.24017588521175653</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-7.1262763040589414E-2</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-6.3295720672769853E-2</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.1886946527945802</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.38095619123824764</v>
       </c>
       <c r="I38" s="9">
@@ -2829,14 +2947,17 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" ref="K38:L38" si="27">+K22/K21</f>
+        <f t="shared" ref="K38:L38" si="29">+K22/K21</f>
         <v>0.26862437765074682</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.41217735889471996</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="9">
+        <f t="shared" ref="M38" si="30">+M22/M21</f>
+        <v>0.28637544480101296</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>

--- a/7936.T.xlsx
+++ b/7936.T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDFB4ED-A247-4DA8-BB5A-32B08E5B84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BAA7C9-C1FA-4015-A306-ABCA626CEB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{86C4971A-A7D1-48DA-A0F7-A80DD1620C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Asics Group</t>
   </si>
@@ -252,6 +252,9 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>FY25</t>
+  </si>
 </sst>
 </file>
 
@@ -262,13 +265,19 @@
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -344,25 +353,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -704,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403BCA5A-AD74-4A89-82B4-2A5ED42596B0}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>3710</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -737,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>715.35324300000002</v>
+        <v>714.69692599999996</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>54</v>
@@ -752,7 +764,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2653960.5315300003</v>
+        <v>3141807.6866959999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -763,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>123998</v>
+        <v>112267</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>54</v>
@@ -774,8 +786,8 @@
         <v>5</v>
       </c>
       <c r="I6" s="3">
-        <f>0+35000</f>
-        <v>35000</v>
+        <f>2500+25000+10000</f>
+        <v>37500</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>54</v>
@@ -790,7 +802,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2564962.5315300003</v>
+        <v>3067040.6866959999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,11 +837,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0781B03-897F-4FBF-8E19-27D8F6677ACE}">
   <dimension ref="A1:BN318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,12 +851,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -899,8 +911,11 @@
       <c r="U2" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V2" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -909,7 +924,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -918,11 +933,11 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -938,6 +953,10 @@
         <f>227070-SUM(C6:D6)</f>
         <v>79231</v>
       </c>
+      <c r="F6" s="8">
+        <f>+T6-SUM(C6:E6)</f>
+        <v>58859</v>
+      </c>
       <c r="G6" s="8">
         <v>87894</v>
       </c>
@@ -949,6 +968,10 @@
         <f>258277-SUM(G6:H6)</f>
         <v>87374</v>
       </c>
+      <c r="J6" s="8">
+        <f>+U6-SUM(G6:I6)</f>
+        <v>68659</v>
+      </c>
       <c r="K6" s="8">
         <v>98003</v>
       </c>
@@ -960,14 +983,21 @@
         <f>284305-SUM(K6:L6)</f>
         <v>99341</v>
       </c>
+      <c r="N6" s="8">
+        <f>+V6-SUM(K6:M6)</f>
+        <v>79237</v>
+      </c>
       <c r="T6" s="8">
         <v>285929</v>
       </c>
       <c r="U6" s="8">
         <v>326936</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="8">
+        <v>363542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>38</v>
@@ -983,6 +1013,10 @@
         <f>61048-SUM(C7:D7)</f>
         <v>20618</v>
       </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F24" si="0">+T7-SUM(C7:E7)</f>
+        <v>11106</v>
+      </c>
       <c r="G7" s="8">
         <v>24884</v>
       </c>
@@ -994,6 +1028,10 @@
         <f>64884-SUM(G7:H7)</f>
         <v>22798</v>
       </c>
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J24" si="1">+U7-SUM(G7:I7)</f>
+        <v>13736</v>
+      </c>
       <c r="K7" s="8">
         <v>25497</v>
       </c>
@@ -1005,14 +1043,21 @@
         <f>69606-SUM(K7:L7)</f>
         <v>25488</v>
       </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:N10" si="2">+V7-SUM(K7:M7)</f>
+        <v>16429</v>
+      </c>
       <c r="T7" s="8">
         <v>72154</v>
       </c>
       <c r="U7" s="8">
         <v>78620</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="8">
+        <v>86035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -1028,6 +1073,10 @@
         <f>28018-SUM(C8:D8)</f>
         <v>9943</v>
       </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>8167</v>
+      </c>
       <c r="G8" s="8">
         <v>9325</v>
       </c>
@@ -1039,6 +1088,10 @@
         <f>29130-SUM(G8:H8)</f>
         <v>10417</v>
       </c>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>8935</v>
+      </c>
       <c r="K8" s="8">
         <v>10339</v>
       </c>
@@ -1050,14 +1103,21 @@
         <f>32243-SUM(K8:L8)</f>
         <v>12240</v>
       </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>9828</v>
+      </c>
       <c r="T8" s="8">
         <v>36185</v>
       </c>
       <c r="U8" s="8">
         <v>38065</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="8">
+        <v>42071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>40</v>
@@ -1073,6 +1133,10 @@
         <f>45958-SUM(C9:D9)</f>
         <v>17881</v>
       </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>13299</v>
+      </c>
       <c r="G9" s="8">
         <v>23493</v>
       </c>
@@ -1084,6 +1148,10 @@
         <f>75085-SUM(G9:H9)</f>
         <v>29099</v>
       </c>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>23340</v>
+      </c>
       <c r="K9" s="8">
         <v>35144</v>
       </c>
@@ -1095,14 +1163,21 @@
         <f>109044-SUM(K9:L9)</f>
         <v>41730</v>
       </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>32280</v>
+      </c>
       <c r="T9" s="8">
         <v>59257</v>
       </c>
       <c r="U9" s="8">
         <v>98425</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="8">
+        <v>141324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -1118,6 +1193,10 @@
         <f>44874-SUM(C10:D10)</f>
         <v>16577</v>
       </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>15430</v>
+      </c>
       <c r="G10" s="8">
         <v>18024</v>
       </c>
@@ -1129,6 +1208,10 @@
         <f>68535-SUM(G10:H10)</f>
         <v>24651</v>
       </c>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>26904</v>
+      </c>
       <c r="K10" s="8">
         <v>28325</v>
       </c>
@@ -1140,14 +1223,21 @@
         <f>99876-SUM(K10:L10)</f>
         <v>34000</v>
       </c>
+      <c r="N10" s="8">
+        <f t="shared" si="2"/>
+        <v>36643</v>
+      </c>
       <c r="T10" s="8">
         <v>60304</v>
       </c>
       <c r="U10" s="8">
         <v>95439</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="8">
+        <v>136519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1179,7 +1269,7 @@
         <v>183255</v>
       </c>
       <c r="J11" s="11">
-        <f>+U11-SUM(G11:I11)</f>
+        <f t="shared" si="1"/>
         <v>153072</v>
       </c>
       <c r="K11" s="11">
@@ -1193,7 +1283,10 @@
         <f>625055-SUM(K11:L11)</f>
         <v>222257</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11">
+        <f>+V11-SUM(K11:M11)</f>
+        <v>185861</v>
+      </c>
       <c r="R11" s="11">
         <v>404083</v>
       </c>
@@ -1206,8 +1299,11 @@
       <c r="U11" s="11">
         <v>678526</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="11">
+        <v>810916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -1221,6 +1317,10 @@
       <c r="E12" s="8">
         <v>218477</v>
       </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>-162867</v>
+      </c>
       <c r="G12" s="8">
         <v>79254</v>
       </c>
@@ -1232,6 +1332,10 @@
         <f>234533-SUM(G12:H12)</f>
         <v>82425</v>
       </c>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>65115</v>
+      </c>
       <c r="K12" s="8">
         <v>91990</v>
       </c>
@@ -1243,6 +1347,10 @@
         <f>271882-SUM(K12:L12)</f>
         <v>97526</v>
       </c>
+      <c r="N12" s="8">
+        <f>+V12-SUM(K12:M12)</f>
+        <v>78401</v>
+      </c>
       <c r="R12" s="8">
         <v>204205</v>
       </c>
@@ -1255,34 +1363,37 @@
       <c r="U12" s="8">
         <v>299648</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="8">
+        <v>350283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:H13" si="0">+C11-C12</f>
+        <f t="shared" ref="C13:H13" si="3">+C11-C12</f>
         <v>76424</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-4301</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-60451</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>122358</v>
+        <f t="shared" si="3"/>
+        <v>285225</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>94848</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95243</v>
       </c>
       <c r="I13" s="8">
@@ -1290,20 +1401,24 @@
         <v>100830</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" ref="J13:M13" si="1">+J11-J12</f>
-        <v>153072</v>
+        <f t="shared" ref="J13:N13" si="4">+J11-J12</f>
+        <v>87957</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>116323</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>112119</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>124731</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="4"/>
+        <v>107460</v>
       </c>
       <c r="R13" s="8">
         <f>+R11-R12</f>
@@ -1321,8 +1436,12 @@
         <f>+U11-U12</f>
         <v>378878</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="8">
+        <f>+V11-V12</f>
+        <v>460633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1336,6 +1455,10 @@
       <c r="E14" s="8">
         <v>173822</v>
       </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>-99830</v>
+      </c>
       <c r="G14" s="8">
         <v>61034</v>
       </c>
@@ -1347,6 +1470,10 @@
         <f>199397-SUM(G14:H14)</f>
         <v>68303</v>
       </c>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>79369</v>
+      </c>
       <c r="K14" s="8">
         <v>71810</v>
       </c>
@@ -1358,6 +1485,10 @@
         <f>225566-SUM(K14:L14)</f>
         <v>78256</v>
       </c>
+      <c r="N14" s="8">
+        <f>+V14-SUM(K14:M14)</f>
+        <v>92546</v>
+      </c>
       <c r="R14" s="8">
         <v>177932</v>
       </c>
@@ -1370,34 +1501,37 @@
       <c r="U14" s="8">
         <v>278766</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="8">
+        <v>318112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" ref="C15:H15" si="2">+C13-C14</f>
+        <f t="shared" ref="C15:H15" si="5">+C13-C14</f>
         <v>22121</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-118686</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-234273</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>122358</v>
+        <f t="shared" si="5"/>
+        <v>385055</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33814</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25183</v>
       </c>
       <c r="I15" s="8">
@@ -1405,27 +1539,31 @@
         <v>32527</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:M15" si="3">+J13-J14</f>
-        <v>153072</v>
+        <f t="shared" ref="J15:N15" si="6">+J13-J14</f>
+        <v>8588</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44513</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36619</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46475</v>
       </c>
+      <c r="N15" s="8">
+        <f t="shared" si="6"/>
+        <v>14914</v>
+      </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15:S15" si="4">+R13-R14</f>
+        <f t="shared" ref="R15:S15" si="7">+R13-R14</f>
         <v>21946</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34003</v>
       </c>
       <c r="T15" s="8">
@@ -1436,8 +1574,12 @@
         <f>+U13-U14</f>
         <v>100112</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="8">
+        <f>+V13-V14</f>
+        <v>142521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -1451,6 +1593,10 @@
       <c r="E16" s="8">
         <v>4398</v>
       </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>-4090</v>
+      </c>
       <c r="G16" s="8">
         <v>1636</v>
       </c>
@@ -1462,6 +1608,10 @@
         <f>5815-SUM(G16:H16)</f>
         <v>2013</v>
       </c>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
       <c r="K16" s="8">
         <v>1640</v>
       </c>
@@ -1473,11 +1623,18 @@
         <f>3309-SUM(K16:L16)</f>
         <v>758</v>
       </c>
+      <c r="N16" s="8">
+        <f>+V16-SUM(K16:M16)</f>
+        <v>1271</v>
+      </c>
       <c r="T16" s="8">
         <v>5301</v>
       </c>
       <c r="U16" s="8">
         <v>5745</v>
+      </c>
+      <c r="V16" s="8">
+        <v>4580</v>
       </c>
     </row>
     <row r="17" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1494,6 +1651,10 @@
       <c r="E17" s="8">
         <v>5455</v>
       </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>-1594</v>
+      </c>
       <c r="G17" s="8">
         <v>2372</v>
       </c>
@@ -1505,6 +1666,10 @@
         <f>9059-SUM(G17:H17)</f>
         <v>4083</v>
       </c>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>4196</v>
+      </c>
       <c r="K17" s="8">
         <v>2775</v>
       </c>
@@ -1516,11 +1681,18 @@
         <f>6415-SUM(K17:L17)</f>
         <v>1359</v>
       </c>
+      <c r="N17" s="8">
+        <f>+V17-SUM(K17:M17)</f>
+        <v>1389</v>
+      </c>
       <c r="T17" s="8">
         <v>8845</v>
       </c>
       <c r="U17" s="8">
         <v>13255</v>
+      </c>
+      <c r="V17" s="8">
+        <v>7804</v>
       </c>
     </row>
     <row r="18" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1529,27 +1701,27 @@
         <v>30</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:H18" si="5">+C15-C17+C16</f>
+        <f t="shared" ref="C18:H18" si="8">+C15-C17+C16</f>
         <v>21921</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-118477</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-235330</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="5"/>
-        <v>122358</v>
+        <f t="shared" si="8"/>
+        <v>382559</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33078</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24745</v>
       </c>
       <c r="I18" s="8">
@@ -1557,20 +1729,24 @@
         <v>30457</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" ref="J18:M18" si="6">+J15-J17+J16</f>
-        <v>153072</v>
+        <f t="shared" ref="J18:N18" si="9">+J15-J17+J16</f>
+        <v>4322</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>43378</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35249</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45874</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="9"/>
+        <v>14796</v>
       </c>
       <c r="T18" s="8">
         <f>+T15+T16-T17</f>
@@ -1579,6 +1755,10 @@
       <c r="U18" s="8">
         <f>+U15+U16-U17</f>
         <v>92602</v>
+      </c>
+      <c r="V18" s="8">
+        <f>+V15+V16-V17</f>
+        <v>139297</v>
       </c>
     </row>
     <row r="19" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1595,6 +1775,10 @@
       <c r="E19" s="8">
         <v>1499</v>
       </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>6910</v>
+      </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
@@ -1606,6 +1790,10 @@
         <f>5924-SUM(G19:H19)</f>
         <v>5657</v>
       </c>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
       <c r="K19" s="8">
         <v>12</v>
       </c>
@@ -1617,11 +1805,18 @@
         <f>2306-SUM(K19:L19)</f>
         <v>1</v>
       </c>
+      <c r="N19" s="8">
+        <f>+V19-SUM(K19:M19)</f>
+        <v>7</v>
+      </c>
       <c r="T19" s="8">
         <v>8418</v>
       </c>
       <c r="U19" s="8">
         <v>7174</v>
+      </c>
+      <c r="V19" s="8">
+        <v>2313</v>
       </c>
     </row>
     <row r="20" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1638,6 +1833,10 @@
       <c r="E20" s="8">
         <v>1019</v>
       </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>6751</v>
+      </c>
       <c r="G20" s="8">
         <v>15</v>
       </c>
@@ -1649,6 +1848,10 @@
         <f>2129-SUM(G20:H20)</f>
         <v>2098</v>
       </c>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
+        <v>4402</v>
+      </c>
       <c r="K20" s="8">
         <v>6</v>
       </c>
@@ -1660,11 +1863,18 @@
         <f>268-SUM(K20:L20)</f>
         <v>68</v>
       </c>
+      <c r="N20" s="8">
+        <f>+V20-SUM(K20:M20)</f>
+        <v>2591</v>
+      </c>
       <c r="T20" s="8">
         <v>8516</v>
       </c>
       <c r="U20" s="8">
         <v>6531</v>
+      </c>
+      <c r="V20" s="8">
+        <v>2859</v>
       </c>
     </row>
     <row r="21" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1673,27 +1883,27 @@
         <v>31</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" ref="C21:H21" si="7">+C18+C19-C20</f>
+        <f t="shared" ref="C21:H21" si="10">+C18+C19-C20</f>
         <v>21605</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-118898</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-234850</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="7"/>
-        <v>122358</v>
+        <f t="shared" si="10"/>
+        <v>382718</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33064</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24995</v>
       </c>
       <c r="I21" s="8">
@@ -1701,20 +1911,24 @@
         <v>34016</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ref="J21:M21" si="8">+J18+J19-J20</f>
-        <v>153072</v>
+        <f t="shared" ref="J21:N21" si="11">+J18+J19-J20</f>
+        <v>1170</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43384</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>37348</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45807</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="11"/>
+        <v>12212</v>
       </c>
       <c r="T21" s="8">
         <f>+T18+T19-T20</f>
@@ -1723,6 +1937,10 @@
       <c r="U21" s="8">
         <f>+U18+U19-U20</f>
         <v>93245</v>
+      </c>
+      <c r="V21" s="8">
+        <f>+V18+V19-V20</f>
+        <v>138751</v>
       </c>
     </row>
     <row r="22" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1739,6 +1957,10 @@
       <c r="E22" s="8">
         <v>14865</v>
       </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>-13408</v>
+      </c>
       <c r="G22" s="8">
         <v>6239</v>
       </c>
@@ -1750,6 +1972,10 @@
         <f>27112-SUM(G22:H22)</f>
         <v>11351</v>
       </c>
+      <c r="J22" s="8">
+        <f t="shared" si="1"/>
+        <v>2187</v>
+      </c>
       <c r="K22" s="8">
         <v>11654</v>
       </c>
@@ -1761,11 +1987,18 @@
         <f>40166-SUM(K22:L22)</f>
         <v>13118</v>
       </c>
+      <c r="N22" s="8">
+        <f>+V22-SUM(K22:M22)</f>
+        <v>-246</v>
+      </c>
       <c r="T22" s="8">
         <v>15119</v>
       </c>
       <c r="U22" s="8">
         <v>29299</v>
+      </c>
+      <c r="V22" s="8">
+        <v>39920</v>
       </c>
     </row>
     <row r="23" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1774,27 +2007,27 @@
         <v>33</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:H23" si="9">+C21-C22</f>
+        <f t="shared" ref="C23:H23" si="12">+C21-C22</f>
         <v>16416</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-127371</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-249715</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="9"/>
-        <v>122358</v>
+        <f t="shared" si="12"/>
+        <v>396126</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>26825</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15473</v>
       </c>
       <c r="I23" s="8">
@@ -1802,20 +2035,24 @@
         <v>22665</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23:M23" si="10">+J21-J22</f>
-        <v>153072</v>
+        <f t="shared" ref="J23:N23" si="13">+J21-J22</f>
+        <v>-1017</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>31730</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>21954</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>32689</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="13"/>
+        <v>12458</v>
       </c>
       <c r="T23" s="8">
         <f>+T21-T22</f>
@@ -1824,6 +2061,10 @@
       <c r="U23" s="8">
         <f>+U21-U22</f>
         <v>63946</v>
+      </c>
+      <c r="V23" s="8">
+        <f>+V21-V22</f>
+        <v>98831</v>
       </c>
     </row>
     <row r="24" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1840,6 +2081,10 @@
       <c r="E24" s="8">
         <v>81</v>
       </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
       <c r="G24" s="8">
         <v>85</v>
       </c>
@@ -1851,6 +2096,10 @@
         <f>20-SUM(G24:H24)</f>
         <v>-57</v>
       </c>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
       <c r="K24" s="8">
         <v>80</v>
       </c>
@@ -1862,11 +2111,18 @@
         <f>56-SUM(K24:L24)</f>
         <v>-20</v>
       </c>
+      <c r="N24" s="8">
+        <f>+V24-SUM(K24:M24)</f>
+        <v>52</v>
+      </c>
       <c r="T24" s="8">
         <v>180</v>
       </c>
       <c r="U24" s="8">
         <v>138</v>
+      </c>
+      <c r="V24" s="8">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1875,27 +2131,27 @@
         <v>35</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:H25" si="11">+C23-C24</f>
+        <f t="shared" ref="C25:H25" si="14">+C23-C24</f>
         <v>16311</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-127500</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-249796</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="11"/>
-        <v>122358</v>
+        <f t="shared" si="14"/>
+        <v>396261</v>
       </c>
       <c r="G25" s="8">
         <f>+G23-G24</f>
         <v>26740</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15481</v>
       </c>
       <c r="I25" s="8">
@@ -1903,20 +2159,24 @@
         <v>22722</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:M25" si="12">+J23-J24</f>
-        <v>153072</v>
+        <f t="shared" ref="J25:N25" si="15">+J23-J24</f>
+        <v>-1135</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>31650</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>21958</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>32709</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="15"/>
+        <v>12406</v>
       </c>
       <c r="T25" s="8">
         <f>+T23-T24</f>
@@ -1925,6 +2185,10 @@
       <c r="U25" s="8">
         <f>+U23-U24</f>
         <v>63808</v>
+      </c>
+      <c r="V25" s="8">
+        <f>+V23-V24</f>
+        <v>98723</v>
       </c>
     </row>
     <row r="26" spans="1:66" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1937,48 +2201,60 @@
         <v>36</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" ref="C27:H27" si="13">+C25/C28</f>
+        <f t="shared" ref="C27:H27" si="16">+C25/C28</f>
         <v>22.262139298476221</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-174.00271459792663</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-340.87626624938014</v>
       </c>
       <c r="F27" s="12" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>36.654522788407427</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21.298860831508435</v>
       </c>
       <c r="I27" s="12">
         <f>+I25/I28</f>
         <v>31.354480047458221</v>
       </c>
-      <c r="J27" s="12" t="e">
-        <f t="shared" ref="J27:M27" si="14">+J25/J28</f>
-        <v>#DIV/0!</v>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27:N27" si="17">+J25/J28</f>
+        <v>-1.5611804944298882</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>44.26723755635679</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>30.720007084264751</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45.724263250456808</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="17"/>
+        <v>17.35840682767957</v>
+      </c>
+      <c r="U27" s="8">
+        <f>+U25/U28</f>
+        <v>88.301123892658509</v>
+      </c>
+      <c r="V27" s="8">
+        <f>+V25/V28</f>
+        <v>138.13267751483235</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.2">
@@ -2006,7 +2282,10 @@
       <c r="I28" s="6">
         <v>724.68112900000006</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="6">
+        <f>+AVERAGE(G28:I28)</f>
+        <v>727.01395133333335</v>
+      </c>
       <c r="K28" s="6">
         <v>714.97571900000003</v>
       </c>
@@ -2016,15 +2295,21 @@
       <c r="M28" s="3">
         <v>715.35324300000002</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="3">
+        <v>714.69692599999996</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
+      <c r="U28" s="3">
+        <v>722.61820899999998</v>
+      </c>
+      <c r="V28" s="3">
+        <v>714.69692599999996</v>
+      </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -2145,34 +2430,37 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="9">
-        <f t="shared" ref="G30:G35" si="15">+G6/C6-1</f>
+        <f t="shared" ref="G30:G35" si="18">+G6/C6-1</f>
         <v>0.12810442416541523</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30:H35" si="16">+H6/D6-1</f>
+        <f t="shared" ref="H30:H35" si="19">+H6/D6-1</f>
         <v>0.18709778909132502</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" ref="I30:J34" si="17">+I6/E6-1</f>
+        <f t="shared" ref="I30:J34" si="20">+I6/E6-1</f>
         <v>0.10277542880943069</v>
       </c>
-      <c r="J30" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J30" s="9">
+        <f t="shared" si="20"/>
+        <v>0.16649960074075332</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" ref="K30:K35" si="18">+K6/G6-1</f>
+        <f t="shared" ref="K30:K35" si="21">+K6/G6-1</f>
         <v>0.11501353903565659</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" ref="L30:M35" si="19">+L6/H6-1</f>
+        <f t="shared" ref="L30:N35" si="22">+L6/H6-1</f>
         <v>4.7609295377609717E-2</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.1369629409206401</v>
       </c>
-      <c r="N30" s="9"/>
+      <c r="N30" s="9">
+        <f t="shared" si="22"/>
+        <v>0.15406574520456173</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2235,34 +2523,37 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.4235082010465598E-2</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-2.7531234100288349E-2</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.10573285478707928</v>
       </c>
-      <c r="J31" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J31" s="9">
+        <f t="shared" si="20"/>
+        <v>0.23680893210877008</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.463430316669335E-2</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.2490408092082301E-2</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.11799280638652521</v>
       </c>
-      <c r="N31" s="9"/>
+      <c r="N31" s="9">
+        <f t="shared" si="22"/>
+        <v>0.19605416423995337</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -2325,34 +2616,37 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.9151483602290473E-2</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.10838252656434477</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.7671728854470574E-2</v>
       </c>
-      <c r="J32" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J32" s="9">
+        <f t="shared" si="20"/>
+        <v>9.4036978082527201E-2</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.10873994638069706</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.9399233063485353E-2</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.17500239992320243</v>
       </c>
-      <c r="N32" s="9"/>
+      <c r="N32" s="9">
+        <f t="shared" si="22"/>
+        <v>9.9944040290990577E-2</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2415,34 +2709,37 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.51694969974817595</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.7865766481334393</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.62736983390190715</v>
       </c>
-      <c r="J33" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J33" s="9">
+        <f t="shared" si="20"/>
+        <v>0.75501917437401311</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.49593495934959342</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43022273596229943</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43406989930925466</v>
       </c>
-      <c r="N33" s="9"/>
+      <c r="N33" s="9">
+        <f t="shared" si="22"/>
+        <v>0.38303341902313615</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2505,34 +2802,37 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.48663807324315411</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.59896123168243376</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.48706038487060388</v>
       </c>
-      <c r="J34" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="J34" s="9">
+        <f t="shared" si="20"/>
+        <v>0.74361633182112774</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.57151575676875277</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.4520881670533643</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.37925439130258409</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="9">
+        <f t="shared" si="22"/>
+        <v>0.36199078203984536</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -2595,11 +2895,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.14317419253169783</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.22002148321261128</v>
       </c>
       <c r="I35" s="10">
@@ -2611,38 +2911,44 @@
         <v>0.25101750600696326</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.19649975301834566</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.1569807908529004</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.21282911789582815</v>
       </c>
-      <c r="N35" s="9"/>
+      <c r="N35" s="10">
+        <f t="shared" si="22"/>
+        <v>0.21420638653705448</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="9" t="e">
-        <f t="shared" ref="R35:T35" si="20">+R11/Q11-1</f>
+      <c r="R35" s="10" t="e">
+        <f t="shared" ref="R35:T35" si="23">+R11/Q11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="9">
-        <f t="shared" si="20"/>
+      <c r="S35" s="10">
+        <f t="shared" si="23"/>
         <v>0.19926104290455182</v>
       </c>
-      <c r="T35" s="9">
-        <f t="shared" si="20"/>
+      <c r="T35" s="10">
+        <f t="shared" si="23"/>
         <v>0.17718081473211988</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <f>+U11/T11-1</f>
         <v>0.18943033991687463</v>
       </c>
-      <c r="V35" s="3"/>
+      <c r="V35" s="10">
+        <f t="shared" ref="V35" si="24">+V11/U11-1</f>
+        <v>0.19511411500812059</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2693,27 +2999,27 @@
         <v>58</v>
       </c>
       <c r="C36" s="9">
-        <f t="shared" ref="C36:H36" si="21">+C13/C11</f>
+        <f t="shared" ref="C36:H36" si="25">+C13/C11</f>
         <v>0.50180896537686237</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-3.1215978865163811E-2</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.38253831647956665</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>2.3310694846270779</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.54478409208395073</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.56659547761114115</v>
       </c>
       <c r="I36" s="9">
@@ -2722,47 +3028,53 @@
       </c>
       <c r="J36" s="9">
         <f>+J13/J11</f>
-        <v>1</v>
+        <v>0.57461194731890874</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" ref="K36:L36" si="22">+K13/K11</f>
+        <f t="shared" ref="K36:L36" si="26">+K13/K11</f>
         <v>0.55840490031827106</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.57649176028999671</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" ref="M36" si="23">+M13/M11</f>
+        <f t="shared" ref="M36:N36" si="27">+M13/M11</f>
         <v>0.5612016719383417</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="9">
+        <f t="shared" si="27"/>
+        <v>0.57817401176147765</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="9" t="e">
-        <f t="shared" ref="P36:T36" si="24">+P13/P11</f>
+        <f t="shared" ref="P36:T36" si="28">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.49464590195578634</v>
       </c>
       <c r="S36" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.49671172779255512</v>
       </c>
       <c r="T36" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.52044917900021559</v>
       </c>
       <c r="U36" s="9">
         <f>+U13/U11</f>
         <v>0.55838390864904219</v>
       </c>
-      <c r="V36" s="3"/>
+      <c r="V36" s="9">
+        <f t="shared" ref="V36" si="29">+V13/V11</f>
+        <v>0.56804033956661359</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2813,27 +3125,27 @@
         <v>57</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:H37" si="25">+C15/C11</f>
+        <f t="shared" ref="C37:H37" si="30">+C15/C11</f>
         <v>0.1452490856681353</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-0.86140424728919596</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-1.4824965512004353</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="30"/>
+        <v>3.1469540201703197</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.19421948053439939</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.1498123107491508</v>
       </c>
       <c r="I37" s="9">
@@ -2842,29 +3154,53 @@
       </c>
       <c r="J37" s="9">
         <f>+J15/J11</f>
-        <v>1</v>
+        <v>5.6104316922755304E-2</v>
       </c>
       <c r="K37" s="9">
-        <f t="shared" ref="K37:L37" si="26">+K15/K11</f>
+        <f t="shared" ref="K37:L37" si="31">+K15/K11</f>
         <v>0.21368325548573541</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.18828701442270612</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" ref="M37" si="27">+M15/M11</f>
+        <f t="shared" ref="M37:N37" si="32">+M15/M11</f>
         <v>0.20910477510269643</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="9">
+        <f t="shared" si="32"/>
+        <v>8.0242762064123188E-2</v>
+      </c>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="P37" s="9" t="e">
+        <f t="shared" ref="P37:V37" si="33">+P15/P11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="33"/>
+        <v>5.4310624302432914E-2</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="33"/>
+        <v>7.0167003369782557E-2</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="33"/>
+        <v>9.5040344421987055E-2</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="33"/>
+        <v>0.14754335132330965</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" si="33"/>
+        <v>0.17575309896462765</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -2915,27 +3251,27 @@
         <v>59</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38:H38" si="28">+C22/C21</f>
+        <f t="shared" ref="C38:H38" si="34">+C22/C21</f>
         <v>0.24017588521175653</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-7.1262763040589414E-2</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-6.3295720672769853E-2</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>-3.5033627893122352E-2</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.1886946527945802</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.38095619123824764</v>
       </c>
       <c r="I38" s="9">
@@ -2944,29 +3280,53 @@
       </c>
       <c r="J38" s="9">
         <f>+J22/J21</f>
-        <v>0</v>
+        <v>1.8692307692307693</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" ref="K38:L38" si="29">+K22/K21</f>
+        <f t="shared" ref="K38:L38" si="35">+K22/K21</f>
         <v>0.26862437765074682</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.41217735889471996</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" ref="M38" si="30">+M22/M21</f>
+        <f t="shared" ref="M38:N38" si="36">+M22/M21</f>
         <v>0.28637544480101296</v>
       </c>
-      <c r="N38" s="3"/>
+      <c r="N38" s="9">
+        <f t="shared" si="36"/>
+        <v>-2.0144120537176548E-2</v>
+      </c>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="P38" s="9" t="e">
+        <f t="shared" ref="P38:V38" si="37">+P22/P21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="9" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="9" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="9" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="9">
+        <f t="shared" si="37"/>
+        <v>0.29894216510133464</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" si="37"/>
+        <v>0.31421523942302537</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" si="37"/>
+        <v>0.28770963812873418</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
